--- a/BackTest/2019-10-19 BackTest BHP.xlsx
+++ b/BackTest/2019-10-19 BackTest BHP.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>23</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>50</v>
+      </c>
       <c r="L12" t="n">
         <v>1275.5</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>23</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>50</v>
+      </c>
       <c r="L13" t="n">
         <v>1276.5</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>23</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>50</v>
+      </c>
       <c r="L14" t="n">
         <v>1277.5</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>23</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>50</v>
+      </c>
       <c r="L15" t="n">
         <v>1278.5</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>23</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>50</v>
+      </c>
       <c r="L16" t="n">
         <v>1279.5</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>23</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L17" t="n">
         <v>1280.5</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>23</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L18" t="n">
         <v>1281</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>23</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
       <c r="L19" t="n">
         <v>1281.5</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>23</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>100</v>
+      </c>
       <c r="L20" t="n">
         <v>1281.5</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>28</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-100</v>
+      </c>
       <c r="L21" t="n">
         <v>1281.5</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>28</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-100</v>
+      </c>
       <c r="L22" t="n">
         <v>1281</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>31</v>
       </c>
       <c r="K23" t="n">
-        <v>28.57142857142857</v>
+        <v>-25</v>
       </c>
       <c r="L23" t="n">
         <v>1280.8</v>
@@ -1466,7 +1488,7 @@
         <v>31</v>
       </c>
       <c r="K24" t="n">
-        <v>28.57142857142857</v>
+        <v>-25</v>
       </c>
       <c r="L24" t="n">
         <v>1280.6</v>
@@ -1515,7 +1537,7 @@
         <v>31</v>
       </c>
       <c r="K25" t="n">
-        <v>28.57142857142857</v>
+        <v>-25</v>
       </c>
       <c r="L25" t="n">
         <v>1280.4</v>
@@ -1564,7 +1586,7 @@
         <v>33</v>
       </c>
       <c r="K26" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>1280.4</v>
@@ -1613,7 +1635,7 @@
         <v>33</v>
       </c>
       <c r="K27" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>1280.4</v>
@@ -1662,7 +1684,7 @@
         <v>35</v>
       </c>
       <c r="K28" t="n">
-        <v>11.11111111111111</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L28" t="n">
         <v>1280.2</v>
@@ -1711,7 +1733,7 @@
         <v>35</v>
       </c>
       <c r="K29" t="n">
-        <v>11.11111111111111</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L29" t="n">
         <v>1280</v>
@@ -1760,7 +1782,7 @@
         <v>35</v>
       </c>
       <c r="K30" t="n">
-        <v>-9.090909090909092</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L30" t="n">
         <v>1279.8</v>
@@ -1809,7 +1831,7 @@
         <v>37</v>
       </c>
       <c r="K31" t="n">
-        <v>26.31578947368421</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L31" t="n">
         <v>1280.3</v>
@@ -1860,7 +1882,7 @@
         <v>37</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L32" t="n">
         <v>1280.8</v>
@@ -1911,7 +1933,7 @@
         <v>37</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L33" t="n">
         <v>1281</v>
@@ -1962,7 +1984,7 @@
         <v>43</v>
       </c>
       <c r="K34" t="n">
-        <v>30</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L34" t="n">
         <v>1281.8</v>
@@ -2013,7 +2035,7 @@
         <v>45</v>
       </c>
       <c r="K35" t="n">
-        <v>18.18181818181818</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L35" t="n">
         <v>1282.4</v>
@@ -2064,7 +2086,7 @@
         <v>45</v>
       </c>
       <c r="K36" t="n">
-        <v>18.18181818181818</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L36" t="n">
         <v>1282.8</v>
@@ -2115,7 +2137,7 @@
         <v>46</v>
       </c>
       <c r="K37" t="n">
-        <v>13.04347826086956</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L37" t="n">
         <v>1283.1</v>
@@ -2166,7 +2188,7 @@
         <v>46</v>
       </c>
       <c r="K38" t="n">
-        <v>13.04347826086956</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L38" t="n">
         <v>1283.6</v>
@@ -2217,7 +2239,7 @@
         <v>46</v>
       </c>
       <c r="K39" t="n">
-        <v>13.04347826086956</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L39" t="n">
         <v>1284.1</v>
@@ -2268,7 +2290,7 @@
         <v>49</v>
       </c>
       <c r="K40" t="n">
-        <v>23.07692307692308</v>
+        <v>50</v>
       </c>
       <c r="L40" t="n">
         <v>1284.9</v>
@@ -2319,7 +2341,7 @@
         <v>49</v>
       </c>
       <c r="K41" t="n">
-        <v>52.38095238095239</v>
+        <v>50</v>
       </c>
       <c r="L41" t="n">
         <v>1285.5</v>
@@ -2370,7 +2392,7 @@
         <v>49</v>
       </c>
       <c r="K42" t="n">
-        <v>52.38095238095239</v>
+        <v>50</v>
       </c>
       <c r="L42" t="n">
         <v>1286.1</v>
@@ -2421,7 +2443,7 @@
         <v>49</v>
       </c>
       <c r="K43" t="n">
-        <v>44.44444444444444</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>1286.7</v>
@@ -2472,7 +2494,7 @@
         <v>50</v>
       </c>
       <c r="K44" t="n">
-        <v>36.84210526315789</v>
+        <v>20</v>
       </c>
       <c r="L44" t="n">
         <v>1286.6</v>
@@ -2523,7 +2545,7 @@
         <v>50</v>
       </c>
       <c r="K45" t="n">
-        <v>36.84210526315789</v>
+        <v>20</v>
       </c>
       <c r="L45" t="n">
         <v>1286.7</v>
@@ -2574,7 +2596,7 @@
         <v>51</v>
       </c>
       <c r="K46" t="n">
-        <v>22.22222222222222</v>
+        <v>20</v>
       </c>
       <c r="L46" t="n">
         <v>1286.7</v>
@@ -2625,7 +2647,7 @@
         <v>52</v>
       </c>
       <c r="K47" t="n">
-        <v>15.78947368421053</v>
+        <v>0</v>
       </c>
       <c r="L47" t="n">
         <v>1286.7</v>
@@ -2676,7 +2698,7 @@
         <v>54</v>
       </c>
       <c r="K48" t="n">
-        <v>36.84210526315789</v>
+        <v>25</v>
       </c>
       <c r="L48" t="n">
         <v>1286.9</v>
@@ -2727,7 +2749,7 @@
         <v>54</v>
       </c>
       <c r="K49" t="n">
-        <v>36.84210526315789</v>
+        <v>-20</v>
       </c>
       <c r="L49" t="n">
         <v>1287.1</v>
@@ -2778,7 +2800,7 @@
         <v>54</v>
       </c>
       <c r="K50" t="n">
-        <v>36.84210526315789</v>
+        <v>-20</v>
       </c>
       <c r="L50" t="n">
         <v>1287</v>
@@ -2829,7 +2851,7 @@
         <v>55</v>
       </c>
       <c r="K51" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L51" t="n">
         <v>1287</v>
@@ -2880,7 +2902,7 @@
         <v>59</v>
       </c>
       <c r="K52" t="n">
-        <v>45.45454545454545</v>
+        <v>40</v>
       </c>
       <c r="L52" t="n">
         <v>1287.4</v>
@@ -2931,7 +2953,7 @@
         <v>59</v>
       </c>
       <c r="K53" t="n">
-        <v>45.45454545454545</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L53" t="n">
         <v>1287.8</v>
@@ -2982,7 +3004,7 @@
         <v>59</v>
       </c>
       <c r="K54" t="n">
-        <v>25</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L54" t="n">
         <v>1288.3</v>
@@ -3033,7 +3055,7 @@
         <v>59</v>
       </c>
       <c r="K55" t="n">
-        <v>42.85714285714285</v>
+        <v>75</v>
       </c>
       <c r="L55" t="n">
         <v>1288.8</v>
@@ -3084,7 +3106,7 @@
         <v>59</v>
       </c>
       <c r="K56" t="n">
-        <v>42.85714285714285</v>
+        <v>100</v>
       </c>
       <c r="L56" t="n">
         <v>1289.4</v>
@@ -3135,7 +3157,7 @@
         <v>59</v>
       </c>
       <c r="K57" t="n">
-        <v>53.84615384615385</v>
+        <v>100</v>
       </c>
       <c r="L57" t="n">
         <v>1290.1</v>
@@ -3186,7 +3208,7 @@
         <v>59</v>
       </c>
       <c r="K58" t="n">
-        <v>53.84615384615385</v>
+        <v>100</v>
       </c>
       <c r="L58" t="n">
         <v>1290.6</v>
@@ -3237,7 +3259,7 @@
         <v>59</v>
       </c>
       <c r="K59" t="n">
-        <v>53.84615384615385</v>
+        <v>100</v>
       </c>
       <c r="L59" t="n">
         <v>1291.1</v>
@@ -3288,7 +3310,7 @@
         <v>59</v>
       </c>
       <c r="K60" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="L60" t="n">
         <v>1291.6</v>
@@ -3338,9 +3360,7 @@
       <c r="J61" t="n">
         <v>59</v>
       </c>
-      <c r="K61" t="n">
-        <v>40</v>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1292</v>
       </c>
@@ -3389,9 +3409,7 @@
       <c r="J62" t="n">
         <v>59</v>
       </c>
-      <c r="K62" t="n">
-        <v>40</v>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1292</v>
       </c>
@@ -3440,9 +3458,7 @@
       <c r="J63" t="n">
         <v>59</v>
       </c>
-      <c r="K63" t="n">
-        <v>40</v>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1292</v>
       </c>
@@ -3491,9 +3507,7 @@
       <c r="J64" t="n">
         <v>59</v>
       </c>
-      <c r="K64" t="n">
-        <v>55.55555555555556</v>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1292</v>
       </c>
@@ -3542,9 +3556,7 @@
       <c r="J65" t="n">
         <v>59</v>
       </c>
-      <c r="K65" t="n">
-        <v>55.55555555555556</v>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1292</v>
       </c>
@@ -3593,9 +3605,7 @@
       <c r="J66" t="n">
         <v>59</v>
       </c>
-      <c r="K66" t="n">
-        <v>75</v>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1292</v>
       </c>
@@ -3644,9 +3654,7 @@
       <c r="J67" t="n">
         <v>59</v>
       </c>
-      <c r="K67" t="n">
-        <v>100</v>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1292</v>
       </c>
@@ -3695,9 +3703,7 @@
       <c r="J68" t="n">
         <v>59</v>
       </c>
-      <c r="K68" t="n">
-        <v>100</v>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1292</v>
       </c>
@@ -3746,9 +3752,7 @@
       <c r="J69" t="n">
         <v>59</v>
       </c>
-      <c r="K69" t="n">
-        <v>100</v>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1292</v>
       </c>
@@ -3797,9 +3801,7 @@
       <c r="J70" t="n">
         <v>59</v>
       </c>
-      <c r="K70" t="n">
-        <v>100</v>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1292</v>
       </c>
@@ -3848,9 +3850,7 @@
       <c r="J71" t="n">
         <v>59</v>
       </c>
-      <c r="K71" t="n">
-        <v>100</v>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1292</v>
       </c>
@@ -4653,7 +4653,7 @@
         <v>69</v>
       </c>
       <c r="K87" t="n">
-        <v>-20</v>
+        <v>-50</v>
       </c>
       <c r="L87" t="n">
         <v>1290.2</v>
@@ -4704,7 +4704,7 @@
         <v>72</v>
       </c>
       <c r="K88" t="n">
-        <v>-38.46153846153847</v>
+        <v>-20</v>
       </c>
       <c r="L88" t="n">
         <v>1289.5</v>
@@ -4755,7 +4755,7 @@
         <v>77</v>
       </c>
       <c r="K89" t="n">
-        <v>-55.55555555555556</v>
+        <v>-100</v>
       </c>
       <c r="L89" t="n">
         <v>1288.9</v>
@@ -4806,7 +4806,7 @@
         <v>79</v>
       </c>
       <c r="K90" t="n">
-        <v>-40</v>
+        <v>-60</v>
       </c>
       <c r="L90" t="n">
         <v>1288.3</v>
@@ -4857,7 +4857,7 @@
         <v>79</v>
       </c>
       <c r="K91" t="n">
-        <v>-40</v>
+        <v>-60</v>
       </c>
       <c r="L91" t="n">
         <v>1287.7</v>
@@ -4908,7 +4908,7 @@
         <v>79</v>
       </c>
       <c r="K92" t="n">
-        <v>-40</v>
+        <v>-60</v>
       </c>
       <c r="L92" t="n">
         <v>1287.1</v>
@@ -4959,7 +4959,7 @@
         <v>80</v>
       </c>
       <c r="K93" t="n">
-        <v>-33.33333333333333</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L93" t="n">
         <v>1286.6</v>
@@ -5010,7 +5010,7 @@
         <v>80</v>
       </c>
       <c r="K94" t="n">
-        <v>-33.33333333333333</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L94" t="n">
         <v>1286.1</v>
@@ -5061,7 +5061,7 @@
         <v>81</v>
       </c>
       <c r="K95" t="n">
-        <v>-36.36363636363637</v>
+        <v>-50</v>
       </c>
       <c r="L95" t="n">
         <v>1285.5</v>
@@ -5112,7 +5112,7 @@
         <v>83</v>
       </c>
       <c r="K96" t="n">
-        <v>-41.66666666666667</v>
+        <v>-57.14285714285714</v>
       </c>
       <c r="L96" t="n">
         <v>1284.7</v>
@@ -5163,7 +5163,7 @@
         <v>83</v>
       </c>
       <c r="K97" t="n">
-        <v>-41.66666666666667</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L97" t="n">
         <v>1283.9</v>
@@ -5214,7 +5214,7 @@
         <v>85</v>
       </c>
       <c r="K98" t="n">
-        <v>-58.33333333333334</v>
+        <v>-25</v>
       </c>
       <c r="L98" t="n">
         <v>1283.2</v>
@@ -5265,7 +5265,7 @@
         <v>85</v>
       </c>
       <c r="K99" t="n">
-        <v>-44.44444444444444</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L99" t="n">
         <v>1283</v>
@@ -5316,7 +5316,7 @@
         <v>92</v>
       </c>
       <c r="K100" t="n">
-        <v>-13.04347826086956</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L100" t="n">
         <v>1283.3</v>
@@ -5367,7 +5367,7 @@
         <v>92</v>
       </c>
       <c r="K101" t="n">
-        <v>-13.04347826086956</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L101" t="n">
         <v>1283.6</v>
@@ -5418,7 +5418,7 @@
         <v>92</v>
       </c>
       <c r="K102" t="n">
-        <v>-13.04347826086956</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L102" t="n">
         <v>1283.9</v>
@@ -5469,7 +5469,7 @@
         <v>94</v>
       </c>
       <c r="K103" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L103" t="n">
         <v>1283.9</v>
@@ -5520,7 +5520,7 @@
         <v>98</v>
       </c>
       <c r="K104" t="n">
-        <v>-31.03448275862069</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L104" t="n">
         <v>1283.5</v>
@@ -5571,7 +5571,7 @@
         <v>100</v>
       </c>
       <c r="K105" t="n">
-        <v>-22.58064516129032</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L105" t="n">
         <v>1283.4</v>
@@ -5622,7 +5622,7 @@
         <v>103</v>
       </c>
       <c r="K106" t="n">
-        <v>-29.41176470588236</v>
+        <v>-10</v>
       </c>
       <c r="L106" t="n">
         <v>1283.2</v>
@@ -5673,7 +5673,7 @@
         <v>103</v>
       </c>
       <c r="K107" t="n">
-        <v>-29.41176470588236</v>
+        <v>0</v>
       </c>
       <c r="L107" t="n">
         <v>1283</v>
@@ -5724,7 +5724,7 @@
         <v>103</v>
       </c>
       <c r="K108" t="n">
-        <v>-22.58064516129032</v>
+        <v>0</v>
       </c>
       <c r="L108" t="n">
         <v>1283</v>
@@ -5775,7 +5775,7 @@
         <v>104</v>
       </c>
       <c r="K109" t="n">
-        <v>-3.703703703703703</v>
+        <v>-50</v>
       </c>
       <c r="L109" t="n">
         <v>1283.1</v>
@@ -5826,7 +5826,7 @@
         <v>105</v>
       </c>
       <c r="K110" t="n">
-        <v>-15.38461538461539</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L110" t="n">
         <v>1282.4</v>
@@ -5877,7 +5877,7 @@
         <v>108</v>
       </c>
       <c r="K111" t="n">
-        <v>-24.13793103448276</v>
+        <v>-62.5</v>
       </c>
       <c r="L111" t="n">
         <v>1281.4</v>
@@ -5928,7 +5928,7 @@
         <v>110</v>
       </c>
       <c r="K112" t="n">
-        <v>-16.12903225806452</v>
+        <v>-37.5</v>
       </c>
       <c r="L112" t="n">
         <v>1280.6</v>
@@ -5979,7 +5979,7 @@
         <v>110</v>
       </c>
       <c r="K113" t="n">
-        <v>-20</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L113" t="n">
         <v>1280</v>
@@ -6030,7 +6030,7 @@
         <v>110</v>
       </c>
       <c r="K114" t="n">
-        <v>-20</v>
+        <v>-40</v>
       </c>
       <c r="L114" t="n">
         <v>1279.8</v>
@@ -6081,7 +6081,7 @@
         <v>110</v>
       </c>
       <c r="K115" t="n">
-        <v>-17.24137931034483</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L115" t="n">
         <v>1279.4</v>
@@ -6132,7 +6132,7 @@
         <v>110</v>
       </c>
       <c r="K116" t="n">
-        <v>-11.11111111111111</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L116" t="n">
         <v>1279.3</v>
@@ -6183,7 +6183,7 @@
         <v>110</v>
       </c>
       <c r="K117" t="n">
-        <v>-11.11111111111111</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L117" t="n">
         <v>1279.2</v>
@@ -6234,7 +6234,7 @@
         <v>112</v>
       </c>
       <c r="K118" t="n">
-        <v>-11.11111111111111</v>
+        <v>-50</v>
       </c>
       <c r="L118" t="n">
         <v>1278.9</v>
@@ -6285,7 +6285,7 @@
         <v>112</v>
       </c>
       <c r="K119" t="n">
-        <v>-11.11111111111111</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L119" t="n">
         <v>1278.5</v>
@@ -6336,7 +6336,7 @@
         <v>112</v>
       </c>
       <c r="K120" t="n">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="L120" t="n">
         <v>1278.2</v>
@@ -6387,7 +6387,7 @@
         <v>112</v>
       </c>
       <c r="K121" t="n">
-        <v>-50</v>
+        <v>-100</v>
       </c>
       <c r="L121" t="n">
         <v>1278.2</v>
@@ -6438,7 +6438,7 @@
         <v>112</v>
       </c>
       <c r="K122" t="n">
-        <v>-50</v>
+        <v>-100</v>
       </c>
       <c r="L122" t="n">
         <v>1278</v>
@@ -6489,7 +6489,7 @@
         <v>115</v>
       </c>
       <c r="K123" t="n">
-        <v>-23.80952380952381</v>
+        <v>20</v>
       </c>
       <c r="L123" t="n">
         <v>1278.1</v>
@@ -6540,7 +6540,7 @@
         <v>115</v>
       </c>
       <c r="K124" t="n">
-        <v>-5.88235294117647</v>
+        <v>20</v>
       </c>
       <c r="L124" t="n">
         <v>1278.2</v>
@@ -6591,7 +6591,7 @@
         <v>115</v>
       </c>
       <c r="K125" t="n">
-        <v>-20</v>
+        <v>20</v>
       </c>
       <c r="L125" t="n">
         <v>1278.3</v>
@@ -6642,7 +6642,7 @@
         <v>118</v>
       </c>
       <c r="K126" t="n">
-        <v>-20</v>
+        <v>-25</v>
       </c>
       <c r="L126" t="n">
         <v>1278.1</v>
@@ -6693,7 +6693,7 @@
         <v>120</v>
       </c>
       <c r="K127" t="n">
-        <v>-5.88235294117647</v>
+        <v>25</v>
       </c>
       <c r="L127" t="n">
         <v>1278.1</v>
@@ -6744,7 +6744,7 @@
         <v>120</v>
       </c>
       <c r="K128" t="n">
-        <v>-5.88235294117647</v>
+        <v>25</v>
       </c>
       <c r="L128" t="n">
         <v>1278.3</v>
@@ -6795,7 +6795,7 @@
         <v>120</v>
       </c>
       <c r="K129" t="n">
-        <v>-12.5</v>
+        <v>25</v>
       </c>
       <c r="L129" t="n">
         <v>1278.5</v>
@@ -6846,7 +6846,7 @@
         <v>122</v>
       </c>
       <c r="K130" t="n">
-        <v>5.88235294117647</v>
+        <v>40</v>
       </c>
       <c r="L130" t="n">
         <v>1278.9</v>
@@ -6897,7 +6897,7 @@
         <v>122</v>
       </c>
       <c r="K131" t="n">
-        <v>28.57142857142857</v>
+        <v>40</v>
       </c>
       <c r="L131" t="n">
         <v>1279.3</v>
@@ -6948,7 +6948,7 @@
         <v>122</v>
       </c>
       <c r="K132" t="n">
-        <v>16.66666666666666</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L132" t="n">
         <v>1279.7</v>
@@ -6999,7 +6999,7 @@
         <v>122</v>
       </c>
       <c r="K133" t="n">
-        <v>16.66666666666666</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L133" t="n">
         <v>1279.8</v>
@@ -7050,7 +7050,7 @@
         <v>126</v>
       </c>
       <c r="K134" t="n">
-        <v>37.5</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L134" t="n">
         <v>1280.3</v>
@@ -7101,7 +7101,7 @@
         <v>126</v>
       </c>
       <c r="K135" t="n">
-        <v>37.5</v>
+        <v>100</v>
       </c>
       <c r="L135" t="n">
         <v>1280.8</v>
@@ -7152,7 +7152,7 @@
         <v>126</v>
       </c>
       <c r="K136" t="n">
-        <v>37.5</v>
+        <v>100</v>
       </c>
       <c r="L136" t="n">
         <v>1281.6</v>
@@ -7203,7 +7203,7 @@
         <v>127</v>
       </c>
       <c r="K137" t="n">
-        <v>41.17647058823529</v>
+        <v>100</v>
       </c>
       <c r="L137" t="n">
         <v>1282.3</v>
@@ -7254,7 +7254,7 @@
         <v>128</v>
       </c>
       <c r="K138" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="L138" t="n">
         <v>1282.9</v>
@@ -7305,7 +7305,7 @@
         <v>132</v>
       </c>
       <c r="K139" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L139" t="n">
         <v>1283.1</v>
@@ -7356,7 +7356,7 @@
         <v>132</v>
       </c>
       <c r="K140" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L140" t="n">
         <v>1283.1</v>
@@ -7407,7 +7407,7 @@
         <v>132</v>
       </c>
       <c r="K141" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L141" t="n">
         <v>1283.1</v>
@@ -7458,7 +7458,7 @@
         <v>134</v>
       </c>
       <c r="K142" t="n">
-        <v>9.090909090909092</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L142" t="n">
         <v>1282.9</v>
@@ -7509,7 +7509,7 @@
         <v>134</v>
       </c>
       <c r="K143" t="n">
-        <v>-5.263157894736842</v>
+        <v>-75</v>
       </c>
       <c r="L143" t="n">
         <v>1282.7</v>
@@ -7560,7 +7560,7 @@
         <v>134</v>
       </c>
       <c r="K144" t="n">
-        <v>-5.263157894736842</v>
+        <v>-75</v>
       </c>
       <c r="L144" t="n">
         <v>1282.1</v>
@@ -7611,7 +7611,7 @@
         <v>134</v>
       </c>
       <c r="K145" t="n">
-        <v>-5.263157894736842</v>
+        <v>-75</v>
       </c>
       <c r="L145" t="n">
         <v>1281.5</v>
@@ -7662,7 +7662,7 @@
         <v>134</v>
       </c>
       <c r="K146" t="n">
-        <v>12.5</v>
+        <v>-100</v>
       </c>
       <c r="L146" t="n">
         <v>1280.9</v>
@@ -7713,7 +7713,7 @@
         <v>134</v>
       </c>
       <c r="K147" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L147" t="n">
         <v>1280.2</v>
@@ -7764,7 +7764,7 @@
         <v>143</v>
       </c>
       <c r="K148" t="n">
-        <v>39.1304347826087</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L148" t="n">
         <v>1280.5</v>
@@ -7815,7 +7815,7 @@
         <v>143</v>
       </c>
       <c r="K149" t="n">
-        <v>39.1304347826087</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L149" t="n">
         <v>1281.2</v>
@@ -7866,7 +7866,7 @@
         <v>143</v>
       </c>
       <c r="K150" t="n">
-        <v>33.33333333333333</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L150" t="n">
         <v>1281.9</v>
@@ -7917,7 +7917,7 @@
         <v>143</v>
       </c>
       <c r="K151" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L151" t="n">
         <v>1282.6</v>
@@ -7968,7 +7968,7 @@
         <v>143</v>
       </c>
       <c r="K152" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L152" t="n">
         <v>1283.5</v>
@@ -8019,7 +8019,7 @@
         <v>148</v>
       </c>
       <c r="K153" t="n">
-        <v>7.692307692307693</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L153" t="n">
         <v>1283.9</v>
@@ -8070,7 +8070,7 @@
         <v>150</v>
       </c>
       <c r="K154" t="n">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="L154" t="n">
         <v>1284.5</v>
@@ -8121,7 +8121,7 @@
         <v>150</v>
       </c>
       <c r="K155" t="n">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="L155" t="n">
         <v>1285.1</v>
@@ -8172,7 +8172,7 @@
         <v>150</v>
       </c>
       <c r="K156" t="n">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="L156" t="n">
         <v>1285.7</v>
@@ -8223,7 +8223,7 @@
         <v>153</v>
       </c>
       <c r="K157" t="n">
-        <v>-15.38461538461539</v>
+        <v>-60</v>
       </c>
       <c r="L157" t="n">
         <v>1286</v>
@@ -8274,7 +8274,7 @@
         <v>153</v>
       </c>
       <c r="K158" t="n">
-        <v>-12</v>
+        <v>-60</v>
       </c>
       <c r="L158" t="n">
         <v>1285.4</v>
@@ -8325,7 +8325,7 @@
         <v>153</v>
       </c>
       <c r="K159" t="n">
-        <v>4.761904761904762</v>
+        <v>-60</v>
       </c>
       <c r="L159" t="n">
         <v>1284.8</v>
@@ -8376,7 +8376,7 @@
         <v>153</v>
       </c>
       <c r="K160" t="n">
-        <v>4.761904761904762</v>
+        <v>-60</v>
       </c>
       <c r="L160" t="n">
         <v>1284.2</v>
@@ -8427,7 +8427,7 @@
         <v>156</v>
       </c>
       <c r="K161" t="n">
-        <v>-8.333333333333332</v>
+        <v>-69.23076923076923</v>
       </c>
       <c r="L161" t="n">
         <v>1283.3</v>
@@ -8478,7 +8478,7 @@
         <v>156</v>
       </c>
       <c r="K162" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="L162" t="n">
         <v>1282.4</v>
@@ -8529,7 +8529,7 @@
         <v>156</v>
       </c>
       <c r="K163" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L163" t="n">
         <v>1282</v>
@@ -8580,7 +8580,7 @@
         <v>156</v>
       </c>
       <c r="K164" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L164" t="n">
         <v>1281.4</v>
@@ -8631,7 +8631,7 @@
         <v>156</v>
       </c>
       <c r="K165" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L165" t="n">
         <v>1280.8</v>
@@ -8682,7 +8682,7 @@
         <v>156</v>
       </c>
       <c r="K166" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L166" t="n">
         <v>1280.2</v>
@@ -8733,7 +8733,7 @@
         <v>158</v>
       </c>
       <c r="K167" t="n">
-        <v>-8.333333333333332</v>
+        <v>-100</v>
       </c>
       <c r="L167" t="n">
         <v>1279.7</v>
@@ -8784,7 +8784,7 @@
         <v>158</v>
       </c>
       <c r="K168" t="n">
-        <v>-73.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L168" t="n">
         <v>1279.2</v>
@@ -8835,7 +8835,7 @@
         <v>158</v>
       </c>
       <c r="K169" t="n">
-        <v>-73.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L169" t="n">
         <v>1278.7</v>
@@ -8886,7 +8886,7 @@
         <v>158</v>
       </c>
       <c r="K170" t="n">
-        <v>-73.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L170" t="n">
         <v>1278.2</v>
@@ -8937,7 +8937,7 @@
         <v>158</v>
       </c>
       <c r="K171" t="n">
-        <v>-73.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L171" t="n">
         <v>1278</v>
@@ -8988,7 +8988,7 @@
         <v>158</v>
       </c>
       <c r="K172" t="n">
-        <v>-73.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L172" t="n">
         <v>1277.8</v>
@@ -9039,7 +9039,7 @@
         <v>158</v>
       </c>
       <c r="K173" t="n">
-        <v>-60</v>
+        <v>-100</v>
       </c>
       <c r="L173" t="n">
         <v>1277.6</v>
@@ -9191,9 +9191,7 @@
       <c r="J176" t="n">
         <v>158</v>
       </c>
-      <c r="K176" t="n">
-        <v>-100</v>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1277</v>
       </c>
@@ -9243,7 +9241,7 @@
         <v>159</v>
       </c>
       <c r="K177" t="n">
-        <v>-66.66666666666666</v>
+        <v>100</v>
       </c>
       <c r="L177" t="n">
         <v>1277.1</v>
@@ -9294,7 +9292,7 @@
         <v>161</v>
       </c>
       <c r="K178" t="n">
-        <v>-75</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L178" t="n">
         <v>1277</v>
@@ -9345,7 +9343,7 @@
         <v>161</v>
       </c>
       <c r="K179" t="n">
-        <v>-75</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L179" t="n">
         <v>1276.9</v>
@@ -9396,7 +9394,7 @@
         <v>165</v>
       </c>
       <c r="K180" t="n">
-        <v>-83.33333333333334</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L180" t="n">
         <v>1276.4</v>
@@ -9447,7 +9445,7 @@
         <v>165</v>
       </c>
       <c r="K181" t="n">
-        <v>-77.77777777777779</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L181" t="n">
         <v>1275.9</v>
@@ -9498,7 +9496,7 @@
         <v>165</v>
       </c>
       <c r="K182" t="n">
-        <v>-77.77777777777779</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L182" t="n">
         <v>1275.4</v>
@@ -9549,7 +9547,7 @@
         <v>165</v>
       </c>
       <c r="K183" t="n">
-        <v>-77.77777777777779</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L183" t="n">
         <v>1274.9</v>
@@ -9600,7 +9598,7 @@
         <v>165</v>
       </c>
       <c r="K184" t="n">
-        <v>-77.77777777777779</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L184" t="n">
         <v>1274.4</v>
@@ -9651,7 +9649,7 @@
         <v>165</v>
       </c>
       <c r="K185" t="n">
-        <v>-77.77777777777779</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L185" t="n">
         <v>1273.9</v>
@@ -9702,7 +9700,7 @@
         <v>165</v>
       </c>
       <c r="K186" t="n">
-        <v>-77.77777777777779</v>
+        <v>-100</v>
       </c>
       <c r="L186" t="n">
         <v>1273.4</v>
@@ -9753,7 +9751,7 @@
         <v>165</v>
       </c>
       <c r="K187" t="n">
-        <v>-71.42857142857143</v>
+        <v>-100</v>
       </c>
       <c r="L187" t="n">
         <v>1272.8</v>
@@ -9804,7 +9802,7 @@
         <v>166</v>
       </c>
       <c r="K188" t="n">
-        <v>-50</v>
+        <v>-60</v>
       </c>
       <c r="L188" t="n">
         <v>1272.5</v>
@@ -9855,7 +9853,7 @@
         <v>170</v>
       </c>
       <c r="K189" t="n">
-        <v>-66.66666666666666</v>
+        <v>-60</v>
       </c>
       <c r="L189" t="n">
         <v>1271.8</v>
@@ -9906,7 +9904,7 @@
         <v>173</v>
       </c>
       <c r="K190" t="n">
-        <v>-33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L190" t="n">
         <v>1271.8</v>
@@ -9957,7 +9955,7 @@
         <v>173</v>
       </c>
       <c r="K191" t="n">
-        <v>-33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L191" t="n">
         <v>1271.8</v>
@@ -10008,7 +10006,7 @@
         <v>173</v>
       </c>
       <c r="K192" t="n">
-        <v>-33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L192" t="n">
         <v>1271.8</v>
@@ -10059,7 +10057,7 @@
         <v>173</v>
       </c>
       <c r="K193" t="n">
-        <v>-33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L193" t="n">
         <v>1271.8</v>
@@ -10110,7 +10108,7 @@
         <v>173</v>
       </c>
       <c r="K194" t="n">
-        <v>-33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L194" t="n">
         <v>1271.8</v>
@@ -10161,7 +10159,7 @@
         <v>173</v>
       </c>
       <c r="K195" t="n">
-        <v>-33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L195" t="n">
         <v>1271.8</v>
@@ -10212,7 +10210,7 @@
         <v>177</v>
       </c>
       <c r="K196" t="n">
-        <v>-5.263157894736842</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L196" t="n">
         <v>1272.2</v>
@@ -10263,7 +10261,7 @@
         <v>177</v>
       </c>
       <c r="K197" t="n">
-        <v>-11.11111111111111</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L197" t="n">
         <v>1272.6</v>
@@ -10314,7 +10312,7 @@
         <v>177</v>
       </c>
       <c r="K198" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L198" t="n">
         <v>1272.9</v>
@@ -10365,7 +10363,7 @@
         <v>180</v>
       </c>
       <c r="K199" t="n">
-        <v>15.78947368421053</v>
+        <v>100</v>
       </c>
       <c r="L199" t="n">
         <v>1273.9</v>
@@ -10416,7 +10414,7 @@
         <v>180</v>
       </c>
       <c r="K200" t="n">
-        <v>46.66666666666666</v>
+        <v>100</v>
       </c>
       <c r="L200" t="n">
         <v>1274.6</v>
@@ -10467,7 +10465,7 @@
         <v>184</v>
       </c>
       <c r="K201" t="n">
-        <v>57.89473684210527</v>
+        <v>100</v>
       </c>
       <c r="L201" t="n">
         <v>1275.7</v>
@@ -10518,7 +10516,7 @@
         <v>184</v>
       </c>
       <c r="K202" t="n">
-        <v>57.89473684210527</v>
+        <v>100</v>
       </c>
       <c r="L202" t="n">
         <v>1276.8</v>
@@ -10569,7 +10567,7 @@
         <v>184</v>
       </c>
       <c r="K203" t="n">
-        <v>57.89473684210527</v>
+        <v>100</v>
       </c>
       <c r="L203" t="n">
         <v>1277.9</v>
@@ -10620,7 +10618,7 @@
         <v>184</v>
       </c>
       <c r="K204" t="n">
-        <v>57.89473684210527</v>
+        <v>100</v>
       </c>
       <c r="L204" t="n">
         <v>1279</v>
@@ -10671,7 +10669,7 @@
         <v>185</v>
       </c>
       <c r="K205" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="L205" t="n">
         <v>1280</v>
@@ -10722,7 +10720,7 @@
         <v>185</v>
       </c>
       <c r="K206" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="L206" t="n">
         <v>1280.6</v>
@@ -10773,7 +10771,7 @@
         <v>185</v>
       </c>
       <c r="K207" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="L207" t="n">
         <v>1281.2</v>
@@ -10824,7 +10822,7 @@
         <v>185</v>
       </c>
       <c r="K208" t="n">
-        <v>47.36842105263158</v>
+        <v>60</v>
       </c>
       <c r="L208" t="n">
         <v>1281.8</v>
@@ -10875,7 +10873,7 @@
         <v>185</v>
       </c>
       <c r="K209" t="n">
-        <v>86.66666666666667</v>
+        <v>60</v>
       </c>
       <c r="L209" t="n">
         <v>1282.1</v>
@@ -10926,7 +10924,7 @@
         <v>185</v>
       </c>
       <c r="K210" t="n">
-        <v>83.33333333333334</v>
+        <v>-100</v>
       </c>
       <c r="L210" t="n">
         <v>1282.4</v>
@@ -10977,7 +10975,7 @@
         <v>185</v>
       </c>
       <c r="K211" t="n">
-        <v>83.33333333333334</v>
+        <v>-100</v>
       </c>
       <c r="L211" t="n">
         <v>1282.3</v>
@@ -11028,7 +11026,7 @@
         <v>185</v>
       </c>
       <c r="K212" t="n">
-        <v>83.33333333333334</v>
+        <v>-100</v>
       </c>
       <c r="L212" t="n">
         <v>1282.2</v>
@@ -11079,7 +11077,7 @@
         <v>185</v>
       </c>
       <c r="K213" t="n">
-        <v>83.33333333333334</v>
+        <v>-100</v>
       </c>
       <c r="L213" t="n">
         <v>1282.1</v>
@@ -11129,9 +11127,7 @@
       <c r="J214" t="n">
         <v>185</v>
       </c>
-      <c r="K214" t="n">
-        <v>83.33333333333334</v>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1282</v>
       </c>
@@ -11180,9 +11176,7 @@
       <c r="J215" t="n">
         <v>185</v>
       </c>
-      <c r="K215" t="n">
-        <v>83.33333333333334</v>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1282</v>
       </c>
@@ -11231,9 +11225,7 @@
       <c r="J216" t="n">
         <v>185</v>
       </c>
-      <c r="K216" t="n">
-        <v>75</v>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1282</v>
       </c>
@@ -11282,9 +11274,7 @@
       <c r="J217" t="n">
         <v>185</v>
       </c>
-      <c r="K217" t="n">
-        <v>75</v>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1282</v>
       </c>
@@ -11333,9 +11323,7 @@
       <c r="J218" t="n">
         <v>185</v>
       </c>
-      <c r="K218" t="n">
-        <v>75</v>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1282</v>
       </c>
@@ -11384,9 +11372,7 @@
       <c r="J219" t="n">
         <v>185</v>
       </c>
-      <c r="K219" t="n">
-        <v>60</v>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1282</v>
       </c>
@@ -11435,9 +11421,7 @@
       <c r="J220" t="n">
         <v>185</v>
       </c>
-      <c r="K220" t="n">
-        <v>60</v>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1282</v>
       </c>
@@ -11486,9 +11470,7 @@
       <c r="J221" t="n">
         <v>185</v>
       </c>
-      <c r="K221" t="n">
-        <v>-100</v>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1282</v>
       </c>
@@ -11537,9 +11519,7 @@
       <c r="J222" t="n">
         <v>185</v>
       </c>
-      <c r="K222" t="n">
-        <v>-100</v>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1282</v>
       </c>
@@ -11588,9 +11568,7 @@
       <c r="J223" t="n">
         <v>185</v>
       </c>
-      <c r="K223" t="n">
-        <v>-100</v>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1282</v>
       </c>
@@ -11639,9 +11617,7 @@
       <c r="J224" t="n">
         <v>185</v>
       </c>
-      <c r="K224" t="n">
-        <v>-100</v>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1282</v>
       </c>
@@ -12296,9 +12272,7 @@
       <c r="J237" t="n">
         <v>187</v>
       </c>
-      <c r="K237" t="n">
-        <v>-100</v>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1280</v>
       </c>
@@ -12347,9 +12321,7 @@
       <c r="J238" t="n">
         <v>187</v>
       </c>
-      <c r="K238" t="n">
-        <v>-100</v>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1280</v>
       </c>
@@ -12398,9 +12370,7 @@
       <c r="J239" t="n">
         <v>187</v>
       </c>
-      <c r="K239" t="n">
-        <v>-100</v>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1280</v>
       </c>
@@ -12449,9 +12419,7 @@
       <c r="J240" t="n">
         <v>187</v>
       </c>
-      <c r="K240" t="n">
-        <v>-100</v>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1280</v>
       </c>
@@ -12500,9 +12468,7 @@
       <c r="J241" t="n">
         <v>187</v>
       </c>
-      <c r="K241" t="n">
-        <v>-100</v>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1280</v>
       </c>
@@ -12551,9 +12517,7 @@
       <c r="J242" t="n">
         <v>187</v>
       </c>
-      <c r="K242" t="n">
-        <v>-100</v>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1280</v>
       </c>
@@ -12603,7 +12567,7 @@
         <v>189</v>
       </c>
       <c r="K243" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L243" t="n">
         <v>1280.2</v>
@@ -12654,7 +12618,7 @@
         <v>189</v>
       </c>
       <c r="K244" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L244" t="n">
         <v>1280.4</v>
@@ -12705,7 +12669,7 @@
         <v>189</v>
       </c>
       <c r="K245" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L245" t="n">
         <v>1280.6</v>
@@ -12756,7 +12720,7 @@
         <v>189</v>
       </c>
       <c r="K246" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L246" t="n">
         <v>1280.8</v>
@@ -12807,7 +12771,7 @@
         <v>189</v>
       </c>
       <c r="K247" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L247" t="n">
         <v>1281</v>
@@ -13061,9 +13025,7 @@
       <c r="J252" t="n">
         <v>189</v>
       </c>
-      <c r="K252" t="n">
-        <v>100</v>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1282</v>
       </c>
@@ -13112,9 +13074,7 @@
       <c r="J253" t="n">
         <v>189</v>
       </c>
-      <c r="K253" t="n">
-        <v>100</v>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1282</v>
       </c>
@@ -13163,9 +13123,7 @@
       <c r="J254" t="n">
         <v>189</v>
       </c>
-      <c r="K254" t="n">
-        <v>100</v>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1282</v>
       </c>
@@ -13214,9 +13172,7 @@
       <c r="J255" t="n">
         <v>189</v>
       </c>
-      <c r="K255" t="n">
-        <v>100</v>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1282</v>
       </c>
@@ -13265,9 +13221,7 @@
       <c r="J256" t="n">
         <v>189</v>
       </c>
-      <c r="K256" t="n">
-        <v>100</v>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1282</v>
       </c>
@@ -13316,9 +13270,7 @@
       <c r="J257" t="n">
         <v>189</v>
       </c>
-      <c r="K257" t="n">
-        <v>100</v>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1282</v>
       </c>
@@ -13367,9 +13319,7 @@
       <c r="J258" t="n">
         <v>189</v>
       </c>
-      <c r="K258" t="n">
-        <v>100</v>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1282</v>
       </c>
@@ -13418,9 +13368,7 @@
       <c r="J259" t="n">
         <v>189</v>
       </c>
-      <c r="K259" t="n">
-        <v>100</v>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1282</v>
       </c>
@@ -13470,7 +13418,7 @@
         <v>190</v>
       </c>
       <c r="K260" t="n">
-        <v>33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L260" t="n">
         <v>1281.9</v>
@@ -13521,7 +13469,7 @@
         <v>191</v>
       </c>
       <c r="K261" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L261" t="n">
         <v>1281.7</v>
@@ -13572,7 +13520,7 @@
         <v>191</v>
       </c>
       <c r="K262" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L262" t="n">
         <v>1281.5</v>
@@ -13929,7 +13877,7 @@
         <v>193</v>
       </c>
       <c r="K269" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L269" t="n">
         <v>1281.5</v>
@@ -13980,7 +13928,7 @@
         <v>193</v>
       </c>
       <c r="K270" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L270" t="n">
         <v>1281.6</v>
@@ -14031,7 +13979,7 @@
         <v>193</v>
       </c>
       <c r="K271" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L271" t="n">
         <v>1281.8</v>
@@ -14081,9 +14029,7 @@
       <c r="J272" t="n">
         <v>193</v>
       </c>
-      <c r="K272" t="n">
-        <v>0</v>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1282</v>
       </c>
@@ -14132,9 +14078,7 @@
       <c r="J273" t="n">
         <v>193</v>
       </c>
-      <c r="K273" t="n">
-        <v>0</v>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1282</v>
       </c>
@@ -14183,9 +14127,7 @@
       <c r="J274" t="n">
         <v>193</v>
       </c>
-      <c r="K274" t="n">
-        <v>0</v>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1282</v>
       </c>
@@ -14234,9 +14176,7 @@
       <c r="J275" t="n">
         <v>193</v>
       </c>
-      <c r="K275" t="n">
-        <v>0</v>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1282</v>
       </c>
@@ -14285,9 +14225,7 @@
       <c r="J276" t="n">
         <v>193</v>
       </c>
-      <c r="K276" t="n">
-        <v>0</v>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1282</v>
       </c>
@@ -14336,9 +14274,7 @@
       <c r="J277" t="n">
         <v>193</v>
       </c>
-      <c r="K277" t="n">
-        <v>0</v>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1282</v>
       </c>
@@ -14387,9 +14323,7 @@
       <c r="J278" t="n">
         <v>193</v>
       </c>
-      <c r="K278" t="n">
-        <v>0</v>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1282</v>
       </c>
@@ -14442,9 +14376,7 @@
       <c r="J279" t="n">
         <v>193</v>
       </c>
-      <c r="K279" t="n">
-        <v>0</v>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1282</v>
       </c>
@@ -14501,9 +14433,7 @@
       <c r="J280" t="n">
         <v>193</v>
       </c>
-      <c r="K280" t="n">
-        <v>33.33333333333333</v>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1282</v>
       </c>
@@ -14560,9 +14490,7 @@
       <c r="J281" t="n">
         <v>193</v>
       </c>
-      <c r="K281" t="n">
-        <v>100</v>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1282</v>
       </c>
@@ -14619,9 +14547,7 @@
       <c r="J282" t="n">
         <v>193</v>
       </c>
-      <c r="K282" t="n">
-        <v>100</v>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1282</v>
       </c>
@@ -15206,7 +15132,7 @@
         <v>197</v>
       </c>
       <c r="K292" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L292" t="n">
         <v>1280.8</v>
@@ -15265,7 +15191,7 @@
         <v>197</v>
       </c>
       <c r="K293" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L293" t="n">
         <v>1281</v>
@@ -15324,7 +15250,7 @@
         <v>197</v>
       </c>
       <c r="K294" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L294" t="n">
         <v>1281.2</v>
@@ -15383,7 +15309,7 @@
         <v>197</v>
       </c>
       <c r="K295" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L295" t="n">
         <v>1281.4</v>
@@ -15442,7 +15368,7 @@
         <v>197</v>
       </c>
       <c r="K296" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L296" t="n">
         <v>1281.6</v>
@@ -15501,7 +15427,7 @@
         <v>197</v>
       </c>
       <c r="K297" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L297" t="n">
         <v>1281.8</v>
@@ -15559,9 +15485,7 @@
       <c r="J298" t="n">
         <v>197</v>
       </c>
-      <c r="K298" t="n">
-        <v>0</v>
-      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1282</v>
       </c>
@@ -15614,9 +15538,7 @@
       <c r="J299" t="n">
         <v>197</v>
       </c>
-      <c r="K299" t="n">
-        <v>0</v>
-      </c>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1282</v>
       </c>
@@ -15673,9 +15595,7 @@
       <c r="J300" t="n">
         <v>197</v>
       </c>
-      <c r="K300" t="n">
-        <v>0</v>
-      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1282</v>
       </c>
@@ -15733,7 +15653,7 @@
         <v>199</v>
       </c>
       <c r="K301" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L301" t="n">
         <v>1281.8</v>
@@ -15792,7 +15712,7 @@
         <v>199</v>
       </c>
       <c r="K302" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L302" t="n">
         <v>1281.6</v>
@@ -15851,7 +15771,7 @@
         <v>199</v>
       </c>
       <c r="K303" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L303" t="n">
         <v>1281.4</v>
@@ -15910,7 +15830,7 @@
         <v>199</v>
       </c>
       <c r="K304" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L304" t="n">
         <v>1281.2</v>
@@ -15969,7 +15889,7 @@
         <v>201</v>
       </c>
       <c r="K305" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L305" t="n">
         <v>1281.2</v>
@@ -16028,7 +15948,7 @@
         <v>201</v>
       </c>
       <c r="K306" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L306" t="n">
         <v>1281.2</v>
@@ -16085,7 +16005,7 @@
         <v>201</v>
       </c>
       <c r="K307" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L307" t="n">
         <v>1281.2</v>
@@ -16142,7 +16062,7 @@
         <v>201</v>
       </c>
       <c r="K308" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L308" t="n">
         <v>1281.2</v>
@@ -16244,7 +16164,7 @@
         <v>201</v>
       </c>
       <c r="K310" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L310" t="n">
         <v>1281.2</v>
@@ -16295,7 +16215,7 @@
         <v>203</v>
       </c>
       <c r="K311" t="n">
-        <v>-33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L311" t="n">
         <v>1281.2</v>
@@ -16346,7 +16266,7 @@
         <v>203</v>
       </c>
       <c r="K312" t="n">
-        <v>-33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L312" t="n">
         <v>1281.2</v>
@@ -16397,7 +16317,7 @@
         <v>203</v>
       </c>
       <c r="K313" t="n">
-        <v>-33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L313" t="n">
         <v>1281.2</v>
@@ -16448,7 +16368,7 @@
         <v>203</v>
       </c>
       <c r="K314" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L314" t="n">
         <v>1281.2</v>
@@ -16499,7 +16419,7 @@
         <v>203</v>
       </c>
       <c r="K315" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L315" t="n">
         <v>1281</v>
@@ -16550,7 +16470,7 @@
         <v>203</v>
       </c>
       <c r="K316" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L316" t="n">
         <v>1280.8</v>
@@ -16601,7 +16521,7 @@
         <v>203</v>
       </c>
       <c r="K317" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L317" t="n">
         <v>1280.6</v>
@@ -16754,7 +16674,7 @@
         <v>207</v>
       </c>
       <c r="K320" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L320" t="n">
         <v>1280.8</v>
@@ -16805,7 +16725,7 @@
         <v>209</v>
       </c>
       <c r="K321" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L321" t="n">
         <v>1281</v>
@@ -16856,7 +16776,7 @@
         <v>209</v>
       </c>
       <c r="K322" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L322" t="n">
         <v>1281.2</v>
@@ -16907,7 +16827,7 @@
         <v>209</v>
       </c>
       <c r="K323" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L323" t="n">
         <v>1281.4</v>
@@ -16958,7 +16878,7 @@
         <v>209</v>
       </c>
       <c r="K324" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L324" t="n">
         <v>1281.6</v>
@@ -17009,7 +16929,7 @@
         <v>209</v>
       </c>
       <c r="K325" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L325" t="n">
         <v>1281.8</v>
@@ -17060,7 +16980,7 @@
         <v>209</v>
       </c>
       <c r="K326" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L326" t="n">
         <v>1282</v>
@@ -17213,7 +17133,7 @@
         <v>209</v>
       </c>
       <c r="K329" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L329" t="n">
         <v>1282.2</v>
@@ -17263,9 +17183,7 @@
       <c r="J330" t="n">
         <v>209</v>
       </c>
-      <c r="K330" t="n">
-        <v>0</v>
-      </c>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1282</v>
       </c>
@@ -17314,9 +17232,7 @@
       <c r="J331" t="n">
         <v>209</v>
       </c>
-      <c r="K331" t="n">
-        <v>33.33333333333333</v>
-      </c>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1282</v>
       </c>
@@ -17365,9 +17281,7 @@
       <c r="J332" t="n">
         <v>209</v>
       </c>
-      <c r="K332" t="n">
-        <v>33.33333333333333</v>
-      </c>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1282</v>
       </c>
@@ -17416,9 +17330,7 @@
       <c r="J333" t="n">
         <v>209</v>
       </c>
-      <c r="K333" t="n">
-        <v>33.33333333333333</v>
-      </c>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1282</v>
       </c>
@@ -17467,9 +17379,7 @@
       <c r="J334" t="n">
         <v>209</v>
       </c>
-      <c r="K334" t="n">
-        <v>33.33333333333333</v>
-      </c>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1282</v>
       </c>
@@ -17518,9 +17428,7 @@
       <c r="J335" t="n">
         <v>209</v>
       </c>
-      <c r="K335" t="n">
-        <v>33.33333333333333</v>
-      </c>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1282</v>
       </c>
@@ -17569,9 +17477,7 @@
       <c r="J336" t="n">
         <v>209</v>
       </c>
-      <c r="K336" t="n">
-        <v>33.33333333333333</v>
-      </c>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1282</v>
       </c>
@@ -17620,9 +17526,7 @@
       <c r="J337" t="n">
         <v>209</v>
       </c>
-      <c r="K337" t="n">
-        <v>33.33333333333333</v>
-      </c>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1282</v>
       </c>
@@ -17671,9 +17575,7 @@
       <c r="J338" t="n">
         <v>209</v>
       </c>
-      <c r="K338" t="n">
-        <v>0</v>
-      </c>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1282</v>
       </c>
@@ -17722,9 +17624,7 @@
       <c r="J339" t="n">
         <v>209</v>
       </c>
-      <c r="K339" t="n">
-        <v>0</v>
-      </c>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1282</v>
       </c>
@@ -18233,7 +18133,7 @@
         <v>213</v>
       </c>
       <c r="K349" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L349" t="n">
         <v>1280.2</v>
@@ -18284,7 +18184,7 @@
         <v>213</v>
       </c>
       <c r="K350" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L350" t="n">
         <v>1280.4</v>
@@ -18335,7 +18235,7 @@
         <v>215</v>
       </c>
       <c r="K351" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L351" t="n">
         <v>1280.8</v>
@@ -18386,7 +18286,7 @@
         <v>217</v>
       </c>
       <c r="K352" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L352" t="n">
         <v>1281</v>
@@ -18437,7 +18337,7 @@
         <v>217</v>
       </c>
       <c r="K353" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L353" t="n">
         <v>1281.2</v>
@@ -18488,7 +18388,7 @@
         <v>217</v>
       </c>
       <c r="K354" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L354" t="n">
         <v>1281.4</v>
@@ -18539,7 +18439,7 @@
         <v>217</v>
       </c>
       <c r="K355" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L355" t="n">
         <v>1281.6</v>
@@ -18590,7 +18490,7 @@
         <v>217</v>
       </c>
       <c r="K356" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L356" t="n">
         <v>1281.8</v>
@@ -18641,7 +18541,7 @@
         <v>219</v>
       </c>
       <c r="K357" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L357" t="n">
         <v>1281.8</v>
@@ -18692,7 +18592,7 @@
         <v>221</v>
       </c>
       <c r="K358" t="n">
-        <v>-33.33333333333333</v>
+        <v>-50</v>
       </c>
       <c r="L358" t="n">
         <v>1281.6</v>
@@ -18743,7 +18643,7 @@
         <v>223</v>
       </c>
       <c r="K359" t="n">
-        <v>-14.28571428571428</v>
+        <v>-20</v>
       </c>
       <c r="L359" t="n">
         <v>1281.4</v>
@@ -18794,7 +18694,7 @@
         <v>223</v>
       </c>
       <c r="K360" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="L360" t="n">
         <v>1281.2</v>
@@ -18845,7 +18745,7 @@
         <v>223</v>
       </c>
       <c r="K361" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L361" t="n">
         <v>1280.8</v>
@@ -18896,7 +18796,7 @@
         <v>223</v>
       </c>
       <c r="K362" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L362" t="n">
         <v>1280.6</v>
@@ -18947,7 +18847,7 @@
         <v>223</v>
       </c>
       <c r="K363" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L363" t="n">
         <v>1280.4</v>
@@ -18998,7 +18898,7 @@
         <v>223</v>
       </c>
       <c r="K364" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L364" t="n">
         <v>1280.2</v>
@@ -19049,7 +18949,7 @@
         <v>223</v>
       </c>
       <c r="K365" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L365" t="n">
         <v>1280</v>
@@ -19151,7 +19051,7 @@
         <v>223</v>
       </c>
       <c r="K367" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L367" t="n">
         <v>1279.8</v>
@@ -19201,9 +19101,7 @@
       <c r="J368" t="n">
         <v>223</v>
       </c>
-      <c r="K368" t="n">
-        <v>0</v>
-      </c>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1280</v>
       </c>
@@ -19252,9 +19150,7 @@
       <c r="J369" t="n">
         <v>223</v>
       </c>
-      <c r="K369" t="n">
-        <v>-20</v>
-      </c>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1280</v>
       </c>
@@ -19304,7 +19200,7 @@
         <v>225</v>
       </c>
       <c r="K370" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L370" t="n">
         <v>1279.8</v>
@@ -19355,7 +19251,7 @@
         <v>225</v>
       </c>
       <c r="K371" t="n">
-        <v>-60</v>
+        <v>-100</v>
       </c>
       <c r="L371" t="n">
         <v>1279.6</v>
@@ -19406,7 +19302,7 @@
         <v>225</v>
       </c>
       <c r="K372" t="n">
-        <v>-50</v>
+        <v>-100</v>
       </c>
       <c r="L372" t="n">
         <v>1279.4</v>
@@ -19457,7 +19353,7 @@
         <v>225</v>
       </c>
       <c r="K373" t="n">
-        <v>-50</v>
+        <v>-100</v>
       </c>
       <c r="L373" t="n">
         <v>1279.2</v>
@@ -19508,7 +19404,7 @@
         <v>225</v>
       </c>
       <c r="K374" t="n">
-        <v>-50</v>
+        <v>-100</v>
       </c>
       <c r="L374" t="n">
         <v>1279</v>
@@ -19559,7 +19455,7 @@
         <v>225</v>
       </c>
       <c r="K375" t="n">
-        <v>-50</v>
+        <v>-100</v>
       </c>
       <c r="L375" t="n">
         <v>1278.8</v>
@@ -19610,7 +19506,7 @@
         <v>225</v>
       </c>
       <c r="K376" t="n">
-        <v>-50</v>
+        <v>-100</v>
       </c>
       <c r="L376" t="n">
         <v>1278.6</v>
@@ -19661,7 +19557,7 @@
         <v>225</v>
       </c>
       <c r="K377" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L377" t="n">
         <v>1278.4</v>
@@ -19712,7 +19608,7 @@
         <v>225</v>
       </c>
       <c r="K378" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L378" t="n">
         <v>1278.2</v>
@@ -20069,7 +19965,7 @@
         <v>230</v>
       </c>
       <c r="K385" t="n">
-        <v>-42.85714285714285</v>
+        <v>-20</v>
       </c>
       <c r="L385" t="n">
         <v>1276.5</v>
@@ -20120,7 +20016,7 @@
         <v>230</v>
       </c>
       <c r="K386" t="n">
-        <v>-42.85714285714285</v>
+        <v>-20</v>
       </c>
       <c r="L386" t="n">
         <v>1276.4</v>
@@ -20171,7 +20067,7 @@
         <v>232</v>
       </c>
       <c r="K387" t="n">
-        <v>-11.11111111111111</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L387" t="n">
         <v>1276.5</v>
@@ -20222,7 +20118,7 @@
         <v>232</v>
       </c>
       <c r="K388" t="n">
-        <v>-11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L388" t="n">
         <v>1276.6</v>
@@ -20273,7 +20169,7 @@
         <v>234</v>
       </c>
       <c r="K389" t="n">
-        <v>-27.27272727272727</v>
+        <v>0</v>
       </c>
       <c r="L389" t="n">
         <v>1276.6</v>
@@ -20324,7 +20220,7 @@
         <v>234</v>
       </c>
       <c r="K390" t="n">
-        <v>-11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L390" t="n">
         <v>1276.6</v>
@@ -20375,7 +20271,7 @@
         <v>234</v>
       </c>
       <c r="K391" t="n">
-        <v>-11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L391" t="n">
         <v>1276.8</v>
@@ -20426,7 +20322,7 @@
         <v>236</v>
       </c>
       <c r="K392" t="n">
-        <v>-27.27272727272727</v>
+        <v>0</v>
       </c>
       <c r="L392" t="n">
         <v>1276.8</v>
@@ -20477,7 +20373,7 @@
         <v>236</v>
       </c>
       <c r="K393" t="n">
-        <v>-27.27272727272727</v>
+        <v>0</v>
       </c>
       <c r="L393" t="n">
         <v>1276.8</v>
@@ -20528,7 +20424,7 @@
         <v>236</v>
       </c>
       <c r="K394" t="n">
-        <v>-27.27272727272727</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L394" t="n">
         <v>1276.8</v>
@@ -20579,7 +20475,7 @@
         <v>236</v>
       </c>
       <c r="K395" t="n">
-        <v>-27.27272727272727</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L395" t="n">
         <v>1276.6</v>
@@ -20630,7 +20526,7 @@
         <v>238</v>
       </c>
       <c r="K396" t="n">
-        <v>-7.692307692307693</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L396" t="n">
         <v>1276.6</v>
@@ -20681,7 +20577,7 @@
         <v>238</v>
       </c>
       <c r="K397" t="n">
-        <v>-7.692307692307693</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L397" t="n">
         <v>1276.4</v>
@@ -20732,7 +20628,7 @@
         <v>240</v>
       </c>
       <c r="K398" t="n">
-        <v>6.666666666666667</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L398" t="n">
         <v>1276.4</v>
@@ -20783,7 +20679,7 @@
         <v>240</v>
       </c>
       <c r="K399" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L399" t="n">
         <v>1276.6</v>
@@ -20885,7 +20781,7 @@
         <v>242</v>
       </c>
       <c r="K401" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L401" t="n">
         <v>1276.6</v>
@@ -20936,7 +20832,7 @@
         <v>242</v>
       </c>
       <c r="K402" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L402" t="n">
         <v>1276.8</v>
@@ -20987,7 +20883,7 @@
         <v>242</v>
       </c>
       <c r="K403" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L403" t="n">
         <v>1277</v>
@@ -21038,7 +20934,7 @@
         <v>242</v>
       </c>
       <c r="K404" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L404" t="n">
         <v>1277.2</v>
@@ -21089,7 +20985,7 @@
         <v>244</v>
       </c>
       <c r="K405" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L405" t="n">
         <v>1277.2</v>
@@ -21140,7 +21036,7 @@
         <v>244</v>
       </c>
       <c r="K406" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L406" t="n">
         <v>1277</v>
@@ -21191,7 +21087,7 @@
         <v>244</v>
       </c>
       <c r="K407" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L407" t="n">
         <v>1276.8</v>
@@ -21242,7 +21138,7 @@
         <v>246</v>
       </c>
       <c r="K408" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L408" t="n">
         <v>1276.6</v>
@@ -21344,7 +21240,7 @@
         <v>248</v>
       </c>
       <c r="K410" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L410" t="n">
         <v>1276.2</v>
@@ -21395,7 +21291,7 @@
         <v>251</v>
       </c>
       <c r="K411" t="n">
-        <v>-29.41176470588236</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L411" t="n">
         <v>1275.7</v>
@@ -21446,7 +21342,7 @@
         <v>251</v>
       </c>
       <c r="K412" t="n">
-        <v>-20</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L412" t="n">
         <v>1275.2</v>
@@ -21497,7 +21393,7 @@
         <v>251</v>
       </c>
       <c r="K413" t="n">
-        <v>-20</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L413" t="n">
         <v>1274.7</v>
@@ -21548,7 +21444,7 @@
         <v>251</v>
       </c>
       <c r="K414" t="n">
-        <v>-20</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L414" t="n">
         <v>1274.2</v>
@@ -21599,7 +21495,7 @@
         <v>251</v>
       </c>
       <c r="K415" t="n">
-        <v>-20</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L415" t="n">
         <v>1273.9</v>
@@ -21650,7 +21546,7 @@
         <v>251</v>
       </c>
       <c r="K416" t="n">
-        <v>-38.46153846153847</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L416" t="n">
         <v>1273.6</v>
@@ -21701,7 +21597,7 @@
         <v>251</v>
       </c>
       <c r="K417" t="n">
-        <v>-38.46153846153847</v>
+        <v>-100</v>
       </c>
       <c r="L417" t="n">
         <v>1273.3</v>
@@ -21752,7 +21648,7 @@
         <v>251</v>
       </c>
       <c r="K418" t="n">
-        <v>-63.63636363636363</v>
+        <v>-100</v>
       </c>
       <c r="L418" t="n">
         <v>1272.8</v>
@@ -21803,7 +21699,7 @@
         <v>254</v>
       </c>
       <c r="K419" t="n">
-        <v>-28.57142857142857</v>
+        <v>0</v>
       </c>
       <c r="L419" t="n">
         <v>1272.6</v>
@@ -21854,7 +21750,7 @@
         <v>254</v>
       </c>
       <c r="K420" t="n">
-        <v>-16.66666666666666</v>
+        <v>100</v>
       </c>
       <c r="L420" t="n">
         <v>1272.6</v>
@@ -21905,7 +21801,7 @@
         <v>254</v>
       </c>
       <c r="K421" t="n">
-        <v>-16.66666666666666</v>
+        <v>100</v>
       </c>
       <c r="L421" t="n">
         <v>1272.9</v>
@@ -21956,7 +21852,7 @@
         <v>254</v>
       </c>
       <c r="K422" t="n">
-        <v>-16.66666666666666</v>
+        <v>100</v>
       </c>
       <c r="L422" t="n">
         <v>1273.2</v>
@@ -22007,7 +21903,7 @@
         <v>254</v>
       </c>
       <c r="K423" t="n">
-        <v>-16.66666666666666</v>
+        <v>100</v>
       </c>
       <c r="L423" t="n">
         <v>1273.5</v>
@@ -22058,7 +21954,7 @@
         <v>256</v>
       </c>
       <c r="K424" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L424" t="n">
         <v>1274</v>
@@ -22109,7 +22005,7 @@
         <v>256</v>
       </c>
       <c r="K425" t="n">
-        <v>16.66666666666666</v>
+        <v>100</v>
       </c>
       <c r="L425" t="n">
         <v>1274.5</v>
@@ -22160,7 +22056,7 @@
         <v>256</v>
       </c>
       <c r="K426" t="n">
-        <v>16.66666666666666</v>
+        <v>100</v>
       </c>
       <c r="L426" t="n">
         <v>1275</v>
@@ -22211,7 +22107,7 @@
         <v>259</v>
       </c>
       <c r="K427" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L427" t="n">
         <v>1275.8</v>
@@ -22262,7 +22158,7 @@
         <v>259</v>
       </c>
       <c r="K428" t="n">
-        <v>23.07692307692308</v>
+        <v>100</v>
       </c>
       <c r="L428" t="n">
         <v>1276.6</v>
@@ -22313,7 +22209,7 @@
         <v>261</v>
       </c>
       <c r="K429" t="n">
-        <v>6.666666666666667</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L429" t="n">
         <v>1276.9</v>
@@ -22364,7 +22260,7 @@
         <v>262</v>
       </c>
       <c r="K430" t="n">
-        <v>28.57142857142857</v>
+        <v>50</v>
       </c>
       <c r="L430" t="n">
         <v>1277.3</v>
@@ -22415,7 +22311,7 @@
         <v>265</v>
       </c>
       <c r="K431" t="n">
-        <v>71.42857142857143</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L431" t="n">
         <v>1278</v>
@@ -22466,7 +22362,7 @@
         <v>268</v>
       </c>
       <c r="K432" t="n">
-        <v>41.17647058823529</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L432" t="n">
         <v>1278.4</v>
@@ -22517,7 +22413,7 @@
         <v>268</v>
       </c>
       <c r="K433" t="n">
-        <v>41.17647058823529</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L433" t="n">
         <v>1278.8</v>
@@ -22568,7 +22464,7 @@
         <v>268</v>
       </c>
       <c r="K434" t="n">
-        <v>41.17647058823529</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L434" t="n">
         <v>1279</v>
@@ -22619,7 +22515,7 @@
         <v>268</v>
       </c>
       <c r="K435" t="n">
-        <v>41.17647058823529</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L435" t="n">
         <v>1279.2</v>
@@ -22670,7 +22566,7 @@
         <v>268</v>
       </c>
       <c r="K436" t="n">
-        <v>41.17647058823529</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L436" t="n">
         <v>1279.4</v>
@@ -22721,7 +22617,7 @@
         <v>268</v>
       </c>
       <c r="K437" t="n">
-        <v>41.17647058823529</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L437" t="n">
         <v>1279.3</v>
@@ -22772,7 +22668,7 @@
         <v>268</v>
       </c>
       <c r="K438" t="n">
-        <v>41.17647058823529</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L438" t="n">
         <v>1279.2</v>
@@ -22823,7 +22719,7 @@
         <v>268</v>
       </c>
       <c r="K439" t="n">
-        <v>28.57142857142857</v>
+        <v>0</v>
       </c>
       <c r="L439" t="n">
         <v>1279.3</v>
@@ -22874,7 +22770,7 @@
         <v>270</v>
       </c>
       <c r="K440" t="n">
-        <v>12.5</v>
+        <v>-100</v>
       </c>
       <c r="L440" t="n">
         <v>1279.1</v>
@@ -22925,7 +22821,7 @@
         <v>270</v>
       </c>
       <c r="K441" t="n">
-        <v>12.5</v>
+        <v>-100</v>
       </c>
       <c r="L441" t="n">
         <v>1278.6</v>
@@ -22976,7 +22872,7 @@
         <v>270</v>
       </c>
       <c r="K442" t="n">
-        <v>12.5</v>
+        <v>-100</v>
       </c>
       <c r="L442" t="n">
         <v>1278.4</v>
@@ -23027,7 +22923,7 @@
         <v>270</v>
       </c>
       <c r="K443" t="n">
-        <v>12.5</v>
+        <v>-100</v>
       </c>
       <c r="L443" t="n">
         <v>1278.2</v>
@@ -23078,7 +22974,7 @@
         <v>270</v>
       </c>
       <c r="K444" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L444" t="n">
         <v>1278</v>
@@ -23129,7 +23025,7 @@
         <v>272</v>
       </c>
       <c r="K445" t="n">
-        <v>-12.5</v>
+        <v>-100</v>
       </c>
       <c r="L445" t="n">
         <v>1277.6</v>
@@ -23180,7 +23076,7 @@
         <v>272</v>
       </c>
       <c r="K446" t="n">
-        <v>-12.5</v>
+        <v>-100</v>
       </c>
       <c r="L446" t="n">
         <v>1277.2</v>
@@ -23231,7 +23127,7 @@
         <v>274</v>
       </c>
       <c r="K447" t="n">
-        <v>-46.66666666666666</v>
+        <v>-100</v>
       </c>
       <c r="L447" t="n">
         <v>1276.6</v>
@@ -23282,7 +23178,7 @@
         <v>274</v>
       </c>
       <c r="K448" t="n">
-        <v>-46.66666666666666</v>
+        <v>-100</v>
       </c>
       <c r="L448" t="n">
         <v>1276</v>
@@ -23333,7 +23229,7 @@
         <v>274</v>
       </c>
       <c r="K449" t="n">
-        <v>-38.46153846153847</v>
+        <v>-100</v>
       </c>
       <c r="L449" t="n">
         <v>1275.4</v>
@@ -23384,7 +23280,7 @@
         <v>274</v>
       </c>
       <c r="K450" t="n">
-        <v>-50</v>
+        <v>-100</v>
       </c>
       <c r="L450" t="n">
         <v>1275</v>
@@ -23741,7 +23637,7 @@
         <v>281</v>
       </c>
       <c r="K457" t="n">
-        <v>-53.84615384615385</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L457" t="n">
         <v>1272.1</v>
@@ -23792,7 +23688,7 @@
         <v>281</v>
       </c>
       <c r="K458" t="n">
-        <v>-53.84615384615385</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L458" t="n">
         <v>1272</v>
@@ -23843,7 +23739,7 @@
         <v>281</v>
       </c>
       <c r="K459" t="n">
-        <v>-53.84615384615385</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L459" t="n">
         <v>1271.9</v>
@@ -23894,7 +23790,7 @@
         <v>281</v>
       </c>
       <c r="K460" t="n">
-        <v>-45.45454545454545</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L460" t="n">
         <v>1271.8</v>
@@ -23945,7 +23841,7 @@
         <v>283</v>
       </c>
       <c r="K461" t="n">
-        <v>-23.07692307692308</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L461" t="n">
         <v>1271.9</v>
@@ -23996,7 +23892,7 @@
         <v>283</v>
       </c>
       <c r="K462" t="n">
-        <v>-23.07692307692308</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L462" t="n">
         <v>1272</v>
@@ -24047,7 +23943,7 @@
         <v>283</v>
       </c>
       <c r="K463" t="n">
-        <v>-23.07692307692308</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L463" t="n">
         <v>1272.1</v>
@@ -24098,7 +23994,7 @@
         <v>285</v>
       </c>
       <c r="K464" t="n">
-        <v>-6.666666666666667</v>
+        <v>100</v>
       </c>
       <c r="L464" t="n">
         <v>1272.4</v>
@@ -24149,7 +24045,7 @@
         <v>285</v>
       </c>
       <c r="K465" t="n">
-        <v>7.692307692307693</v>
+        <v>100</v>
       </c>
       <c r="L465" t="n">
         <v>1273.1</v>
@@ -24200,7 +24096,7 @@
         <v>285</v>
       </c>
       <c r="K466" t="n">
-        <v>7.692307692307693</v>
+        <v>100</v>
       </c>
       <c r="L466" t="n">
         <v>1273.8</v>
@@ -24251,7 +24147,7 @@
         <v>285</v>
       </c>
       <c r="K467" t="n">
-        <v>27.27272727272727</v>
+        <v>100</v>
       </c>
       <c r="L467" t="n">
         <v>1274.2</v>
@@ -24302,7 +24198,7 @@
         <v>285</v>
       </c>
       <c r="K468" t="n">
-        <v>27.27272727272727</v>
+        <v>100</v>
       </c>
       <c r="L468" t="n">
         <v>1274.6</v>
@@ -24353,7 +24249,7 @@
         <v>285</v>
       </c>
       <c r="K469" t="n">
-        <v>27.27272727272727</v>
+        <v>100</v>
       </c>
       <c r="L469" t="n">
         <v>1275</v>
@@ -24404,7 +24300,7 @@
         <v>285</v>
       </c>
       <c r="K470" t="n">
-        <v>27.27272727272727</v>
+        <v>100</v>
       </c>
       <c r="L470" t="n">
         <v>1275.4</v>
@@ -24455,7 +24351,7 @@
         <v>285</v>
       </c>
       <c r="K471" t="n">
-        <v>27.27272727272727</v>
+        <v>100</v>
       </c>
       <c r="L471" t="n">
         <v>1275.6</v>
@@ -24506,7 +24402,7 @@
         <v>285</v>
       </c>
       <c r="K472" t="n">
-        <v>27.27272727272727</v>
+        <v>100</v>
       </c>
       <c r="L472" t="n">
         <v>1275.8</v>
@@ -24556,9 +24452,7 @@
       <c r="J473" t="n">
         <v>285</v>
       </c>
-      <c r="K473" t="n">
-        <v>27.27272727272727</v>
-      </c>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1276</v>
       </c>
@@ -24607,9 +24501,7 @@
       <c r="J474" t="n">
         <v>285</v>
       </c>
-      <c r="K474" t="n">
-        <v>27.27272727272727</v>
-      </c>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1276</v>
       </c>
@@ -24659,7 +24551,7 @@
         <v>287</v>
       </c>
       <c r="K475" t="n">
-        <v>55.55555555555556</v>
+        <v>-100</v>
       </c>
       <c r="L475" t="n">
         <v>1275.8</v>
@@ -24710,7 +24602,7 @@
         <v>287</v>
       </c>
       <c r="K476" t="n">
-        <v>55.55555555555556</v>
+        <v>-100</v>
       </c>
       <c r="L476" t="n">
         <v>1275.6</v>
@@ -24761,7 +24653,7 @@
         <v>287</v>
       </c>
       <c r="K477" t="n">
-        <v>33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L477" t="n">
         <v>1275.4</v>
@@ -24812,7 +24704,7 @@
         <v>287</v>
       </c>
       <c r="K478" t="n">
-        <v>33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L478" t="n">
         <v>1275.2</v>
@@ -24863,7 +24755,7 @@
         <v>289</v>
       </c>
       <c r="K479" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L479" t="n">
         <v>1275.2</v>
@@ -24914,7 +24806,7 @@
         <v>291</v>
       </c>
       <c r="K480" t="n">
-        <v>20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L480" t="n">
         <v>1275</v>
@@ -24965,7 +24857,7 @@
         <v>293</v>
       </c>
       <c r="K481" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L481" t="n">
         <v>1275</v>
@@ -25016,7 +24908,7 @@
         <v>293</v>
       </c>
       <c r="K482" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L482" t="n">
         <v>1275</v>
@@ -25067,7 +24959,7 @@
         <v>293</v>
       </c>
       <c r="K483" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L483" t="n">
         <v>1275</v>
@@ -25118,7 +25010,7 @@
         <v>293</v>
       </c>
       <c r="K484" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L484" t="n">
         <v>1275</v>
@@ -25169,7 +25061,7 @@
         <v>293</v>
       </c>
       <c r="K485" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L485" t="n">
         <v>1275.2</v>
@@ -25220,7 +25112,7 @@
         <v>293</v>
       </c>
       <c r="K486" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L486" t="n">
         <v>1275.4</v>
@@ -25271,7 +25163,7 @@
         <v>293</v>
       </c>
       <c r="K487" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L487" t="n">
         <v>1275.6</v>
@@ -25322,7 +25214,7 @@
         <v>295</v>
       </c>
       <c r="K488" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L488" t="n">
         <v>1275.6</v>
@@ -25373,7 +25265,7 @@
         <v>295</v>
       </c>
       <c r="K489" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L489" t="n">
         <v>1275.4</v>
@@ -25424,7 +25316,7 @@
         <v>297</v>
       </c>
       <c r="K490" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L490" t="n">
         <v>1275.2</v>
@@ -25475,7 +25367,7 @@
         <v>297</v>
       </c>
       <c r="K491" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L491" t="n">
         <v>1274.8</v>
@@ -25526,7 +25418,7 @@
         <v>297</v>
       </c>
       <c r="K492" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L492" t="n">
         <v>1274.4</v>
@@ -25577,7 +25469,7 @@
         <v>297</v>
       </c>
       <c r="K493" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L493" t="n">
         <v>1274</v>
@@ -25628,7 +25520,7 @@
         <v>297</v>
       </c>
       <c r="K494" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L494" t="n">
         <v>1273.6</v>
@@ -25679,7 +25571,7 @@
         <v>297</v>
       </c>
       <c r="K495" t="n">
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="L495" t="n">
         <v>1273.2</v>
@@ -25730,7 +25622,7 @@
         <v>301</v>
       </c>
       <c r="K496" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L496" t="n">
         <v>1273.2</v>
@@ -25781,7 +25673,7 @@
         <v>301</v>
       </c>
       <c r="K497" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L497" t="n">
         <v>1273.2</v>
@@ -25832,7 +25724,7 @@
         <v>301</v>
       </c>
       <c r="K498" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L498" t="n">
         <v>1273.4</v>
@@ -25887,7 +25779,7 @@
         <v>301</v>
       </c>
       <c r="K499" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L499" t="n">
         <v>1273.6</v>
@@ -25946,7 +25838,7 @@
         <v>301</v>
       </c>
       <c r="K500" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L500" t="n">
         <v>1274</v>
@@ -26005,7 +25897,7 @@
         <v>302</v>
       </c>
       <c r="K501" t="n">
-        <v>-11.11111111111111</v>
+        <v>60</v>
       </c>
       <c r="L501" t="n">
         <v>1274.3</v>
@@ -26062,7 +25954,7 @@
         <v>303</v>
       </c>
       <c r="K502" t="n">
-        <v>0</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L502" t="n">
         <v>1274.7</v>
@@ -26119,7 +26011,7 @@
         <v>305</v>
       </c>
       <c r="K503" t="n">
-        <v>16.66666666666666</v>
+        <v>75</v>
       </c>
       <c r="L503" t="n">
         <v>1275.3</v>
@@ -26176,7 +26068,7 @@
         <v>305</v>
       </c>
       <c r="K504" t="n">
-        <v>16.66666666666666</v>
+        <v>75</v>
       </c>
       <c r="L504" t="n">
         <v>1275.9</v>
@@ -26233,7 +26125,7 @@
         <v>305</v>
       </c>
       <c r="K505" t="n">
-        <v>16.66666666666666</v>
+        <v>50</v>
       </c>
       <c r="L505" t="n">
         <v>1276.5</v>
@@ -26290,7 +26182,7 @@
         <v>305</v>
       </c>
       <c r="K506" t="n">
-        <v>16.66666666666666</v>
+        <v>50</v>
       </c>
       <c r="L506" t="n">
         <v>1276.7</v>
@@ -26347,7 +26239,7 @@
         <v>305</v>
       </c>
       <c r="K507" t="n">
-        <v>16.66666666666666</v>
+        <v>50</v>
       </c>
       <c r="L507" t="n">
         <v>1276.9</v>
@@ -26404,7 +26296,7 @@
         <v>307</v>
       </c>
       <c r="K508" t="n">
-        <v>16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L508" t="n">
         <v>1276.9</v>
@@ -26455,7 +26347,7 @@
         <v>308</v>
       </c>
       <c r="K509" t="n">
-        <v>7.692307692307693</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L509" t="n">
         <v>1276.8</v>
@@ -26506,7 +26398,7 @@
         <v>309</v>
       </c>
       <c r="K510" t="n">
-        <v>33.33333333333333</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L510" t="n">
         <v>1276.8</v>
@@ -26557,7 +26449,7 @@
         <v>310</v>
       </c>
       <c r="K511" t="n">
-        <v>23.07692307692308</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L511" t="n">
         <v>1276.8</v>
@@ -26608,7 +26500,7 @@
         <v>312</v>
       </c>
       <c r="K512" t="n">
-        <v>33.33333333333333</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L512" t="n">
         <v>1276.9</v>
@@ -26659,7 +26551,7 @@
         <v>312</v>
       </c>
       <c r="K513" t="n">
-        <v>33.33333333333333</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L513" t="n">
         <v>1276.8</v>
@@ -26710,7 +26602,7 @@
         <v>312</v>
       </c>
       <c r="K514" t="n">
-        <v>33.33333333333333</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L514" t="n">
         <v>1276.7</v>
@@ -26761,7 +26653,7 @@
         <v>312</v>
       </c>
       <c r="K515" t="n">
-        <v>33.33333333333333</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L515" t="n">
         <v>1276.6</v>
@@ -26812,7 +26704,7 @@
         <v>312</v>
       </c>
       <c r="K516" t="n">
-        <v>9.090909090909092</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L516" t="n">
         <v>1276.5</v>
@@ -26863,7 +26755,7 @@
         <v>317</v>
       </c>
       <c r="K517" t="n">
-        <v>-25</v>
+        <v>-40</v>
       </c>
       <c r="L517" t="n">
         <v>1275.9</v>
@@ -26914,7 +26806,7 @@
         <v>320</v>
       </c>
       <c r="K518" t="n">
-        <v>-36.84210526315789</v>
+        <v>-50</v>
       </c>
       <c r="L518" t="n">
         <v>1275.2</v>
@@ -26965,7 +26857,7 @@
         <v>320</v>
       </c>
       <c r="K519" t="n">
-        <v>-36.84210526315789</v>
+        <v>-63.63636363636363</v>
       </c>
       <c r="L519" t="n">
         <v>1274.6</v>
@@ -27016,7 +26908,7 @@
         <v>320</v>
       </c>
       <c r="K520" t="n">
-        <v>-36.84210526315789</v>
+        <v>-60</v>
       </c>
       <c r="L520" t="n">
         <v>1273.9</v>
@@ -27067,7 +26959,7 @@
         <v>320</v>
       </c>
       <c r="K521" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L521" t="n">
         <v>1273.3</v>
@@ -27118,7 +27010,7 @@
         <v>322</v>
       </c>
       <c r="K522" t="n">
-        <v>-26.31578947368421</v>
+        <v>-60</v>
       </c>
       <c r="L522" t="n">
         <v>1272.7</v>
@@ -27169,7 +27061,7 @@
         <v>322</v>
       </c>
       <c r="K523" t="n">
-        <v>-41.17647058823529</v>
+        <v>-60</v>
       </c>
       <c r="L523" t="n">
         <v>1272.1</v>
@@ -27220,7 +27112,7 @@
         <v>324</v>
       </c>
       <c r="K524" t="n">
-        <v>-26.31578947368421</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L524" t="n">
         <v>1271.7</v>
@@ -27271,7 +27163,7 @@
         <v>324</v>
       </c>
       <c r="K525" t="n">
-        <v>-26.31578947368421</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L525" t="n">
         <v>1271.3</v>
@@ -27322,7 +27214,7 @@
         <v>327</v>
       </c>
       <c r="K526" t="n">
-        <v>-9.090909090909092</v>
+        <v>40</v>
       </c>
       <c r="L526" t="n">
         <v>1271.2</v>
@@ -27373,7 +27265,7 @@
         <v>327</v>
       </c>
       <c r="K527" t="n">
-        <v>-9.090909090909092</v>
+        <v>100</v>
       </c>
       <c r="L527" t="n">
         <v>1271.6</v>
@@ -27424,7 +27316,7 @@
         <v>328</v>
       </c>
       <c r="K528" t="n">
-        <v>4.761904761904762</v>
+        <v>100</v>
       </c>
       <c r="L528" t="n">
         <v>1272.4</v>
@@ -27475,7 +27367,7 @@
         <v>329</v>
       </c>
       <c r="K529" t="n">
-        <v>4.761904761904762</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L529" t="n">
         <v>1273.1</v>
@@ -27526,7 +27418,7 @@
         <v>329</v>
       </c>
       <c r="K530" t="n">
-        <v>0</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L530" t="n">
         <v>1273.8</v>
@@ -27577,7 +27469,7 @@
         <v>329</v>
       </c>
       <c r="K531" t="n">
-        <v>5.263157894736842</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L531" t="n">
         <v>1274.5</v>
@@ -27628,7 +27520,7 @@
         <v>329</v>
       </c>
       <c r="K532" t="n">
-        <v>-5.88235294117647</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L532" t="n">
         <v>1275</v>
@@ -27679,7 +27571,7 @@
         <v>329</v>
       </c>
       <c r="K533" t="n">
-        <v>-5.88235294117647</v>
+        <v>60</v>
       </c>
       <c r="L533" t="n">
         <v>1275.5</v>
@@ -27730,7 +27622,7 @@
         <v>332</v>
       </c>
       <c r="K534" t="n">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="L534" t="n">
         <v>1276.1</v>
@@ -27781,7 +27673,7 @@
         <v>332</v>
       </c>
       <c r="K535" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="L535" t="n">
         <v>1276.7</v>
@@ -27832,7 +27724,7 @@
         <v>332</v>
       </c>
       <c r="K536" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="L536" t="n">
         <v>1277</v>
@@ -27883,7 +27775,7 @@
         <v>332</v>
       </c>
       <c r="K537" t="n">
-        <v>46.66666666666666</v>
+        <v>50</v>
       </c>
       <c r="L537" t="n">
         <v>1277.3</v>
@@ -27934,7 +27826,7 @@
         <v>332</v>
       </c>
       <c r="K538" t="n">
-        <v>83.33333333333334</v>
+        <v>100</v>
       </c>
       <c r="L538" t="n">
         <v>1277.5</v>
@@ -27985,7 +27877,7 @@
         <v>332</v>
       </c>
       <c r="K539" t="n">
-        <v>83.33333333333334</v>
+        <v>100</v>
       </c>
       <c r="L539" t="n">
         <v>1277.8</v>
@@ -28036,7 +27928,7 @@
         <v>332</v>
       </c>
       <c r="K540" t="n">
-        <v>83.33333333333334</v>
+        <v>100</v>
       </c>
       <c r="L540" t="n">
         <v>1278.1</v>
@@ -28087,7 +27979,7 @@
         <v>334</v>
       </c>
       <c r="K541" t="n">
-        <v>85.71428571428571</v>
+        <v>100</v>
       </c>
       <c r="L541" t="n">
         <v>1278.6</v>
@@ -28138,7 +28030,7 @@
         <v>334</v>
       </c>
       <c r="K542" t="n">
-        <v>83.33333333333334</v>
+        <v>100</v>
       </c>
       <c r="L542" t="n">
         <v>1279.1</v>
@@ -28189,7 +28081,7 @@
         <v>334</v>
       </c>
       <c r="K543" t="n">
-        <v>83.33333333333334</v>
+        <v>100</v>
       </c>
       <c r="L543" t="n">
         <v>1279.6</v>
@@ -28240,7 +28132,7 @@
         <v>334</v>
       </c>
       <c r="K544" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="L544" t="n">
         <v>1279.8</v>
@@ -28291,7 +28183,7 @@
         <v>334</v>
       </c>
       <c r="K545" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="L545" t="n">
         <v>1280</v>
@@ -28342,7 +28234,7 @@
         <v>334</v>
       </c>
       <c r="K546" t="n">
-        <v>71.42857142857143</v>
+        <v>100</v>
       </c>
       <c r="L546" t="n">
         <v>1280.2</v>
@@ -28393,7 +28285,7 @@
         <v>334</v>
       </c>
       <c r="K547" t="n">
-        <v>71.42857142857143</v>
+        <v>100</v>
       </c>
       <c r="L547" t="n">
         <v>1280.4</v>
@@ -28444,7 +28336,7 @@
         <v>334</v>
       </c>
       <c r="K548" t="n">
-        <v>66.66666666666666</v>
+        <v>100</v>
       </c>
       <c r="L548" t="n">
         <v>1280.6</v>
@@ -28545,9 +28437,7 @@
       <c r="J550" t="n">
         <v>334</v>
       </c>
-      <c r="K550" t="n">
-        <v>100</v>
-      </c>
+      <c r="K550" t="inlineStr"/>
       <c r="L550" t="n">
         <v>1281</v>
       </c>
@@ -28596,9 +28486,7 @@
       <c r="J551" t="n">
         <v>334</v>
       </c>
-      <c r="K551" t="n">
-        <v>100</v>
-      </c>
+      <c r="K551" t="inlineStr"/>
       <c r="L551" t="n">
         <v>1281</v>
       </c>
@@ -28647,9 +28535,7 @@
       <c r="J552" t="n">
         <v>334</v>
       </c>
-      <c r="K552" t="n">
-        <v>100</v>
-      </c>
+      <c r="K552" t="inlineStr"/>
       <c r="L552" t="n">
         <v>1281</v>
       </c>
@@ -28698,9 +28584,7 @@
       <c r="J553" t="n">
         <v>334</v>
       </c>
-      <c r="K553" t="n">
-        <v>100</v>
-      </c>
+      <c r="K553" t="inlineStr"/>
       <c r="L553" t="n">
         <v>1281</v>
       </c>
@@ -29005,7 +28889,7 @@
         <v>339</v>
       </c>
       <c r="K559" t="n">
-        <v>42.85714285714285</v>
+        <v>20</v>
       </c>
       <c r="L559" t="n">
         <v>1281.8</v>
@@ -29056,7 +28940,7 @@
         <v>339</v>
       </c>
       <c r="K560" t="n">
-        <v>42.85714285714285</v>
+        <v>20</v>
       </c>
       <c r="L560" t="n">
         <v>1281.9</v>
@@ -29209,7 +29093,7 @@
         <v>343</v>
       </c>
       <c r="K563" t="n">
-        <v>55.55555555555556</v>
+        <v>50</v>
       </c>
       <c r="L563" t="n">
         <v>1282.8</v>
@@ -29260,7 +29144,7 @@
         <v>343</v>
       </c>
       <c r="K564" t="n">
-        <v>55.55555555555556</v>
+        <v>50</v>
       </c>
       <c r="L564" t="n">
         <v>1283.2</v>
@@ -29311,7 +29195,7 @@
         <v>345</v>
       </c>
       <c r="K565" t="n">
-        <v>27.27272727272727</v>
+        <v>20</v>
       </c>
       <c r="L565" t="n">
         <v>1283.4</v>
@@ -29362,7 +29246,7 @@
         <v>345</v>
       </c>
       <c r="K566" t="n">
-        <v>27.27272727272727</v>
+        <v>20</v>
       </c>
       <c r="L566" t="n">
         <v>1283.6</v>
@@ -29413,7 +29297,7 @@
         <v>345</v>
       </c>
       <c r="K567" t="n">
-        <v>27.27272727272727</v>
+        <v>0</v>
       </c>
       <c r="L567" t="n">
         <v>1283.8</v>
@@ -29464,7 +29348,7 @@
         <v>347</v>
       </c>
       <c r="K568" t="n">
-        <v>38.46153846153847</v>
+        <v>50</v>
       </c>
       <c r="L568" t="n">
         <v>1284</v>
@@ -29566,7 +29450,7 @@
         <v>351</v>
       </c>
       <c r="K570" t="n">
-        <v>5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L570" t="n">
         <v>1284.2</v>
@@ -29617,7 +29501,7 @@
         <v>351</v>
       </c>
       <c r="K571" t="n">
-        <v>5.88235294117647</v>
+        <v>-20</v>
       </c>
       <c r="L571" t="n">
         <v>1284.2</v>
@@ -29668,7 +29552,7 @@
         <v>351</v>
       </c>
       <c r="K572" t="n">
-        <v>5.88235294117647</v>
+        <v>-50</v>
       </c>
       <c r="L572" t="n">
         <v>1284</v>
@@ -29719,7 +29603,7 @@
         <v>351</v>
       </c>
       <c r="K573" t="n">
-        <v>5.88235294117647</v>
+        <v>-50</v>
       </c>
       <c r="L573" t="n">
         <v>1283.6</v>
@@ -29770,7 +29654,7 @@
         <v>351</v>
       </c>
       <c r="K574" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L574" t="n">
         <v>1283.2</v>
@@ -29821,7 +29705,7 @@
         <v>351</v>
       </c>
       <c r="K575" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L575" t="n">
         <v>1283</v>
@@ -29872,7 +29756,7 @@
         <v>351</v>
       </c>
       <c r="K576" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L576" t="n">
         <v>1282.8</v>
@@ -29923,7 +29807,7 @@
         <v>351</v>
       </c>
       <c r="K577" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L577" t="n">
         <v>1282.6</v>
@@ -29974,7 +29858,7 @@
         <v>351</v>
       </c>
       <c r="K578" t="n">
-        <v>-14.28571428571428</v>
+        <v>-100</v>
       </c>
       <c r="L578" t="n">
         <v>1282.2</v>
@@ -30024,9 +29908,7 @@
       <c r="J579" t="n">
         <v>351</v>
       </c>
-      <c r="K579" t="n">
-        <v>0</v>
-      </c>
+      <c r="K579" t="inlineStr"/>
       <c r="L579" t="n">
         <v>1282</v>
       </c>
@@ -30075,9 +29957,7 @@
       <c r="J580" t="n">
         <v>351</v>
       </c>
-      <c r="K580" t="n">
-        <v>0</v>
-      </c>
+      <c r="K580" t="inlineStr"/>
       <c r="L580" t="n">
         <v>1282</v>
       </c>
@@ -30126,9 +30006,7 @@
       <c r="J581" t="n">
         <v>351</v>
       </c>
-      <c r="K581" t="n">
-        <v>0</v>
-      </c>
+      <c r="K581" t="inlineStr"/>
       <c r="L581" t="n">
         <v>1282</v>
       </c>
@@ -30178,7 +30056,7 @@
         <v>354</v>
       </c>
       <c r="K582" t="n">
-        <v>-38.46153846153847</v>
+        <v>-100</v>
       </c>
       <c r="L582" t="n">
         <v>1281.7</v>
@@ -30229,7 +30107,7 @@
         <v>354</v>
       </c>
       <c r="K583" t="n">
-        <v>-63.63636363636363</v>
+        <v>-100</v>
       </c>
       <c r="L583" t="n">
         <v>1281.4</v>
@@ -30280,7 +30158,7 @@
         <v>354</v>
       </c>
       <c r="K584" t="n">
-        <v>-63.63636363636363</v>
+        <v>-100</v>
       </c>
       <c r="L584" t="n">
         <v>1281.1</v>
@@ -30331,7 +30209,7 @@
         <v>356</v>
       </c>
       <c r="K585" t="n">
-        <v>-27.27272727272727</v>
+        <v>-20</v>
       </c>
       <c r="L585" t="n">
         <v>1281</v>
@@ -30382,7 +30260,7 @@
         <v>356</v>
       </c>
       <c r="K586" t="n">
-        <v>-27.27272727272727</v>
+        <v>-20</v>
       </c>
       <c r="L586" t="n">
         <v>1280.9</v>
@@ -30433,7 +30311,7 @@
         <v>356</v>
       </c>
       <c r="K587" t="n">
-        <v>-27.27272727272727</v>
+        <v>-20</v>
       </c>
       <c r="L587" t="n">
         <v>1280.8</v>
@@ -30484,7 +30362,7 @@
         <v>359</v>
       </c>
       <c r="K588" t="n">
-        <v>-16.66666666666666</v>
+        <v>25</v>
       </c>
       <c r="L588" t="n">
         <v>1281</v>
@@ -30535,7 +30413,7 @@
         <v>359</v>
       </c>
       <c r="K589" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L589" t="n">
         <v>1281.2</v>
@@ -30637,7 +30515,7 @@
         <v>359</v>
       </c>
       <c r="K591" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="L591" t="n">
         <v>1281.6</v>
@@ -30688,7 +30566,7 @@
         <v>359</v>
       </c>
       <c r="K592" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="L592" t="n">
         <v>1282.1</v>
@@ -30739,7 +30617,7 @@
         <v>362</v>
       </c>
       <c r="K593" t="n">
-        <v>45.45454545454545</v>
+        <v>100</v>
       </c>
       <c r="L593" t="n">
         <v>1282.9</v>
@@ -30790,7 +30668,7 @@
         <v>362</v>
       </c>
       <c r="K594" t="n">
-        <v>45.45454545454545</v>
+        <v>100</v>
       </c>
       <c r="L594" t="n">
         <v>1283.7</v>
@@ -30841,7 +30719,7 @@
         <v>362</v>
       </c>
       <c r="K595" t="n">
-        <v>45.45454545454545</v>
+        <v>100</v>
       </c>
       <c r="L595" t="n">
         <v>1284.3</v>
@@ -30892,7 +30770,7 @@
         <v>362</v>
       </c>
       <c r="K596" t="n">
-        <v>45.45454545454545</v>
+        <v>100</v>
       </c>
       <c r="L596" t="n">
         <v>1284.9</v>
@@ -30943,7 +30821,7 @@
         <v>362</v>
       </c>
       <c r="K597" t="n">
-        <v>45.45454545454545</v>
+        <v>100</v>
       </c>
       <c r="L597" t="n">
         <v>1285.5</v>
@@ -30994,7 +30872,7 @@
         <v>362</v>
       </c>
       <c r="K598" t="n">
-        <v>45.45454545454545</v>
+        <v>100</v>
       </c>
       <c r="L598" t="n">
         <v>1285.8</v>
@@ -31045,7 +30923,7 @@
         <v>362</v>
       </c>
       <c r="K599" t="n">
-        <v>45.45454545454545</v>
+        <v>100</v>
       </c>
       <c r="L599" t="n">
         <v>1286.1</v>
@@ -31096,7 +30974,7 @@
         <v>362</v>
       </c>
       <c r="K600" t="n">
-        <v>45.45454545454545</v>
+        <v>100</v>
       </c>
       <c r="L600" t="n">
         <v>1286.4</v>
@@ -31147,7 +31025,7 @@
         <v>362</v>
       </c>
       <c r="K601" t="n">
-        <v>45.45454545454545</v>
+        <v>100</v>
       </c>
       <c r="L601" t="n">
         <v>1286.7</v>
@@ -31197,9 +31075,7 @@
       <c r="J602" t="n">
         <v>362</v>
       </c>
-      <c r="K602" t="n">
-        <v>100</v>
-      </c>
+      <c r="K602" t="inlineStr"/>
       <c r="L602" t="n">
         <v>1287</v>
       </c>
@@ -31248,9 +31124,7 @@
       <c r="J603" t="n">
         <v>362</v>
       </c>
-      <c r="K603" t="n">
-        <v>100</v>
-      </c>
+      <c r="K603" t="inlineStr"/>
       <c r="L603" t="n">
         <v>1287</v>
       </c>
@@ -31299,9 +31173,7 @@
       <c r="J604" t="n">
         <v>362</v>
       </c>
-      <c r="K604" t="n">
-        <v>100</v>
-      </c>
+      <c r="K604" t="inlineStr"/>
       <c r="L604" t="n">
         <v>1287</v>
       </c>
@@ -31350,9 +31222,7 @@
       <c r="J605" t="n">
         <v>362</v>
       </c>
-      <c r="K605" t="n">
-        <v>100</v>
-      </c>
+      <c r="K605" t="inlineStr"/>
       <c r="L605" t="n">
         <v>1287</v>
       </c>
@@ -31401,9 +31271,7 @@
       <c r="J606" t="n">
         <v>362</v>
       </c>
-      <c r="K606" t="n">
-        <v>100</v>
-      </c>
+      <c r="K606" t="inlineStr"/>
       <c r="L606" t="n">
         <v>1287</v>
       </c>
@@ -31452,9 +31320,7 @@
       <c r="J607" t="n">
         <v>362</v>
       </c>
-      <c r="K607" t="n">
-        <v>100</v>
-      </c>
+      <c r="K607" t="inlineStr"/>
       <c r="L607" t="n">
         <v>1287</v>
       </c>
@@ -31503,9 +31369,7 @@
       <c r="J608" t="n">
         <v>362</v>
       </c>
-      <c r="K608" t="n">
-        <v>100</v>
-      </c>
+      <c r="K608" t="inlineStr"/>
       <c r="L608" t="n">
         <v>1287</v>
       </c>
@@ -31554,9 +31418,7 @@
       <c r="J609" t="n">
         <v>362</v>
       </c>
-      <c r="K609" t="n">
-        <v>100</v>
-      </c>
+      <c r="K609" t="inlineStr"/>
       <c r="L609" t="n">
         <v>1287</v>
       </c>
@@ -31605,9 +31467,7 @@
       <c r="J610" t="n">
         <v>362</v>
       </c>
-      <c r="K610" t="n">
-        <v>100</v>
-      </c>
+      <c r="K610" t="inlineStr"/>
       <c r="L610" t="n">
         <v>1287</v>
       </c>
@@ -31656,9 +31516,7 @@
       <c r="J611" t="n">
         <v>362</v>
       </c>
-      <c r="K611" t="n">
-        <v>100</v>
-      </c>
+      <c r="K611" t="inlineStr"/>
       <c r="L611" t="n">
         <v>1287</v>
       </c>
@@ -31707,9 +31565,7 @@
       <c r="J612" t="n">
         <v>362</v>
       </c>
-      <c r="K612" t="n">
-        <v>100</v>
-      </c>
+      <c r="K612" t="inlineStr"/>
       <c r="L612" t="n">
         <v>1287</v>
       </c>
@@ -32365,7 +32221,7 @@
         <v>369</v>
       </c>
       <c r="K625" t="n">
-        <v>14.28571428571428</v>
+        <v>100</v>
       </c>
       <c r="L625" t="n">
         <v>1286</v>
@@ -32416,7 +32272,7 @@
         <v>371</v>
       </c>
       <c r="K626" t="n">
-        <v>-11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L626" t="n">
         <v>1286.2</v>
@@ -32467,7 +32323,7 @@
         <v>371</v>
       </c>
       <c r="K627" t="n">
-        <v>-11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L627" t="n">
         <v>1286.4</v>
@@ -32518,7 +32374,7 @@
         <v>373</v>
       </c>
       <c r="K628" t="n">
-        <v>-27.27272727272727</v>
+        <v>0</v>
       </c>
       <c r="L628" t="n">
         <v>1286.4</v>
@@ -32569,7 +32425,7 @@
         <v>376</v>
       </c>
       <c r="K629" t="n">
-        <v>-42.85714285714285</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L629" t="n">
         <v>1286.1</v>
@@ -32620,7 +32476,7 @@
         <v>376</v>
       </c>
       <c r="K630" t="n">
-        <v>-42.85714285714285</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L630" t="n">
         <v>1285.6</v>
@@ -32671,7 +32527,7 @@
         <v>376</v>
       </c>
       <c r="K631" t="n">
-        <v>-42.85714285714285</v>
+        <v>-100</v>
       </c>
       <c r="L631" t="n">
         <v>1285.1</v>
@@ -32722,7 +32578,7 @@
         <v>376</v>
       </c>
       <c r="K632" t="n">
-        <v>-42.85714285714285</v>
+        <v>-100</v>
       </c>
       <c r="L632" t="n">
         <v>1284.4</v>
@@ -32773,7 +32629,7 @@
         <v>376</v>
       </c>
       <c r="K633" t="n">
-        <v>-42.85714285714285</v>
+        <v>-100</v>
       </c>
       <c r="L633" t="n">
         <v>1283.7</v>
@@ -32824,7 +32680,7 @@
         <v>379</v>
       </c>
       <c r="K634" t="n">
-        <v>-17.64705882352941</v>
+        <v>-40</v>
       </c>
       <c r="L634" t="n">
         <v>1283.3</v>
@@ -32875,7 +32731,7 @@
         <v>379</v>
       </c>
       <c r="K635" t="n">
-        <v>-17.64705882352941</v>
+        <v>-25</v>
       </c>
       <c r="L635" t="n">
         <v>1282.9</v>
@@ -32926,7 +32782,7 @@
         <v>379</v>
       </c>
       <c r="K636" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="L636" t="n">
         <v>1282.7</v>
@@ -32977,7 +32833,7 @@
         <v>381</v>
       </c>
       <c r="K637" t="n">
-        <v>12.5</v>
+        <v>25</v>
       </c>
       <c r="L637" t="n">
         <v>1282.7</v>
@@ -33028,7 +32884,7 @@
         <v>381</v>
       </c>
       <c r="K638" t="n">
-        <v>12.5</v>
+        <v>100</v>
       </c>
       <c r="L638" t="n">
         <v>1282.9</v>
@@ -33079,7 +32935,7 @@
         <v>383</v>
       </c>
       <c r="K639" t="n">
-        <v>22.22222222222222</v>
+        <v>100</v>
       </c>
       <c r="L639" t="n">
         <v>1283.6</v>
@@ -33130,7 +32986,7 @@
         <v>383</v>
       </c>
       <c r="K640" t="n">
-        <v>12.5</v>
+        <v>100</v>
       </c>
       <c r="L640" t="n">
         <v>1284.3</v>
@@ -33181,7 +33037,7 @@
         <v>385</v>
       </c>
       <c r="K641" t="n">
-        <v>0</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L641" t="n">
         <v>1284.8</v>
@@ -33232,7 +33088,7 @@
         <v>385</v>
       </c>
       <c r="K642" t="n">
-        <v>-12.5</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L642" t="n">
         <v>1285.3</v>
@@ -33283,7 +33139,7 @@
         <v>385</v>
       </c>
       <c r="K643" t="n">
-        <v>-12.5</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L643" t="n">
         <v>1285.8</v>
@@ -33334,7 +33190,7 @@
         <v>385</v>
       </c>
       <c r="K644" t="n">
-        <v>-12.5</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L644" t="n">
         <v>1286</v>
@@ -33385,7 +33241,7 @@
         <v>385</v>
       </c>
       <c r="K645" t="n">
-        <v>-12.5</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L645" t="n">
         <v>1286.2</v>
@@ -33538,7 +33394,7 @@
         <v>385</v>
       </c>
       <c r="K648" t="n">
-        <v>16.66666666666666</v>
+        <v>-100</v>
       </c>
       <c r="L648" t="n">
         <v>1286.4</v>
@@ -33589,7 +33445,7 @@
         <v>385</v>
       </c>
       <c r="K649" t="n">
-        <v>55.55555555555556</v>
+        <v>-100</v>
       </c>
       <c r="L649" t="n">
         <v>1286.2</v>
@@ -33640,7 +33496,7 @@
         <v>387</v>
       </c>
       <c r="K650" t="n">
-        <v>63.63636363636363</v>
+        <v>100</v>
       </c>
       <c r="L650" t="n">
         <v>1286.2</v>
@@ -33691,7 +33547,7 @@
         <v>389</v>
       </c>
       <c r="K651" t="n">
-        <v>38.46153846153847</v>
+        <v>0</v>
       </c>
       <c r="L651" t="n">
         <v>1286.2</v>
@@ -33742,7 +33598,7 @@
         <v>389</v>
       </c>
       <c r="K652" t="n">
-        <v>38.46153846153847</v>
+        <v>0</v>
       </c>
       <c r="L652" t="n">
         <v>1286.2</v>
@@ -33793,7 +33649,7 @@
         <v>391</v>
       </c>
       <c r="K653" t="n">
-        <v>20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L653" t="n">
         <v>1286</v>
@@ -33844,7 +33700,7 @@
         <v>391</v>
       </c>
       <c r="K654" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L654" t="n">
         <v>1285.8</v>
@@ -33895,7 +33751,7 @@
         <v>391</v>
       </c>
       <c r="K655" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L655" t="n">
         <v>1285.6</v>
@@ -33946,7 +33802,7 @@
         <v>391</v>
       </c>
       <c r="K656" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L656" t="n">
         <v>1285.4</v>
@@ -34048,7 +33904,7 @@
         <v>398</v>
       </c>
       <c r="K658" t="n">
-        <v>-29.41176470588236</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L658" t="n">
         <v>1284.9</v>
@@ -34099,7 +33955,7 @@
         <v>398</v>
       </c>
       <c r="K659" t="n">
-        <v>-46.66666666666666</v>
+        <v>-63.63636363636363</v>
       </c>
       <c r="L659" t="n">
         <v>1284.4</v>
@@ -34150,7 +34006,7 @@
         <v>400</v>
       </c>
       <c r="K660" t="n">
-        <v>-29.41176470588236</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L660" t="n">
         <v>1283.9</v>
@@ -34201,7 +34057,7 @@
         <v>400</v>
       </c>
       <c r="K661" t="n">
-        <v>-20</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L661" t="n">
         <v>1283.6</v>
@@ -34252,7 +34108,7 @@
         <v>400</v>
       </c>
       <c r="K662" t="n">
-        <v>-20</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L662" t="n">
         <v>1283.3</v>
@@ -34303,7 +34159,7 @@
         <v>400</v>
       </c>
       <c r="K663" t="n">
-        <v>-20</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L663" t="n">
         <v>1283.2</v>
@@ -34354,7 +34210,7 @@
         <v>401</v>
       </c>
       <c r="K664" t="n">
-        <v>-25</v>
+        <v>-20</v>
       </c>
       <c r="L664" t="n">
         <v>1283</v>
@@ -34405,7 +34261,7 @@
         <v>401</v>
       </c>
       <c r="K665" t="n">
-        <v>-25</v>
+        <v>-20</v>
       </c>
       <c r="L665" t="n">
         <v>1282.8</v>
@@ -34456,7 +34312,7 @@
         <v>402</v>
       </c>
       <c r="K666" t="n">
-        <v>-17.64705882352941</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L666" t="n">
         <v>1282.7</v>
@@ -34507,7 +34363,7 @@
         <v>402</v>
       </c>
       <c r="K667" t="n">
-        <v>-17.64705882352941</v>
+        <v>50</v>
       </c>
       <c r="L667" t="n">
         <v>1282.4</v>
@@ -34558,7 +34414,7 @@
         <v>404</v>
       </c>
       <c r="K668" t="n">
-        <v>-5.263157894736842</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L668" t="n">
         <v>1282.8</v>
@@ -34609,7 +34465,7 @@
         <v>404</v>
       </c>
       <c r="K669" t="n">
-        <v>-5.263157894736842</v>
+        <v>50</v>
       </c>
       <c r="L669" t="n">
         <v>1283.2</v>
@@ -34660,7 +34516,7 @@
         <v>406</v>
       </c>
       <c r="K670" t="n">
-        <v>-5.263157894736842</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L670" t="n">
         <v>1283.6</v>
@@ -34711,7 +34567,7 @@
         <v>406</v>
       </c>
       <c r="K671" t="n">
-        <v>5.88235294117647</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L671" t="n">
         <v>1284</v>
@@ -34762,7 +34618,7 @@
         <v>406</v>
       </c>
       <c r="K672" t="n">
-        <v>5.88235294117647</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L672" t="n">
         <v>1284.4</v>
@@ -34813,7 +34669,7 @@
         <v>407</v>
       </c>
       <c r="K673" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="L673" t="n">
         <v>1284.9</v>
@@ -34864,7 +34720,7 @@
         <v>408</v>
       </c>
       <c r="K674" t="n">
-        <v>17.64705882352941</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L674" t="n">
         <v>1285.4</v>
@@ -34915,7 +34771,7 @@
         <v>408</v>
       </c>
       <c r="K675" t="n">
-        <v>17.64705882352941</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L675" t="n">
         <v>1285.9</v>
@@ -34966,7 +34822,7 @@
         <v>408</v>
       </c>
       <c r="K676" t="n">
-        <v>17.64705882352941</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L676" t="n">
         <v>1286.3</v>
@@ -35017,7 +34873,7 @@
         <v>409</v>
       </c>
       <c r="K677" t="n">
-        <v>12.5</v>
+        <v>60</v>
       </c>
       <c r="L677" t="n">
         <v>1286.8</v>
@@ -35068,7 +34924,7 @@
         <v>409</v>
       </c>
       <c r="K678" t="n">
-        <v>63.63636363636363</v>
+        <v>60</v>
       </c>
       <c r="L678" t="n">
         <v>1287.1</v>
@@ -35119,7 +34975,7 @@
         <v>409</v>
       </c>
       <c r="K679" t="n">
-        <v>63.63636363636363</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L679" t="n">
         <v>1287.4</v>
@@ -35170,7 +35026,7 @@
         <v>409</v>
       </c>
       <c r="K680" t="n">
-        <v>55.55555555555556</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L680" t="n">
         <v>1287.5</v>
@@ -35221,7 +35077,7 @@
         <v>410</v>
       </c>
       <c r="K681" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L681" t="n">
         <v>1287.5</v>
@@ -35272,7 +35128,7 @@
         <v>410</v>
       </c>
       <c r="K682" t="n">
-        <v>40</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L682" t="n">
         <v>1287.5</v>
@@ -35323,7 +35179,7 @@
         <v>410</v>
       </c>
       <c r="K683" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L683" t="n">
         <v>1287.4</v>
@@ -35374,7 +35230,7 @@
         <v>410</v>
       </c>
       <c r="K684" t="n">
-        <v>55.55555555555556</v>
+        <v>0</v>
       </c>
       <c r="L684" t="n">
         <v>1287.4</v>
@@ -35425,7 +35281,7 @@
         <v>410</v>
       </c>
       <c r="K685" t="n">
-        <v>55.55555555555556</v>
+        <v>0</v>
       </c>
       <c r="L685" t="n">
         <v>1287.4</v>
@@ -35476,7 +35332,7 @@
         <v>410</v>
       </c>
       <c r="K686" t="n">
-        <v>50</v>
+        <v>-100</v>
       </c>
       <c r="L686" t="n">
         <v>1287.4</v>
@@ -35527,7 +35383,7 @@
         <v>412</v>
       </c>
       <c r="K687" t="n">
-        <v>20</v>
+        <v>-100</v>
       </c>
       <c r="L687" t="n">
         <v>1287.1</v>
@@ -35578,7 +35434,7 @@
         <v>414</v>
       </c>
       <c r="K688" t="n">
-        <v>20</v>
+        <v>-20</v>
       </c>
       <c r="L688" t="n">
         <v>1287</v>
@@ -35629,7 +35485,7 @@
         <v>414</v>
       </c>
       <c r="K689" t="n">
-        <v>20</v>
+        <v>-20</v>
       </c>
       <c r="L689" t="n">
         <v>1286.9</v>
@@ -35833,7 +35689,7 @@
         <v>414</v>
       </c>
       <c r="K693" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L693" t="n">
         <v>1286.8</v>
@@ -35986,7 +35842,7 @@
         <v>414</v>
       </c>
       <c r="K696" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L696" t="n">
         <v>1286.8</v>
@@ -36036,9 +35892,7 @@
       <c r="J697" t="n">
         <v>414</v>
       </c>
-      <c r="K697" t="n">
-        <v>-20</v>
-      </c>
+      <c r="K697" t="inlineStr"/>
       <c r="L697" t="n">
         <v>1287</v>
       </c>
@@ -36087,9 +35941,7 @@
       <c r="J698" t="n">
         <v>414</v>
       </c>
-      <c r="K698" t="n">
-        <v>-20</v>
-      </c>
+      <c r="K698" t="inlineStr"/>
       <c r="L698" t="n">
         <v>1287</v>
       </c>
@@ -36138,9 +35990,7 @@
       <c r="J699" t="n">
         <v>414</v>
       </c>
-      <c r="K699" t="n">
-        <v>-20</v>
-      </c>
+      <c r="K699" t="inlineStr"/>
       <c r="L699" t="n">
         <v>1287</v>
       </c>
@@ -36189,9 +36039,7 @@
       <c r="J700" t="n">
         <v>414</v>
       </c>
-      <c r="K700" t="n">
-        <v>-20</v>
-      </c>
+      <c r="K700" t="inlineStr"/>
       <c r="L700" t="n">
         <v>1287</v>
       </c>
@@ -36240,9 +36088,7 @@
       <c r="J701" t="n">
         <v>414</v>
       </c>
-      <c r="K701" t="n">
-        <v>0</v>
-      </c>
+      <c r="K701" t="inlineStr"/>
       <c r="L701" t="n">
         <v>1287</v>
       </c>
@@ -36291,9 +36137,7 @@
       <c r="J702" t="n">
         <v>414</v>
       </c>
-      <c r="K702" t="n">
-        <v>0</v>
-      </c>
+      <c r="K702" t="inlineStr"/>
       <c r="L702" t="n">
         <v>1287</v>
       </c>
@@ -36342,9 +36186,7 @@
       <c r="J703" t="n">
         <v>414</v>
       </c>
-      <c r="K703" t="n">
-        <v>0</v>
-      </c>
+      <c r="K703" t="inlineStr"/>
       <c r="L703" t="n">
         <v>1287</v>
       </c>
@@ -36393,9 +36235,7 @@
       <c r="J704" t="n">
         <v>414</v>
       </c>
-      <c r="K704" t="n">
-        <v>0</v>
-      </c>
+      <c r="K704" t="inlineStr"/>
       <c r="L704" t="n">
         <v>1287</v>
       </c>
@@ -36444,9 +36284,7 @@
       <c r="J705" t="n">
         <v>414</v>
       </c>
-      <c r="K705" t="n">
-        <v>0</v>
-      </c>
+      <c r="K705" t="inlineStr"/>
       <c r="L705" t="n">
         <v>1287</v>
       </c>
@@ -36495,9 +36333,7 @@
       <c r="J706" t="n">
         <v>414</v>
       </c>
-      <c r="K706" t="n">
-        <v>0</v>
-      </c>
+      <c r="K706" t="inlineStr"/>
       <c r="L706" t="n">
         <v>1287</v>
       </c>
@@ -36546,9 +36382,7 @@
       <c r="J707" t="n">
         <v>414</v>
       </c>
-      <c r="K707" t="n">
-        <v>100</v>
-      </c>
+      <c r="K707" t="inlineStr"/>
       <c r="L707" t="n">
         <v>1287</v>
       </c>
@@ -40869,9 +40703,7 @@
       <c r="J792" t="n">
         <v>415</v>
       </c>
-      <c r="K792" t="n">
-        <v>100</v>
-      </c>
+      <c r="K792" t="inlineStr"/>
       <c r="L792" t="n">
         <v>1288</v>
       </c>
@@ -40920,9 +40752,7 @@
       <c r="J793" t="n">
         <v>415</v>
       </c>
-      <c r="K793" t="n">
-        <v>100</v>
-      </c>
+      <c r="K793" t="inlineStr"/>
       <c r="L793" t="n">
         <v>1288</v>
       </c>
@@ -40971,9 +40801,7 @@
       <c r="J794" t="n">
         <v>415</v>
       </c>
-      <c r="K794" t="n">
-        <v>100</v>
-      </c>
+      <c r="K794" t="inlineStr"/>
       <c r="L794" t="n">
         <v>1288</v>
       </c>

--- a/BackTest/2019-10-19 BackTest BHP.xlsx
+++ b/BackTest/2019-10-19 BackTest BHP.xlsx
@@ -6926,13 +6926,17 @@
         <v>1279.683333333333</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>1272</v>
+      </c>
+      <c r="K187" t="n">
+        <v>1272</v>
+      </c>
       <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
         <v>1</v>
@@ -6961,14 +6965,22 @@
         <v>1279.583333333333</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>1272</v>
+      </c>
+      <c r="K188" t="n">
+        <v>1272</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -6996,14 +7008,22 @@
         <v>1279.416666666667</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>1273</v>
+      </c>
+      <c r="K189" t="n">
+        <v>1272</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7031,13 +7051,17 @@
         <v>1279.266666666667</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>1269</v>
+      </c>
+      <c r="K190" t="n">
+        <v>1269</v>
+      </c>
       <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
         <v>1</v>
@@ -7075,9 +7099,13 @@
         <v>1272</v>
       </c>
       <c r="K191" t="n">
-        <v>1272</v>
-      </c>
-      <c r="L191" t="inlineStr"/>
+        <v>1269</v>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7114,7 +7142,7 @@
         <v>1272</v>
       </c>
       <c r="K192" t="n">
-        <v>1272</v>
+        <v>1269</v>
       </c>
       <c r="L192" t="inlineStr">
         <is>
@@ -7159,50 +7187,50 @@
       <c r="K193" t="n">
         <v>1272</v>
       </c>
-      <c r="L193" t="inlineStr">
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>1272</v>
+      </c>
+      <c r="C194" t="n">
+        <v>1272</v>
+      </c>
+      <c r="D194" t="n">
+        <v>1272</v>
+      </c>
+      <c r="E194" t="n">
+        <v>1272</v>
+      </c>
+      <c r="F194" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="G194" t="n">
+        <v>1278.6</v>
+      </c>
+      <c r="H194" t="n">
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="n">
+        <v>1272</v>
+      </c>
+      <c r="K194" t="n">
+        <v>1272</v>
+      </c>
+      <c r="L194" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>1272</v>
-      </c>
-      <c r="C194" t="n">
-        <v>1272</v>
-      </c>
-      <c r="D194" t="n">
-        <v>1272</v>
-      </c>
-      <c r="E194" t="n">
-        <v>1272</v>
-      </c>
-      <c r="F194" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="G194" t="n">
-        <v>1278.6</v>
-      </c>
-      <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="n">
-        <v>1272</v>
-      </c>
-      <c r="K194" t="n">
-        <v>1272</v>
-      </c>
-      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7279,55 +7307,55 @@
         <v>0</v>
       </c>
       <c r="J196" t="n">
-        <v>1276</v>
+        <v>1272</v>
       </c>
       <c r="K196" t="n">
         <v>1272</v>
       </c>
-      <c r="L196" t="inlineStr">
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>1276</v>
+      </c>
+      <c r="C197" t="n">
+        <v>1276</v>
+      </c>
+      <c r="D197" t="n">
+        <v>1276</v>
+      </c>
+      <c r="E197" t="n">
+        <v>1276</v>
+      </c>
+      <c r="F197" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="G197" t="n">
+        <v>1278.066666666667</v>
+      </c>
+      <c r="H197" t="n">
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="n">
+        <v>1276</v>
+      </c>
+      <c r="K197" t="n">
+        <v>1272</v>
+      </c>
+      <c r="L197" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>1276</v>
-      </c>
-      <c r="C197" t="n">
-        <v>1276</v>
-      </c>
-      <c r="D197" t="n">
-        <v>1276</v>
-      </c>
-      <c r="E197" t="n">
-        <v>1276</v>
-      </c>
-      <c r="F197" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="G197" t="n">
-        <v>1278.066666666667</v>
-      </c>
-      <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="n">
-        <v>1276</v>
-      </c>
-      <c r="K197" t="n">
-        <v>1276</v>
-      </c>
-      <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7355,16 +7383,14 @@
         <v>1277.916666666667</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="n">
-        <v>1276</v>
-      </c>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="n">
-        <v>1276</v>
+        <v>1272</v>
       </c>
       <c r="L198" t="inlineStr">
         <is>
@@ -7404,14 +7430,8 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>1276</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -14999,17 +15019,13 @@
         <v>1277</v>
       </c>
       <c r="H416" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I416" t="n">
         <v>0</v>
       </c>
-      <c r="J416" t="n">
-        <v>1272</v>
-      </c>
-      <c r="K416" t="n">
-        <v>1272</v>
-      </c>
+      <c r="J416" t="inlineStr"/>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="inlineStr"/>
       <c r="M416" t="n">
         <v>1</v>
@@ -15038,22 +15054,14 @@
         <v>1276.866666666667</v>
       </c>
       <c r="H417" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I417" t="n">
         <v>0</v>
       </c>
-      <c r="J417" t="n">
-        <v>1272</v>
-      </c>
-      <c r="K417" t="n">
-        <v>1272</v>
-      </c>
-      <c r="L417" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J417" t="inlineStr"/>
+      <c r="K417" t="inlineStr"/>
+      <c r="L417" t="inlineStr"/>
       <c r="M417" t="n">
         <v>1</v>
       </c>
@@ -15081,22 +15089,14 @@
         <v>1276.766666666667</v>
       </c>
       <c r="H418" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I418" t="n">
         <v>0</v>
       </c>
-      <c r="J418" t="n">
-        <v>1272</v>
-      </c>
-      <c r="K418" t="n">
-        <v>1272</v>
-      </c>
-      <c r="L418" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J418" t="inlineStr"/>
+      <c r="K418" t="inlineStr"/>
+      <c r="L418" t="inlineStr"/>
       <c r="M418" t="n">
         <v>1</v>
       </c>
@@ -15124,17 +15124,13 @@
         <v>1276.683333333333</v>
       </c>
       <c r="H419" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I419" t="n">
         <v>0</v>
       </c>
-      <c r="J419" t="n">
-        <v>1275</v>
-      </c>
-      <c r="K419" t="n">
-        <v>1275</v>
-      </c>
+      <c r="J419" t="inlineStr"/>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="inlineStr"/>
       <c r="M419" t="n">
         <v>1</v>
@@ -15163,22 +15159,14 @@
         <v>1276.6</v>
       </c>
       <c r="H420" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I420" t="n">
         <v>0</v>
       </c>
-      <c r="J420" t="n">
-        <v>1275</v>
-      </c>
-      <c r="K420" t="n">
-        <v>1275</v>
-      </c>
-      <c r="L420" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J420" t="inlineStr"/>
+      <c r="K420" t="inlineStr"/>
+      <c r="L420" t="inlineStr"/>
       <c r="M420" t="n">
         <v>1</v>
       </c>
@@ -15206,22 +15194,14 @@
         <v>1276.516666666667</v>
       </c>
       <c r="H421" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I421" t="n">
         <v>0</v>
       </c>
-      <c r="J421" t="n">
-        <v>1275</v>
-      </c>
-      <c r="K421" t="n">
-        <v>1275</v>
-      </c>
-      <c r="L421" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J421" t="inlineStr"/>
+      <c r="K421" t="inlineStr"/>
+      <c r="L421" t="inlineStr"/>
       <c r="M421" t="n">
         <v>1</v>
       </c>
@@ -15249,17 +15229,13 @@
         <v>1276.433333333333</v>
       </c>
       <c r="H422" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I422" t="n">
         <v>0</v>
       </c>
-      <c r="J422" t="n">
-        <v>1275</v>
-      </c>
-      <c r="K422" t="n">
-        <v>1275</v>
-      </c>
+      <c r="J422" t="inlineStr"/>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="inlineStr"/>
       <c r="M422" t="n">
         <v>1</v>
@@ -15294,14 +15270,8 @@
         <v>0</v>
       </c>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="n">
-        <v>1275</v>
-      </c>
-      <c r="L423" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K423" t="inlineStr"/>
+      <c r="L423" t="inlineStr"/>
       <c r="M423" t="n">
         <v>1</v>
       </c>
@@ -15335,14 +15305,8 @@
         <v>0</v>
       </c>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="n">
-        <v>1275</v>
-      </c>
-      <c r="L424" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K424" t="inlineStr"/>
+      <c r="L424" t="inlineStr"/>
       <c r="M424" t="n">
         <v>1</v>
       </c>
@@ -16420,17 +16384,13 @@
         <v>1275.866666666667</v>
       </c>
       <c r="H455" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I455" t="n">
         <v>0</v>
       </c>
-      <c r="J455" t="n">
-        <v>1269</v>
-      </c>
-      <c r="K455" t="n">
-        <v>1269</v>
-      </c>
+      <c r="J455" t="inlineStr"/>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="inlineStr"/>
       <c r="M455" t="n">
         <v>1</v>
@@ -16459,22 +16419,14 @@
         <v>1275.733333333333</v>
       </c>
       <c r="H456" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I456" t="n">
         <v>0</v>
       </c>
-      <c r="J456" t="n">
-        <v>1269</v>
-      </c>
-      <c r="K456" t="n">
-        <v>1269</v>
-      </c>
-      <c r="L456" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J456" t="inlineStr"/>
+      <c r="K456" t="inlineStr"/>
+      <c r="L456" t="inlineStr"/>
       <c r="M456" t="n">
         <v>1</v>
       </c>
@@ -16502,22 +16454,14 @@
         <v>1275.65</v>
       </c>
       <c r="H457" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I457" t="n">
         <v>0</v>
       </c>
-      <c r="J457" t="n">
-        <v>1272</v>
-      </c>
-      <c r="K457" t="n">
-        <v>1269</v>
-      </c>
-      <c r="L457" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J457" t="inlineStr"/>
+      <c r="K457" t="inlineStr"/>
+      <c r="L457" t="inlineStr"/>
       <c r="M457" t="n">
         <v>1</v>
       </c>
@@ -16545,17 +16489,13 @@
         <v>1275.533333333333</v>
       </c>
       <c r="H458" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I458" t="n">
         <v>0</v>
       </c>
-      <c r="J458" t="n">
-        <v>1272</v>
-      </c>
-      <c r="K458" t="n">
-        <v>1272</v>
-      </c>
+      <c r="J458" t="inlineStr"/>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="inlineStr"/>
       <c r="M458" t="n">
         <v>1</v>
@@ -16584,22 +16524,14 @@
         <v>1275.416666666667</v>
       </c>
       <c r="H459" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I459" t="n">
         <v>0</v>
       </c>
-      <c r="J459" t="n">
-        <v>1272</v>
-      </c>
-      <c r="K459" t="n">
-        <v>1272</v>
-      </c>
-      <c r="L459" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J459" t="inlineStr"/>
+      <c r="K459" t="inlineStr"/>
+      <c r="L459" t="inlineStr"/>
       <c r="M459" t="n">
         <v>1</v>
       </c>
@@ -16627,22 +16559,14 @@
         <v>1275.333333333333</v>
       </c>
       <c r="H460" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I460" t="n">
         <v>0</v>
       </c>
-      <c r="J460" t="n">
-        <v>1272</v>
-      </c>
-      <c r="K460" t="n">
-        <v>1272</v>
-      </c>
-      <c r="L460" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J460" t="inlineStr"/>
+      <c r="K460" t="inlineStr"/>
+      <c r="L460" t="inlineStr"/>
       <c r="M460" t="n">
         <v>1</v>
       </c>
@@ -16670,17 +16594,13 @@
         <v>1275.283333333333</v>
       </c>
       <c r="H461" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I461" t="n">
         <v>0</v>
       </c>
-      <c r="J461" t="n">
-        <v>1274</v>
-      </c>
-      <c r="K461" t="n">
-        <v>1274</v>
-      </c>
+      <c r="J461" t="inlineStr"/>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="inlineStr"/>
       <c r="M461" t="n">
         <v>1</v>
@@ -16709,22 +16629,14 @@
         <v>1275.233333333333</v>
       </c>
       <c r="H462" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I462" t="n">
         <v>0</v>
       </c>
-      <c r="J462" t="n">
-        <v>1274</v>
-      </c>
-      <c r="K462" t="n">
-        <v>1274</v>
-      </c>
-      <c r="L462" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J462" t="inlineStr"/>
+      <c r="K462" t="inlineStr"/>
+      <c r="L462" t="inlineStr"/>
       <c r="M462" t="n">
         <v>1</v>
       </c>
@@ -16752,22 +16664,14 @@
         <v>1275.183333333333</v>
       </c>
       <c r="H463" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I463" t="n">
         <v>0</v>
       </c>
-      <c r="J463" t="n">
-        <v>1274</v>
-      </c>
-      <c r="K463" t="n">
-        <v>1274</v>
-      </c>
-      <c r="L463" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J463" t="inlineStr"/>
+      <c r="K463" t="inlineStr"/>
+      <c r="L463" t="inlineStr"/>
       <c r="M463" t="n">
         <v>1</v>
       </c>
@@ -16795,17 +16699,13 @@
         <v>1275.166666666667</v>
       </c>
       <c r="H464" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I464" t="n">
         <v>0</v>
       </c>
-      <c r="J464" t="n">
-        <v>1276</v>
-      </c>
-      <c r="K464" t="n">
-        <v>1276</v>
-      </c>
+      <c r="J464" t="inlineStr"/>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="inlineStr"/>
       <c r="M464" t="n">
         <v>1</v>
@@ -16834,22 +16734,14 @@
         <v>1275.183333333333</v>
       </c>
       <c r="H465" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I465" t="n">
         <v>0</v>
       </c>
-      <c r="J465" t="n">
-        <v>1276</v>
-      </c>
-      <c r="K465" t="n">
-        <v>1276</v>
-      </c>
-      <c r="L465" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J465" t="inlineStr"/>
+      <c r="K465" t="inlineStr"/>
+      <c r="L465" t="inlineStr"/>
       <c r="M465" t="n">
         <v>1</v>
       </c>
@@ -16877,22 +16769,14 @@
         <v>1275.2</v>
       </c>
       <c r="H466" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I466" t="n">
         <v>0</v>
       </c>
-      <c r="J466" t="n">
-        <v>1276</v>
-      </c>
-      <c r="K466" t="n">
-        <v>1276</v>
-      </c>
-      <c r="L466" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J466" t="inlineStr"/>
+      <c r="K466" t="inlineStr"/>
+      <c r="L466" t="inlineStr"/>
       <c r="M466" t="n">
         <v>1</v>
       </c>
@@ -17865,17 +17749,13 @@
         <v>1274.733333333333</v>
       </c>
       <c r="H494" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I494" t="n">
         <v>0</v>
       </c>
-      <c r="J494" t="n">
-        <v>1272</v>
-      </c>
-      <c r="K494" t="n">
-        <v>1272</v>
-      </c>
+      <c r="J494" t="inlineStr"/>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="inlineStr"/>
       <c r="M494" t="n">
         <v>1</v>
@@ -17904,22 +17784,14 @@
         <v>1274.616666666667</v>
       </c>
       <c r="H495" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I495" t="n">
         <v>0</v>
       </c>
-      <c r="J495" t="n">
-        <v>1272</v>
-      </c>
-      <c r="K495" t="n">
-        <v>1272</v>
-      </c>
-      <c r="L495" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J495" t="inlineStr"/>
+      <c r="K495" t="inlineStr"/>
+      <c r="L495" t="inlineStr"/>
       <c r="M495" t="n">
         <v>1</v>
       </c>
@@ -17947,22 +17819,14 @@
         <v>1274.566666666667</v>
       </c>
       <c r="H496" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I496" t="n">
         <v>0</v>
       </c>
-      <c r="J496" t="n">
-        <v>1276</v>
-      </c>
-      <c r="K496" t="n">
-        <v>1272</v>
-      </c>
-      <c r="L496" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J496" t="inlineStr"/>
+      <c r="K496" t="inlineStr"/>
+      <c r="L496" t="inlineStr"/>
       <c r="M496" t="n">
         <v>1</v>
       </c>
@@ -17990,17 +17854,13 @@
         <v>1274.516666666667</v>
       </c>
       <c r="H497" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I497" t="n">
         <v>0</v>
       </c>
-      <c r="J497" t="n">
-        <v>1276</v>
-      </c>
-      <c r="K497" t="n">
-        <v>1276</v>
-      </c>
+      <c r="J497" t="inlineStr"/>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="inlineStr"/>
       <c r="M497" t="n">
         <v>1</v>
@@ -18029,22 +17889,14 @@
         <v>1274.466666666667</v>
       </c>
       <c r="H498" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I498" t="n">
         <v>0</v>
       </c>
-      <c r="J498" t="n">
-        <v>1276</v>
-      </c>
-      <c r="K498" t="n">
-        <v>1276</v>
-      </c>
-      <c r="L498" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J498" t="inlineStr"/>
+      <c r="K498" t="inlineStr"/>
+      <c r="L498" t="inlineStr"/>
       <c r="M498" t="n">
         <v>1</v>
       </c>
@@ -18078,14 +17930,8 @@
         <v>0</v>
       </c>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="n">
-        <v>1276</v>
-      </c>
-      <c r="L499" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K499" t="inlineStr"/>
+      <c r="L499" t="inlineStr"/>
       <c r="M499" t="n">
         <v>1</v>
       </c>
@@ -18848,17 +18694,13 @@
         <v>1274.966666666667</v>
       </c>
       <c r="H521" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I521" t="n">
         <v>0</v>
       </c>
-      <c r="J521" t="n">
-        <v>1269</v>
-      </c>
-      <c r="K521" t="n">
-        <v>1269</v>
-      </c>
+      <c r="J521" t="inlineStr"/>
+      <c r="K521" t="inlineStr"/>
       <c r="L521" t="inlineStr"/>
       <c r="M521" t="n">
         <v>1</v>
@@ -18887,22 +18729,14 @@
         <v>1274.916666666667</v>
       </c>
       <c r="H522" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I522" t="n">
         <v>0</v>
       </c>
-      <c r="J522" t="n">
-        <v>1271</v>
-      </c>
-      <c r="K522" t="n">
-        <v>1269</v>
-      </c>
-      <c r="L522" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J522" t="inlineStr"/>
+      <c r="K522" t="inlineStr"/>
+      <c r="L522" t="inlineStr"/>
       <c r="M522" t="n">
         <v>1</v>
       </c>
@@ -18930,22 +18764,14 @@
         <v>1274.866666666667</v>
       </c>
       <c r="H523" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I523" t="n">
         <v>0</v>
       </c>
-      <c r="J523" t="n">
-        <v>1271</v>
-      </c>
-      <c r="K523" t="n">
-        <v>1269</v>
-      </c>
-      <c r="L523" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J523" t="inlineStr"/>
+      <c r="K523" t="inlineStr"/>
+      <c r="L523" t="inlineStr"/>
       <c r="M523" t="n">
         <v>1</v>
       </c>
@@ -18973,17 +18799,13 @@
         <v>1274.816666666667</v>
       </c>
       <c r="H524" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I524" t="n">
         <v>0</v>
       </c>
-      <c r="J524" t="n">
-        <v>1273</v>
-      </c>
-      <c r="K524" t="n">
-        <v>1273</v>
-      </c>
+      <c r="J524" t="inlineStr"/>
+      <c r="K524" t="inlineStr"/>
       <c r="L524" t="inlineStr"/>
       <c r="M524" t="n">
         <v>1</v>
@@ -19012,22 +18834,14 @@
         <v>1274.766666666667</v>
       </c>
       <c r="H525" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I525" t="n">
         <v>0</v>
       </c>
-      <c r="J525" t="n">
-        <v>1273</v>
-      </c>
-      <c r="K525" t="n">
-        <v>1273</v>
-      </c>
-      <c r="L525" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J525" t="inlineStr"/>
+      <c r="K525" t="inlineStr"/>
+      <c r="L525" t="inlineStr"/>
       <c r="M525" t="n">
         <v>1</v>
       </c>
@@ -19055,22 +18869,14 @@
         <v>1274.766666666667</v>
       </c>
       <c r="H526" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I526" t="n">
         <v>0</v>
       </c>
-      <c r="J526" t="n">
-        <v>1276</v>
-      </c>
-      <c r="K526" t="n">
-        <v>1273</v>
-      </c>
-      <c r="L526" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J526" t="inlineStr"/>
+      <c r="K526" t="inlineStr"/>
+      <c r="L526" t="inlineStr"/>
       <c r="M526" t="n">
         <v>1</v>
       </c>
@@ -19098,17 +18904,13 @@
         <v>1274.766666666667</v>
       </c>
       <c r="H527" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I527" t="n">
         <v>0</v>
       </c>
-      <c r="J527" t="n">
-        <v>1276</v>
-      </c>
-      <c r="K527" t="n">
-        <v>1276</v>
-      </c>
+      <c r="J527" t="inlineStr"/>
+      <c r="K527" t="inlineStr"/>
       <c r="L527" t="inlineStr"/>
       <c r="M527" t="n">
         <v>1</v>
@@ -19137,22 +18939,14 @@
         <v>1274.783333333333</v>
       </c>
       <c r="H528" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I528" t="n">
         <v>0</v>
       </c>
-      <c r="J528" t="n">
-        <v>1277</v>
-      </c>
-      <c r="K528" t="n">
-        <v>1276</v>
-      </c>
-      <c r="L528" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J528" t="inlineStr"/>
+      <c r="K528" t="inlineStr"/>
+      <c r="L528" t="inlineStr"/>
       <c r="M528" t="n">
         <v>1</v>
       </c>
@@ -19180,22 +18974,14 @@
         <v>1274.783333333333</v>
       </c>
       <c r="H529" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I529" t="n">
         <v>0</v>
       </c>
-      <c r="J529" t="n">
-        <v>1276</v>
-      </c>
-      <c r="K529" t="n">
-        <v>1276</v>
-      </c>
-      <c r="L529" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J529" t="inlineStr"/>
+      <c r="K529" t="inlineStr"/>
+      <c r="L529" t="inlineStr"/>
       <c r="M529" t="n">
         <v>1</v>
       </c>
@@ -20451,7 +20237,7 @@
         <v>0</v>
       </c>
       <c r="I565" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J565" t="inlineStr"/>
       <c r="K565" t="inlineStr"/>
@@ -20486,7 +20272,7 @@
         <v>0</v>
       </c>
       <c r="I566" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J566" t="inlineStr"/>
       <c r="K566" t="inlineStr"/>
@@ -20591,7 +20377,7 @@
         <v>0</v>
       </c>
       <c r="I569" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J569" t="inlineStr"/>
       <c r="K569" t="inlineStr"/>
@@ -20626,7 +20412,7 @@
         <v>0</v>
       </c>
       <c r="I570" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J570" t="inlineStr"/>
       <c r="K570" t="inlineStr"/>
@@ -20661,7 +20447,7 @@
         <v>0</v>
       </c>
       <c r="I571" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J571" t="inlineStr"/>
       <c r="K571" t="inlineStr"/>
@@ -20696,7 +20482,7 @@
         <v>0</v>
       </c>
       <c r="I572" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J572" t="inlineStr"/>
       <c r="K572" t="inlineStr"/>
@@ -20731,7 +20517,7 @@
         <v>0</v>
       </c>
       <c r="I573" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J573" t="inlineStr"/>
       <c r="K573" t="inlineStr"/>
@@ -20766,7 +20552,7 @@
         <v>0</v>
       </c>
       <c r="I574" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J574" t="inlineStr"/>
       <c r="K574" t="inlineStr"/>
@@ -20801,7 +20587,7 @@
         <v>0</v>
       </c>
       <c r="I575" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J575" t="inlineStr"/>
       <c r="K575" t="inlineStr"/>
@@ -20836,7 +20622,7 @@
         <v>0</v>
       </c>
       <c r="I576" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J576" t="inlineStr"/>
       <c r="K576" t="inlineStr"/>

--- a/BackTest/2019-10-19 BackTest BHP.xlsx
+++ b/BackTest/2019-10-19 BackTest BHP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-35</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-46.8</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-46.8</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-66.6431</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-58.7431</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-58.7431</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-58.7431</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-58.7431</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-58.7431</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-58.7431</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-52.4431</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-55.5431</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-50.4431</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-50.4431</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-50.4431</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-50.4431</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-50.4431</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-50.4431</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-50.4431</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-50.4431</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-56.8431</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-65.2431</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-56.7431</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-56.7431</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-56.7431</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-53.2431</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-53.2431</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-56.0431</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-64.5431</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-64.5431</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-70.9431</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-70.9431</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-68.7431</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-68.7431</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-27.9251</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>3.154899999999998</v>
       </c>
       <c r="H317" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>3.154899999999998</v>
       </c>
       <c r="H318" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>-13.4451</v>
       </c>
       <c r="H319" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>-18.9451</v>
       </c>
       <c r="H320" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>-18.9451</v>
       </c>
       <c r="H321" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>-11.0451</v>
       </c>
       <c r="H326" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>-11.0451</v>
       </c>
       <c r="H330" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>-11.0451</v>
       </c>
       <c r="H331" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>-17.6451</v>
       </c>
       <c r="H350" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>-17.6451</v>
       </c>
       <c r="H351" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>-17.6451</v>
       </c>
       <c r="H354" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -16159,14 +16159,10 @@
         <v>-142.9843</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
-      </c>
-      <c r="I478" t="n">
-        <v>1272</v>
-      </c>
-      <c r="J478" t="n">
-        <v>1272</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I478" t="inlineStr"/>
+      <c r="J478" t="inlineStr"/>
       <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
@@ -16199,14 +16195,8 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="n">
-        <v>1272</v>
-      </c>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J479" t="inlineStr"/>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16238,14 +16228,8 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="n">
-        <v>1272</v>
-      </c>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J480" t="inlineStr"/>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16340,14 +16324,10 @@
         <v>-131.9843</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
-      </c>
-      <c r="I483" t="n">
-        <v>1275</v>
-      </c>
-      <c r="J483" t="n">
-        <v>1275</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I483" t="inlineStr"/>
+      <c r="J483" t="inlineStr"/>
       <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
@@ -16380,14 +16360,8 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="n">
-        <v>1275</v>
-      </c>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J484" t="inlineStr"/>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16419,14 +16393,8 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="n">
-        <v>1275</v>
-      </c>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J485" t="inlineStr"/>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -17214,14 +17182,10 @@
         <v>-179.0642999999999</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
-      </c>
-      <c r="I509" t="n">
-        <v>1273</v>
-      </c>
-      <c r="J509" t="n">
-        <v>1273</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I509" t="inlineStr"/>
+      <c r="J509" t="inlineStr"/>
       <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
         <v>1</v>
@@ -17251,216 +17215,188 @@
         <v>-179.0642999999999</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
-      </c>
-      <c r="I510" t="n">
+        <v>0</v>
+      </c>
+      <c r="I510" t="inlineStr"/>
+      <c r="J510" t="inlineStr"/>
+      <c r="K510" t="inlineStr"/>
+      <c r="L510" t="n">
+        <v>1</v>
+      </c>
+      <c r="M510" t="inlineStr"/>
+    </row>
+    <row r="511">
+      <c r="A511" s="1" t="n">
+        <v>509</v>
+      </c>
+      <c r="B511" t="n">
         <v>1273</v>
       </c>
-      <c r="J510" t="n">
+      <c r="C511" t="n">
         <v>1273</v>
       </c>
-      <c r="K510" t="inlineStr">
+      <c r="D511" t="n">
+        <v>1273</v>
+      </c>
+      <c r="E511" t="n">
+        <v>1273</v>
+      </c>
+      <c r="F511" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="G511" t="n">
+        <v>-179.0642999999999</v>
+      </c>
+      <c r="H511" t="n">
+        <v>0</v>
+      </c>
+      <c r="I511" t="inlineStr"/>
+      <c r="J511" t="inlineStr"/>
+      <c r="K511" t="inlineStr"/>
+      <c r="L511" t="n">
+        <v>1</v>
+      </c>
+      <c r="M511" t="inlineStr"/>
+    </row>
+    <row r="512">
+      <c r="A512" s="1" t="n">
+        <v>510</v>
+      </c>
+      <c r="B512" t="n">
+        <v>1273</v>
+      </c>
+      <c r="C512" t="n">
+        <v>1273</v>
+      </c>
+      <c r="D512" t="n">
+        <v>1273</v>
+      </c>
+      <c r="E512" t="n">
+        <v>1273</v>
+      </c>
+      <c r="F512" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="G512" t="n">
+        <v>-179.0642999999999</v>
+      </c>
+      <c r="H512" t="n">
+        <v>0</v>
+      </c>
+      <c r="I512" t="inlineStr"/>
+      <c r="J512" t="inlineStr"/>
+      <c r="K512" t="inlineStr"/>
+      <c r="L512" t="n">
+        <v>1</v>
+      </c>
+      <c r="M512" t="inlineStr"/>
+    </row>
+    <row r="513">
+      <c r="A513" s="1" t="n">
+        <v>511</v>
+      </c>
+      <c r="B513" t="n">
+        <v>1273</v>
+      </c>
+      <c r="C513" t="n">
+        <v>1273</v>
+      </c>
+      <c r="D513" t="n">
+        <v>1273</v>
+      </c>
+      <c r="E513" t="n">
+        <v>1273</v>
+      </c>
+      <c r="F513" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="G513" t="n">
+        <v>-179.0642999999999</v>
+      </c>
+      <c r="H513" t="n">
+        <v>0</v>
+      </c>
+      <c r="I513" t="inlineStr"/>
+      <c r="J513" t="inlineStr"/>
+      <c r="K513" t="inlineStr"/>
+      <c r="L513" t="n">
+        <v>1</v>
+      </c>
+      <c r="M513" t="inlineStr"/>
+    </row>
+    <row r="514">
+      <c r="A514" s="1" t="n">
+        <v>512</v>
+      </c>
+      <c r="B514" t="n">
+        <v>1269</v>
+      </c>
+      <c r="C514" t="n">
+        <v>1269</v>
+      </c>
+      <c r="D514" t="n">
+        <v>1269</v>
+      </c>
+      <c r="E514" t="n">
+        <v>1269</v>
+      </c>
+      <c r="F514" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="G514" t="n">
+        <v>-197.6642999999999</v>
+      </c>
+      <c r="H514" t="n">
+        <v>1</v>
+      </c>
+      <c r="I514" t="n">
+        <v>1273</v>
+      </c>
+      <c r="J514" t="n">
+        <v>1273</v>
+      </c>
+      <c r="K514" t="inlineStr"/>
+      <c r="L514" t="n">
+        <v>1</v>
+      </c>
+      <c r="M514" t="inlineStr"/>
+    </row>
+    <row r="515">
+      <c r="A515" s="1" t="n">
+        <v>513</v>
+      </c>
+      <c r="B515" t="n">
+        <v>1269</v>
+      </c>
+      <c r="C515" t="n">
+        <v>1269</v>
+      </c>
+      <c r="D515" t="n">
+        <v>1269</v>
+      </c>
+      <c r="E515" t="n">
+        <v>1269</v>
+      </c>
+      <c r="F515" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G515" t="n">
+        <v>-197.6642999999999</v>
+      </c>
+      <c r="H515" t="n">
+        <v>1</v>
+      </c>
+      <c r="I515" t="n">
+        <v>1269</v>
+      </c>
+      <c r="J515" t="n">
+        <v>1273</v>
+      </c>
+      <c r="K515" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L510" t="n">
-        <v>1</v>
-      </c>
-      <c r="M510" t="inlineStr"/>
-    </row>
-    <row r="511">
-      <c r="A511" s="1" t="n">
-        <v>509</v>
-      </c>
-      <c r="B511" t="n">
-        <v>1273</v>
-      </c>
-      <c r="C511" t="n">
-        <v>1273</v>
-      </c>
-      <c r="D511" t="n">
-        <v>1273</v>
-      </c>
-      <c r="E511" t="n">
-        <v>1273</v>
-      </c>
-      <c r="F511" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="G511" t="n">
-        <v>-179.0642999999999</v>
-      </c>
-      <c r="H511" t="n">
-        <v>2</v>
-      </c>
-      <c r="I511" t="n">
-        <v>1273</v>
-      </c>
-      <c r="J511" t="n">
-        <v>1273</v>
-      </c>
-      <c r="K511" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L511" t="n">
-        <v>1</v>
-      </c>
-      <c r="M511" t="inlineStr"/>
-    </row>
-    <row r="512">
-      <c r="A512" s="1" t="n">
-        <v>510</v>
-      </c>
-      <c r="B512" t="n">
-        <v>1273</v>
-      </c>
-      <c r="C512" t="n">
-        <v>1273</v>
-      </c>
-      <c r="D512" t="n">
-        <v>1273</v>
-      </c>
-      <c r="E512" t="n">
-        <v>1273</v>
-      </c>
-      <c r="F512" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="G512" t="n">
-        <v>-179.0642999999999</v>
-      </c>
-      <c r="H512" t="n">
-        <v>2</v>
-      </c>
-      <c r="I512" t="n">
-        <v>1273</v>
-      </c>
-      <c r="J512" t="n">
-        <v>1273</v>
-      </c>
-      <c r="K512" t="inlineStr"/>
-      <c r="L512" t="n">
-        <v>1</v>
-      </c>
-      <c r="M512" t="inlineStr"/>
-    </row>
-    <row r="513">
-      <c r="A513" s="1" t="n">
-        <v>511</v>
-      </c>
-      <c r="B513" t="n">
-        <v>1273</v>
-      </c>
-      <c r="C513" t="n">
-        <v>1273</v>
-      </c>
-      <c r="D513" t="n">
-        <v>1273</v>
-      </c>
-      <c r="E513" t="n">
-        <v>1273</v>
-      </c>
-      <c r="F513" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="G513" t="n">
-        <v>-179.0642999999999</v>
-      </c>
-      <c r="H513" t="n">
-        <v>2</v>
-      </c>
-      <c r="I513" t="n">
-        <v>1273</v>
-      </c>
-      <c r="J513" t="n">
-        <v>1273</v>
-      </c>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L513" t="n">
-        <v>1</v>
-      </c>
-      <c r="M513" t="inlineStr"/>
-    </row>
-    <row r="514">
-      <c r="A514" s="1" t="n">
-        <v>512</v>
-      </c>
-      <c r="B514" t="n">
-        <v>1269</v>
-      </c>
-      <c r="C514" t="n">
-        <v>1269</v>
-      </c>
-      <c r="D514" t="n">
-        <v>1269</v>
-      </c>
-      <c r="E514" t="n">
-        <v>1269</v>
-      </c>
-      <c r="F514" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="G514" t="n">
-        <v>-197.6642999999999</v>
-      </c>
-      <c r="H514" t="n">
-        <v>2</v>
-      </c>
-      <c r="I514" t="n">
-        <v>1273</v>
-      </c>
-      <c r="J514" t="n">
-        <v>1273</v>
-      </c>
-      <c r="K514" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L514" t="n">
-        <v>1</v>
-      </c>
-      <c r="M514" t="inlineStr"/>
-    </row>
-    <row r="515">
-      <c r="A515" s="1" t="n">
-        <v>513</v>
-      </c>
-      <c r="B515" t="n">
-        <v>1269</v>
-      </c>
-      <c r="C515" t="n">
-        <v>1269</v>
-      </c>
-      <c r="D515" t="n">
-        <v>1269</v>
-      </c>
-      <c r="E515" t="n">
-        <v>1269</v>
-      </c>
-      <c r="F515" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="G515" t="n">
-        <v>-197.6642999999999</v>
-      </c>
-      <c r="H515" t="n">
-        <v>2</v>
-      </c>
-      <c r="I515" t="n">
-        <v>1269</v>
-      </c>
-      <c r="J515" t="n">
-        <v>1269</v>
-      </c>
-      <c r="K515" t="inlineStr"/>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -17489,13 +17425,13 @@
         <v>-190.6642999999999</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I516" t="n">
         <v>1269</v>
       </c>
       <c r="J516" t="n">
-        <v>1269</v>
+        <v>1273</v>
       </c>
       <c r="K516" t="inlineStr">
         <is>
@@ -17530,50 +17466,56 @@
         <v>-190.6642999999999</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
-      </c>
-      <c r="I517" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I517" t="n">
+        <v>1272</v>
+      </c>
       <c r="J517" t="n">
-        <v>1269</v>
-      </c>
-      <c r="K517" t="inlineStr">
+        <v>1272</v>
+      </c>
+      <c r="K517" t="inlineStr"/>
+      <c r="L517" t="n">
+        <v>1</v>
+      </c>
+      <c r="M517" t="inlineStr"/>
+    </row>
+    <row r="518">
+      <c r="A518" s="1" t="n">
+        <v>516</v>
+      </c>
+      <c r="B518" t="n">
+        <v>1272</v>
+      </c>
+      <c r="C518" t="n">
+        <v>1272</v>
+      </c>
+      <c r="D518" t="n">
+        <v>1272</v>
+      </c>
+      <c r="E518" t="n">
+        <v>1272</v>
+      </c>
+      <c r="F518" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="G518" t="n">
+        <v>-190.6642999999999</v>
+      </c>
+      <c r="H518" t="n">
+        <v>1</v>
+      </c>
+      <c r="I518" t="n">
+        <v>1272</v>
+      </c>
+      <c r="J518" t="n">
+        <v>1272</v>
+      </c>
+      <c r="K518" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L517" t="n">
-        <v>1</v>
-      </c>
-      <c r="M517" t="inlineStr"/>
-    </row>
-    <row r="518">
-      <c r="A518" s="1" t="n">
-        <v>516</v>
-      </c>
-      <c r="B518" t="n">
-        <v>1272</v>
-      </c>
-      <c r="C518" t="n">
-        <v>1272</v>
-      </c>
-      <c r="D518" t="n">
-        <v>1272</v>
-      </c>
-      <c r="E518" t="n">
-        <v>1272</v>
-      </c>
-      <c r="F518" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="G518" t="n">
-        <v>-190.6642999999999</v>
-      </c>
-      <c r="H518" t="n">
-        <v>0</v>
-      </c>
-      <c r="I518" t="inlineStr"/>
-      <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -17602,11 +17544,19 @@
         <v>-190.6642999999999</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
-      </c>
-      <c r="I519" t="inlineStr"/>
-      <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I519" t="n">
+        <v>1272</v>
+      </c>
+      <c r="J519" t="n">
+        <v>1272</v>
+      </c>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -17635,10 +17585,14 @@
         <v>-186.1642999999999</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
-      </c>
-      <c r="I520" t="inlineStr"/>
-      <c r="J520" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I520" t="n">
+        <v>1272</v>
+      </c>
+      <c r="J520" t="n">
+        <v>1272</v>
+      </c>
       <c r="K520" t="inlineStr"/>
       <c r="L520" t="n">
         <v>1</v>
@@ -17668,11 +17622,19 @@
         <v>-186.1642999999999</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
-      </c>
-      <c r="I521" t="inlineStr"/>
-      <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I521" t="n">
+        <v>1274</v>
+      </c>
+      <c r="J521" t="n">
+        <v>1272</v>
+      </c>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -17701,11 +17663,19 @@
         <v>-186.1642999999999</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
-      </c>
-      <c r="I522" t="inlineStr"/>
-      <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I522" t="n">
+        <v>1274</v>
+      </c>
+      <c r="J522" t="n">
+        <v>1272</v>
+      </c>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -17734,7 +17704,7 @@
         <v>-182.3642999999999</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I523" t="n">
         <v>1274</v>
@@ -17771,7 +17741,7 @@
         <v>-182.3642999999999</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I524" t="n">
         <v>1276</v>
@@ -17812,7 +17782,7 @@
         <v>-182.3642999999999</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I525" t="n">
         <v>1276</v>
@@ -17853,10 +17823,14 @@
         <v>-182.3642999999999</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
-      </c>
-      <c r="I526" t="inlineStr"/>
-      <c r="J526" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I526" t="n">
+        <v>1276</v>
+      </c>
+      <c r="J526" t="n">
+        <v>1276</v>
+      </c>
       <c r="K526" t="inlineStr"/>
       <c r="L526" t="n">
         <v>1</v>
@@ -17889,8 +17863,14 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="J527" t="n">
+        <v>1276</v>
+      </c>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -17922,8 +17902,14 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="J528" t="n">
+        <v>1276</v>
+      </c>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -17952,14 +17938,10 @@
         <v>-182.3642999999999</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
-      </c>
-      <c r="I529" t="n">
-        <v>1276</v>
-      </c>
-      <c r="J529" t="n">
-        <v>1276</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I529" t="inlineStr"/>
+      <c r="J529" t="inlineStr"/>
       <c r="K529" t="inlineStr"/>
       <c r="L529" t="n">
         <v>1</v>
@@ -17992,125 +17974,123 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="n">
+      <c r="J530" t="inlineStr"/>
+      <c r="K530" t="inlineStr"/>
+      <c r="L530" t="n">
+        <v>1</v>
+      </c>
+      <c r="M530" t="inlineStr"/>
+    </row>
+    <row r="531">
+      <c r="A531" s="1" t="n">
+        <v>529</v>
+      </c>
+      <c r="B531" t="n">
         <v>1276</v>
       </c>
-      <c r="K530" t="inlineStr">
+      <c r="C531" t="n">
+        <v>1276</v>
+      </c>
+      <c r="D531" t="n">
+        <v>1276</v>
+      </c>
+      <c r="E531" t="n">
+        <v>1276</v>
+      </c>
+      <c r="F531" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="G531" t="n">
+        <v>-182.3642999999999</v>
+      </c>
+      <c r="H531" t="n">
+        <v>1</v>
+      </c>
+      <c r="I531" t="n">
+        <v>1276</v>
+      </c>
+      <c r="J531" t="n">
+        <v>1276</v>
+      </c>
+      <c r="K531" t="inlineStr"/>
+      <c r="L531" t="n">
+        <v>1</v>
+      </c>
+      <c r="M531" t="inlineStr"/>
+    </row>
+    <row r="532">
+      <c r="A532" s="1" t="n">
+        <v>530</v>
+      </c>
+      <c r="B532" t="n">
+        <v>1276</v>
+      </c>
+      <c r="C532" t="n">
+        <v>1276</v>
+      </c>
+      <c r="D532" t="n">
+        <v>1276</v>
+      </c>
+      <c r="E532" t="n">
+        <v>1276</v>
+      </c>
+      <c r="F532" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="G532" t="n">
+        <v>-182.3642999999999</v>
+      </c>
+      <c r="H532" t="n">
+        <v>0</v>
+      </c>
+      <c r="I532" t="inlineStr"/>
+      <c r="J532" t="n">
+        <v>1276</v>
+      </c>
+      <c r="K532" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L530" t="n">
-        <v>1</v>
-      </c>
-      <c r="M530" t="inlineStr"/>
-    </row>
-    <row r="531">
-      <c r="A531" s="1" t="n">
-        <v>529</v>
-      </c>
-      <c r="B531" t="n">
+      <c r="L532" t="n">
+        <v>1</v>
+      </c>
+      <c r="M532" t="inlineStr"/>
+    </row>
+    <row r="533">
+      <c r="A533" s="1" t="n">
+        <v>531</v>
+      </c>
+      <c r="B533" t="n">
         <v>1276</v>
       </c>
-      <c r="C531" t="n">
+      <c r="C533" t="n">
         <v>1276</v>
       </c>
-      <c r="D531" t="n">
+      <c r="D533" t="n">
         <v>1276</v>
       </c>
-      <c r="E531" t="n">
+      <c r="E533" t="n">
         <v>1276</v>
       </c>
-      <c r="F531" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="G531" t="n">
+      <c r="F533" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="G533" t="n">
         <v>-182.3642999999999</v>
       </c>
-      <c r="H531" t="n">
-        <v>2</v>
-      </c>
-      <c r="I531" t="n">
+      <c r="H533" t="n">
+        <v>0</v>
+      </c>
+      <c r="I533" t="inlineStr"/>
+      <c r="J533" t="n">
         <v>1276</v>
       </c>
-      <c r="J531" t="n">
-        <v>1276</v>
-      </c>
-      <c r="K531" t="inlineStr">
+      <c r="K533" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L531" t="n">
-        <v>1</v>
-      </c>
-      <c r="M531" t="inlineStr"/>
-    </row>
-    <row r="532">
-      <c r="A532" s="1" t="n">
-        <v>530</v>
-      </c>
-      <c r="B532" t="n">
-        <v>1276</v>
-      </c>
-      <c r="C532" t="n">
-        <v>1276</v>
-      </c>
-      <c r="D532" t="n">
-        <v>1276</v>
-      </c>
-      <c r="E532" t="n">
-        <v>1276</v>
-      </c>
-      <c r="F532" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="G532" t="n">
-        <v>-182.3642999999999</v>
-      </c>
-      <c r="H532" t="n">
-        <v>0</v>
-      </c>
-      <c r="I532" t="inlineStr"/>
-      <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
-      <c r="L532" t="n">
-        <v>1</v>
-      </c>
-      <c r="M532" t="inlineStr"/>
-    </row>
-    <row r="533">
-      <c r="A533" s="1" t="n">
-        <v>531</v>
-      </c>
-      <c r="B533" t="n">
-        <v>1276</v>
-      </c>
-      <c r="C533" t="n">
-        <v>1276</v>
-      </c>
-      <c r="D533" t="n">
-        <v>1276</v>
-      </c>
-      <c r="E533" t="n">
-        <v>1276</v>
-      </c>
-      <c r="F533" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="G533" t="n">
-        <v>-182.3642999999999</v>
-      </c>
-      <c r="H533" t="n">
-        <v>2</v>
-      </c>
-      <c r="I533" t="n">
-        <v>1276</v>
-      </c>
-      <c r="J533" t="n">
-        <v>1276</v>
-      </c>
-      <c r="K533" t="inlineStr"/>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18142,14 +18122,8 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="n">
-        <v>1276</v>
-      </c>
-      <c r="K534" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J534" t="inlineStr"/>
+      <c r="K534" t="inlineStr"/>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18178,19 +18152,11 @@
         <v>-185.8642999999999</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
-      </c>
-      <c r="I535" t="n">
-        <v>1274</v>
-      </c>
-      <c r="J535" t="n">
-        <v>1276</v>
-      </c>
-      <c r="K535" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I535" t="inlineStr"/>
+      <c r="J535" t="inlineStr"/>
+      <c r="K535" t="inlineStr"/>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18219,14 +18185,10 @@
         <v>-185.8642999999999</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
-      </c>
-      <c r="I536" t="n">
-        <v>1274</v>
-      </c>
-      <c r="J536" t="n">
-        <v>1274</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I536" t="inlineStr"/>
+      <c r="J536" t="inlineStr"/>
       <c r="K536" t="inlineStr"/>
       <c r="L536" t="n">
         <v>1</v>
@@ -18256,19 +18218,11 @@
         <v>-185.8642999999999</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
-      </c>
-      <c r="I537" t="n">
-        <v>1274</v>
-      </c>
-      <c r="J537" t="n">
-        <v>1274</v>
-      </c>
-      <c r="K537" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I537" t="inlineStr"/>
+      <c r="J537" t="inlineStr"/>
+      <c r="K537" t="inlineStr"/>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -18297,19 +18251,11 @@
         <v>-166.8642999999999</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
-      </c>
-      <c r="I538" t="n">
-        <v>1274</v>
-      </c>
-      <c r="J538" t="n">
-        <v>1274</v>
-      </c>
-      <c r="K538" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I538" t="inlineStr"/>
+      <c r="J538" t="inlineStr"/>
+      <c r="K538" t="inlineStr"/>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -18338,14 +18284,10 @@
         <v>-174.3642999999999</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
-      </c>
-      <c r="I539" t="n">
-        <v>1276</v>
-      </c>
-      <c r="J539" t="n">
-        <v>1276</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I539" t="inlineStr"/>
+      <c r="J539" t="inlineStr"/>
       <c r="K539" t="inlineStr"/>
       <c r="L539" t="n">
         <v>1</v>
@@ -18378,14 +18320,8 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="n">
-        <v>1276</v>
-      </c>
-      <c r="K540" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J540" t="inlineStr"/>
+      <c r="K540" t="inlineStr"/>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -18417,14 +18353,8 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="n">
-        <v>1276</v>
-      </c>
-      <c r="K541" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J541" t="inlineStr"/>
+      <c r="K541" t="inlineStr"/>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -18684,14 +18614,10 @@
         <v>-147.3642999999999</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
-      </c>
-      <c r="I549" t="n">
-        <v>1274</v>
-      </c>
-      <c r="J549" t="n">
-        <v>1274</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I549" t="inlineStr"/>
+      <c r="J549" t="inlineStr"/>
       <c r="K549" t="inlineStr"/>
       <c r="L549" t="n">
         <v>1</v>
@@ -18721,19 +18647,11 @@
         <v>-147.3642999999999</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
-      </c>
-      <c r="I550" t="n">
-        <v>1272</v>
-      </c>
-      <c r="J550" t="n">
-        <v>1274</v>
-      </c>
-      <c r="K550" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I550" t="inlineStr"/>
+      <c r="J550" t="inlineStr"/>
+      <c r="K550" t="inlineStr"/>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -18762,19 +18680,11 @@
         <v>-147.3642999999999</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
-      </c>
-      <c r="I551" t="n">
-        <v>1272</v>
-      </c>
-      <c r="J551" t="n">
-        <v>1274</v>
-      </c>
-      <c r="K551" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I551" t="inlineStr"/>
+      <c r="J551" t="inlineStr"/>
+      <c r="K551" t="inlineStr"/>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -18803,14 +18713,10 @@
         <v>-147.3642999999999</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
-      </c>
-      <c r="I552" t="n">
-        <v>1272</v>
-      </c>
-      <c r="J552" t="n">
-        <v>1272</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I552" t="inlineStr"/>
+      <c r="J552" t="inlineStr"/>
       <c r="K552" t="inlineStr"/>
       <c r="L552" t="n">
         <v>1</v>
@@ -18843,14 +18749,8 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="n">
-        <v>1272</v>
-      </c>
-      <c r="K553" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J553" t="inlineStr"/>
+      <c r="K553" t="inlineStr"/>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -18879,19 +18779,11 @@
         <v>-147.3642999999999</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
-      </c>
-      <c r="I554" t="n">
-        <v>1272</v>
-      </c>
-      <c r="J554" t="n">
-        <v>1272</v>
-      </c>
-      <c r="K554" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I554" t="inlineStr"/>
+      <c r="J554" t="inlineStr"/>
+      <c r="K554" t="inlineStr"/>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -18920,14 +18812,10 @@
         <v>-135.6642999999999</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
-      </c>
-      <c r="I555" t="n">
-        <v>1272</v>
-      </c>
-      <c r="J555" t="n">
-        <v>1272</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I555" t="inlineStr"/>
+      <c r="J555" t="inlineStr"/>
       <c r="K555" t="inlineStr"/>
       <c r="L555" t="n">
         <v>1</v>
@@ -18960,14 +18848,8 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="n">
-        <v>1272</v>
-      </c>
-      <c r="K556" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J556" t="inlineStr"/>
+      <c r="K556" t="inlineStr"/>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -18999,14 +18881,8 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="n">
-        <v>1272</v>
-      </c>
-      <c r="K557" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J557" t="inlineStr"/>
+      <c r="K557" t="inlineStr"/>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -19200,14 +19076,10 @@
         <v>-137.2642999999999</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
-      </c>
-      <c r="I563" t="n">
-        <v>1278</v>
-      </c>
-      <c r="J563" t="n">
-        <v>1278</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I563" t="inlineStr"/>
+      <c r="J563" t="inlineStr"/>
       <c r="K563" t="inlineStr"/>
       <c r="L563" t="n">
         <v>1</v>
@@ -19237,19 +19109,11 @@
         <v>-137.2642999999999</v>
       </c>
       <c r="H564" t="n">
-        <v>2</v>
-      </c>
-      <c r="I564" t="n">
-        <v>1278</v>
-      </c>
-      <c r="J564" t="n">
-        <v>1278</v>
-      </c>
-      <c r="K564" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I564" t="inlineStr"/>
+      <c r="J564" t="inlineStr"/>
+      <c r="K564" t="inlineStr"/>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -19278,19 +19142,11 @@
         <v>-137.2642999999999</v>
       </c>
       <c r="H565" t="n">
-        <v>2</v>
-      </c>
-      <c r="I565" t="n">
-        <v>1278</v>
-      </c>
-      <c r="J565" t="n">
-        <v>1278</v>
-      </c>
-      <c r="K565" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I565" t="inlineStr"/>
+      <c r="J565" t="inlineStr"/>
+      <c r="K565" t="inlineStr"/>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -19583,14 +19439,10 @@
         <v>-140.2642999999999</v>
       </c>
       <c r="H574" t="n">
-        <v>2</v>
-      </c>
-      <c r="I574" t="n">
-        <v>1277</v>
-      </c>
-      <c r="J574" t="n">
-        <v>1277</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I574" t="inlineStr"/>
+      <c r="J574" t="inlineStr"/>
       <c r="K574" t="inlineStr"/>
       <c r="L574" t="n">
         <v>1</v>
@@ -19623,14 +19475,8 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="n">
-        <v>1277</v>
-      </c>
-      <c r="K575" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J575" t="inlineStr"/>
+      <c r="K575" t="inlineStr"/>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -19662,14 +19508,8 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="n">
-        <v>1277</v>
-      </c>
-      <c r="K576" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J576" t="inlineStr"/>
+      <c r="K576" t="inlineStr"/>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -19797,14 +19637,10 @@
         <v>-159.2642999999999</v>
       </c>
       <c r="H580" t="n">
-        <v>2</v>
-      </c>
-      <c r="I580" t="n">
-        <v>1269</v>
-      </c>
-      <c r="J580" t="n">
-        <v>1269</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I580" t="inlineStr"/>
+      <c r="J580" t="inlineStr"/>
       <c r="K580" t="inlineStr"/>
       <c r="L580" t="n">
         <v>1</v>
@@ -19834,7 +19670,7 @@
         <v>-144.9642999999999</v>
       </c>
       <c r="H581" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I581" t="n">
         <v>1269</v>
@@ -19842,11 +19678,7 @@
       <c r="J581" t="n">
         <v>1269</v>
       </c>
-      <c r="K581" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K581" t="inlineStr"/>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -19875,7 +19707,7 @@
         <v>-144.9642999999999</v>
       </c>
       <c r="H582" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I582" t="n">
         <v>1271</v>
@@ -19916,15 +19748,19 @@
         <v>-142.9642999999999</v>
       </c>
       <c r="H583" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I583" t="n">
         <v>1271</v>
       </c>
       <c r="J583" t="n">
-        <v>1271</v>
-      </c>
-      <c r="K583" t="inlineStr"/>
+        <v>1269</v>
+      </c>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -19953,19 +19789,15 @@
         <v>-142.9642999999999</v>
       </c>
       <c r="H584" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I584" t="n">
         <v>1273</v>
       </c>
       <c r="J584" t="n">
-        <v>1271</v>
-      </c>
-      <c r="K584" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>1273</v>
+      </c>
+      <c r="K584" t="inlineStr"/>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -19994,13 +19826,13 @@
         <v>-128.6642999999999</v>
       </c>
       <c r="H585" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I585" t="n">
         <v>1273</v>
       </c>
       <c r="J585" t="n">
-        <v>1271</v>
+        <v>1273</v>
       </c>
       <c r="K585" t="inlineStr">
         <is>
@@ -20035,15 +19867,19 @@
         <v>-128.6642999999999</v>
       </c>
       <c r="H586" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I586" t="n">
         <v>1276</v>
       </c>
       <c r="J586" t="n">
-        <v>1276</v>
-      </c>
-      <c r="K586" t="inlineStr"/>
+        <v>1273</v>
+      </c>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -20072,7 +19908,7 @@
         <v>-109.3642999999999</v>
       </c>
       <c r="H587" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I587" t="n">
         <v>1276</v>
@@ -20080,11 +19916,7 @@
       <c r="J587" t="n">
         <v>1276</v>
       </c>
-      <c r="K587" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K587" t="inlineStr"/>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -20113,11 +19945,9 @@
         <v>-120.2642999999999</v>
       </c>
       <c r="H588" t="n">
-        <v>2</v>
-      </c>
-      <c r="I588" t="n">
-        <v>1277</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I588" t="inlineStr"/>
       <c r="J588" t="n">
         <v>1276</v>
       </c>
@@ -20157,8 +19987,14 @@
         <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="J589" t="n">
+        <v>1276</v>
+      </c>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -21639,7 +21475,7 @@
         <v>-66.96429999999992</v>
       </c>
       <c r="H634" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -22530,7 +22366,7 @@
         <v>-35.56429999999991</v>
       </c>
       <c r="H661" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -22563,7 +22399,7 @@
         <v>-35.56429999999991</v>
       </c>
       <c r="H662" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -22596,7 +22432,7 @@
         <v>-35.56429999999991</v>
       </c>
       <c r="H663" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -22761,7 +22597,7 @@
         <v>-35.56429999999991</v>
       </c>
       <c r="H668" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -22794,7 +22630,7 @@
         <v>-35.56429999999991</v>
       </c>
       <c r="H669" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -22827,7 +22663,7 @@
         <v>-35.56429999999991</v>
       </c>
       <c r="H670" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -22860,7 +22696,7 @@
         <v>-35.56429999999991</v>
       </c>
       <c r="H671" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -22893,7 +22729,7 @@
         <v>-35.56429999999991</v>
       </c>
       <c r="H672" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -22926,7 +22762,7 @@
         <v>-35.56429999999991</v>
       </c>
       <c r="H673" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -25236,7 +25072,7 @@
         <v>64.33570000000009</v>
       </c>
       <c r="H743" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -25269,7 +25105,7 @@
         <v>64.33570000000009</v>
       </c>
       <c r="H744" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -25302,7 +25138,7 @@
         <v>64.33570000000009</v>
       </c>
       <c r="H745" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -25566,7 +25402,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H753" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -25599,7 +25435,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H754" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -25632,7 +25468,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H755" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -25665,7 +25501,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H756" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -25698,7 +25534,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H757" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -25731,7 +25567,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H758" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -25764,7 +25600,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H759" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -25797,7 +25633,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H760" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -25830,7 +25666,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H761" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
@@ -25863,7 +25699,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H762" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -25896,7 +25732,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H763" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -25929,7 +25765,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H764" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
@@ -25962,7 +25798,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H765" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -26160,7 +25996,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H771" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
@@ -26226,7 +26062,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H773" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -26259,7 +26095,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H774" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
@@ -26292,7 +26128,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H775" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
@@ -26325,7 +26161,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H776" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
@@ -26358,7 +26194,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H777" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
@@ -26391,7 +26227,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H778" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
@@ -26424,7 +26260,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H779" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
@@ -26457,7 +26293,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H780" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
@@ -26490,7 +26326,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H781" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
@@ -26523,7 +26359,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H782" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
@@ -26556,7 +26392,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H783" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
@@ -26589,7 +26425,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H784" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
@@ -26622,7 +26458,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H785" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
@@ -26655,7 +26491,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H786" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
@@ -26688,7 +26524,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H787" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
@@ -26721,7 +26557,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H788" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
@@ -26754,7 +26590,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H789" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
@@ -26787,7 +26623,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H790" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
@@ -26820,7 +26656,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H791" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
@@ -26853,7 +26689,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H792" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
@@ -26886,7 +26722,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H793" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
@@ -26919,7 +26755,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H794" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
@@ -26952,7 +26788,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H795" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
@@ -26985,7 +26821,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H796" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
@@ -27018,7 +26854,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H797" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
@@ -27051,7 +26887,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H798" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
@@ -27084,7 +26920,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H799" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
@@ -27117,7 +26953,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H800" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
@@ -27150,7 +26986,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H801" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
@@ -27183,7 +27019,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H802" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
@@ -27216,7 +27052,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H803" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
@@ -27249,7 +27085,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H804" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
@@ -27282,7 +27118,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H805" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
@@ -27315,7 +27151,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H806" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
@@ -27348,7 +27184,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H807" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
@@ -27381,7 +27217,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H808" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
@@ -27414,7 +27250,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H809" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
@@ -27447,7 +27283,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H810" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
@@ -27480,7 +27316,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H811" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
@@ -27513,7 +27349,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H812" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
@@ -27546,7 +27382,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H813" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
@@ -27579,7 +27415,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H814" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
@@ -27612,7 +27448,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H815" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
@@ -27645,7 +27481,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H816" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
@@ -27678,7 +27514,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H817" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
@@ -27711,7 +27547,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H818" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
@@ -27744,7 +27580,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H819" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
@@ -27777,7 +27613,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H820" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
@@ -27810,7 +27646,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H821" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
@@ -27843,7 +27679,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H822" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
@@ -27876,7 +27712,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H823" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
@@ -27909,7 +27745,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H824" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
@@ -27942,7 +27778,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H825" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
@@ -27975,7 +27811,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H826" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
@@ -28008,7 +27844,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H827" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
@@ -28041,7 +27877,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H828" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
@@ -28074,7 +27910,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H829" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
@@ -28107,7 +27943,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H830" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
@@ -28140,7 +27976,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H831" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
@@ -28173,7 +28009,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H832" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
@@ -28206,7 +28042,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H833" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
@@ -28239,7 +28075,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H834" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
@@ -28272,7 +28108,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H835" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
@@ -28305,7 +28141,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H836" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
@@ -28338,7 +28174,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H837" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
@@ -28371,7 +28207,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H838" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
@@ -28404,7 +28240,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H839" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
@@ -28437,7 +28273,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H840" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
@@ -28470,7 +28306,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H841" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
@@ -28503,7 +28339,7 @@
         <v>91.43570000000008</v>
       </c>
       <c r="H842" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
@@ -28514,6 +28350,6 @@
       <c r="M842" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-19 BackTest BHP.xlsx
+++ b/BackTest/2019-10-19 BackTest BHP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-35</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-46.8</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-46.8</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-95.51920000000001</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-95.51920000000001</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-101.1192</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-101.1192</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-61.6431</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-61.6431</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-58.7431</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-58.7431</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-58.7431</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-58.7431</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-52.4431</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-55.5431</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-50.4431</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-50.4431</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-50.4431</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-50.4431</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-50.4431</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-50.4431</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-50.4431</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-50.4431</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-56.8431</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-65.2431</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-56.7431</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-56.7431</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-56.7431</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-53.2431</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-53.2431</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-56.0431</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-64.5431</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-64.5431</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-70.9431</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-70.9431</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-68.7431</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-68.7431</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-29.6251</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-8.745100000000001</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-8.745100000000001</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-8.745100000000001</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-8.745100000000001</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-14.2451</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-14.2451</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-14.2451</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-14.2451</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-14.2451</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-14.2451</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-14.2451</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-14.2451</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>-14.2451</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>-14.2451</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>-14.2451</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>-14.2451</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>-14.2451</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>-14.2451</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>3.154899999999998</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>3.154899999999998</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>3.154899999999998</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -17347,14 +17347,10 @@
         <v>-197.6642999999999</v>
       </c>
       <c r="H514" t="n">
-        <v>1</v>
-      </c>
-      <c r="I514" t="n">
-        <v>1273</v>
-      </c>
-      <c r="J514" t="n">
-        <v>1273</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I514" t="inlineStr"/>
+      <c r="J514" t="inlineStr"/>
       <c r="K514" t="inlineStr"/>
       <c r="L514" t="n">
         <v>1</v>
@@ -17390,13 +17386,9 @@
         <v>1269</v>
       </c>
       <c r="J515" t="n">
-        <v>1273</v>
-      </c>
-      <c r="K515" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>1269</v>
+      </c>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -17431,7 +17423,7 @@
         <v>1269</v>
       </c>
       <c r="J516" t="n">
-        <v>1273</v>
+        <v>1269</v>
       </c>
       <c r="K516" t="inlineStr">
         <is>
@@ -17472,9 +17464,13 @@
         <v>1272</v>
       </c>
       <c r="J517" t="n">
-        <v>1272</v>
-      </c>
-      <c r="K517" t="inlineStr"/>
+        <v>1269</v>
+      </c>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -17511,11 +17507,7 @@
       <c r="J518" t="n">
         <v>1272</v>
       </c>
-      <c r="K518" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -17585,15 +17577,17 @@
         <v>-186.1642999999999</v>
       </c>
       <c r="H520" t="n">
-        <v>1</v>
-      </c>
-      <c r="I520" t="n">
-        <v>1272</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I520" t="inlineStr"/>
       <c r="J520" t="n">
         <v>1272</v>
       </c>
-      <c r="K520" t="inlineStr"/>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -17622,19 +17616,11 @@
         <v>-186.1642999999999</v>
       </c>
       <c r="H521" t="n">
-        <v>1</v>
-      </c>
-      <c r="I521" t="n">
-        <v>1274</v>
-      </c>
-      <c r="J521" t="n">
-        <v>1272</v>
-      </c>
-      <c r="K521" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I521" t="inlineStr"/>
+      <c r="J521" t="inlineStr"/>
+      <c r="K521" t="inlineStr"/>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -17663,19 +17649,11 @@
         <v>-186.1642999999999</v>
       </c>
       <c r="H522" t="n">
-        <v>1</v>
-      </c>
-      <c r="I522" t="n">
-        <v>1274</v>
-      </c>
-      <c r="J522" t="n">
-        <v>1272</v>
-      </c>
-      <c r="K522" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I522" t="inlineStr"/>
+      <c r="J522" t="inlineStr"/>
+      <c r="K522" t="inlineStr"/>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -17704,14 +17682,10 @@
         <v>-182.3642999999999</v>
       </c>
       <c r="H523" t="n">
-        <v>1</v>
-      </c>
-      <c r="I523" t="n">
-        <v>1274</v>
-      </c>
-      <c r="J523" t="n">
-        <v>1274</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I523" t="inlineStr"/>
+      <c r="J523" t="inlineStr"/>
       <c r="K523" t="inlineStr"/>
       <c r="L523" t="n">
         <v>1</v>
@@ -17741,19 +17715,11 @@
         <v>-182.3642999999999</v>
       </c>
       <c r="H524" t="n">
-        <v>1</v>
-      </c>
-      <c r="I524" t="n">
-        <v>1276</v>
-      </c>
-      <c r="J524" t="n">
-        <v>1274</v>
-      </c>
-      <c r="K524" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I524" t="inlineStr"/>
+      <c r="J524" t="inlineStr"/>
+      <c r="K524" t="inlineStr"/>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -17782,19 +17748,11 @@
         <v>-182.3642999999999</v>
       </c>
       <c r="H525" t="n">
-        <v>1</v>
-      </c>
-      <c r="I525" t="n">
-        <v>1276</v>
-      </c>
-      <c r="J525" t="n">
-        <v>1274</v>
-      </c>
-      <c r="K525" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I525" t="inlineStr"/>
+      <c r="J525" t="inlineStr"/>
+      <c r="K525" t="inlineStr"/>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -17823,14 +17781,10 @@
         <v>-182.3642999999999</v>
       </c>
       <c r="H526" t="n">
-        <v>1</v>
-      </c>
-      <c r="I526" t="n">
-        <v>1276</v>
-      </c>
-      <c r="J526" t="n">
-        <v>1276</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I526" t="inlineStr"/>
+      <c r="J526" t="inlineStr"/>
       <c r="K526" t="inlineStr"/>
       <c r="L526" t="n">
         <v>1</v>
@@ -17863,14 +17817,8 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="n">
-        <v>1276</v>
-      </c>
-      <c r="K527" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J527" t="inlineStr"/>
+      <c r="K527" t="inlineStr"/>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -17902,14 +17850,8 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="n">
-        <v>1276</v>
-      </c>
-      <c r="K528" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J528" t="inlineStr"/>
+      <c r="K528" t="inlineStr"/>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -18004,14 +17946,10 @@
         <v>-182.3642999999999</v>
       </c>
       <c r="H531" t="n">
-        <v>1</v>
-      </c>
-      <c r="I531" t="n">
-        <v>1276</v>
-      </c>
-      <c r="J531" t="n">
-        <v>1276</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I531" t="inlineStr"/>
+      <c r="J531" t="inlineStr"/>
       <c r="K531" t="inlineStr"/>
       <c r="L531" t="n">
         <v>1</v>
@@ -18044,14 +17982,8 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="n">
-        <v>1276</v>
-      </c>
-      <c r="K532" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J532" t="inlineStr"/>
+      <c r="K532" t="inlineStr"/>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -18083,14 +18015,8 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="n">
-        <v>1276</v>
-      </c>
-      <c r="K533" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J533" t="inlineStr"/>
+      <c r="K533" t="inlineStr"/>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18152,10 +18078,14 @@
         <v>-185.8642999999999</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
-      </c>
-      <c r="I535" t="inlineStr"/>
-      <c r="J535" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I535" t="n">
+        <v>1274</v>
+      </c>
+      <c r="J535" t="n">
+        <v>1274</v>
+      </c>
       <c r="K535" t="inlineStr"/>
       <c r="L535" t="n">
         <v>1</v>
@@ -18185,11 +18115,19 @@
         <v>-185.8642999999999</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
-      </c>
-      <c r="I536" t="inlineStr"/>
-      <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I536" t="n">
+        <v>1274</v>
+      </c>
+      <c r="J536" t="n">
+        <v>1274</v>
+      </c>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18218,11 +18156,19 @@
         <v>-185.8642999999999</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
-      </c>
-      <c r="I537" t="inlineStr"/>
-      <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I537" t="n">
+        <v>1274</v>
+      </c>
+      <c r="J537" t="n">
+        <v>1274</v>
+      </c>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -18251,10 +18197,14 @@
         <v>-166.8642999999999</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
-      </c>
-      <c r="I538" t="inlineStr"/>
-      <c r="J538" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I538" t="n">
+        <v>1274</v>
+      </c>
+      <c r="J538" t="n">
+        <v>1274</v>
+      </c>
       <c r="K538" t="inlineStr"/>
       <c r="L538" t="n">
         <v>1</v>
@@ -18284,11 +18234,19 @@
         <v>-174.3642999999999</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
-      </c>
-      <c r="I539" t="inlineStr"/>
-      <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I539" t="n">
+        <v>1276</v>
+      </c>
+      <c r="J539" t="n">
+        <v>1274</v>
+      </c>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -18317,11 +18275,19 @@
         <v>-103.5642999999999</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
-      </c>
-      <c r="I540" t="inlineStr"/>
-      <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I540" t="n">
+        <v>1274</v>
+      </c>
+      <c r="J540" t="n">
+        <v>1274</v>
+      </c>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -18680,10 +18646,14 @@
         <v>-147.3642999999999</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
-      </c>
-      <c r="I551" t="inlineStr"/>
-      <c r="J551" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I551" t="n">
+        <v>1272</v>
+      </c>
+      <c r="J551" t="n">
+        <v>1272</v>
+      </c>
       <c r="K551" t="inlineStr"/>
       <c r="L551" t="n">
         <v>1</v>
@@ -18716,8 +18686,14 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+      <c r="J552" t="n">
+        <v>1272</v>
+      </c>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -18746,11 +18722,19 @@
         <v>-147.3642999999999</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
-      </c>
-      <c r="I553" t="inlineStr"/>
-      <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I553" t="n">
+        <v>1272</v>
+      </c>
+      <c r="J553" t="n">
+        <v>1272</v>
+      </c>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -18779,10 +18763,14 @@
         <v>-147.3642999999999</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
-      </c>
-      <c r="I554" t="inlineStr"/>
-      <c r="J554" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I554" t="n">
+        <v>1272</v>
+      </c>
+      <c r="J554" t="n">
+        <v>1272</v>
+      </c>
       <c r="K554" t="inlineStr"/>
       <c r="L554" t="n">
         <v>1</v>
@@ -18815,8 +18803,14 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="J555" t="n">
+        <v>1272</v>
+      </c>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -18848,8 +18842,14 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="J556" t="n">
+        <v>1272</v>
+      </c>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -19707,11 +19707,9 @@
         <v>-144.9642999999999</v>
       </c>
       <c r="H582" t="n">
-        <v>1</v>
-      </c>
-      <c r="I582" t="n">
-        <v>1271</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I582" t="inlineStr"/>
       <c r="J582" t="n">
         <v>1269</v>
       </c>
@@ -19748,11 +19746,9 @@
         <v>-142.9642999999999</v>
       </c>
       <c r="H583" t="n">
-        <v>1</v>
-      </c>
-      <c r="I583" t="n">
-        <v>1271</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I583" t="inlineStr"/>
       <c r="J583" t="n">
         <v>1269</v>
       </c>
@@ -19789,14 +19785,10 @@
         <v>-142.9642999999999</v>
       </c>
       <c r="H584" t="n">
-        <v>1</v>
-      </c>
-      <c r="I584" t="n">
-        <v>1273</v>
-      </c>
-      <c r="J584" t="n">
-        <v>1273</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I584" t="inlineStr"/>
+      <c r="J584" t="inlineStr"/>
       <c r="K584" t="inlineStr"/>
       <c r="L584" t="n">
         <v>1</v>
@@ -19826,19 +19818,11 @@
         <v>-128.6642999999999</v>
       </c>
       <c r="H585" t="n">
-        <v>1</v>
-      </c>
-      <c r="I585" t="n">
-        <v>1273</v>
-      </c>
-      <c r="J585" t="n">
-        <v>1273</v>
-      </c>
-      <c r="K585" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I585" t="inlineStr"/>
+      <c r="J585" t="inlineStr"/>
+      <c r="K585" t="inlineStr"/>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -19867,19 +19851,11 @@
         <v>-128.6642999999999</v>
       </c>
       <c r="H586" t="n">
-        <v>1</v>
-      </c>
-      <c r="I586" t="n">
-        <v>1276</v>
-      </c>
-      <c r="J586" t="n">
-        <v>1273</v>
-      </c>
-      <c r="K586" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I586" t="inlineStr"/>
+      <c r="J586" t="inlineStr"/>
+      <c r="K586" t="inlineStr"/>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -19908,14 +19884,10 @@
         <v>-109.3642999999999</v>
       </c>
       <c r="H587" t="n">
-        <v>1</v>
-      </c>
-      <c r="I587" t="n">
-        <v>1276</v>
-      </c>
-      <c r="J587" t="n">
-        <v>1276</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I587" t="inlineStr"/>
+      <c r="J587" t="inlineStr"/>
       <c r="K587" t="inlineStr"/>
       <c r="L587" t="n">
         <v>1</v>
@@ -19948,14 +19920,8 @@
         <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="n">
-        <v>1276</v>
-      </c>
-      <c r="K588" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J588" t="inlineStr"/>
+      <c r="K588" t="inlineStr"/>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -19987,14 +19953,8 @@
         <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="n">
-        <v>1276</v>
-      </c>
-      <c r="K589" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J589" t="inlineStr"/>
+      <c r="K589" t="inlineStr"/>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -20980,7 +20940,7 @@
         <v>-64.56429999999993</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -21013,7 +20973,7 @@
         <v>-64.56429999999993</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -21046,7 +21006,7 @@
         <v>-58.66429999999993</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -21079,7 +21039,7 @@
         <v>-41.86429999999993</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -21112,7 +21072,7 @@
         <v>-41.86429999999993</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -21178,7 +21138,7 @@
         <v>-57.56429999999993</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -21244,7 +21204,7 @@
         <v>-47.86429999999993</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -21277,7 +21237,7 @@
         <v>-58.46429999999993</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -21310,7 +21270,7 @@
         <v>-66.96429999999992</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -21343,7 +21303,7 @@
         <v>-66.96429999999992</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -21376,7 +21336,7 @@
         <v>-66.96429999999992</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -21409,7 +21369,7 @@
         <v>-66.96429999999992</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -21442,7 +21402,7 @@
         <v>-66.96429999999992</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -21475,7 +21435,7 @@
         <v>-66.96429999999992</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -25138,7 +25098,7 @@
         <v>64.33570000000009</v>
       </c>
       <c r="H745" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -25402,7 +25362,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H753" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -25435,7 +25395,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H754" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -25468,7 +25428,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H755" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -25501,7 +25461,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H756" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -25534,7 +25494,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H757" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -25567,7 +25527,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H758" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -25600,7 +25560,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H759" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -25633,7 +25593,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H760" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -25666,7 +25626,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H761" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
@@ -25699,7 +25659,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H762" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -25732,7 +25692,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H763" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -25765,7 +25725,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H764" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
@@ -25798,7 +25758,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H765" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -25996,7 +25956,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H771" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
@@ -26062,7 +26022,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H773" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -26161,7 +26121,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H776" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
@@ -26194,7 +26154,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H777" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
@@ -26227,7 +26187,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H778" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
@@ -26260,7 +26220,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H779" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
@@ -26293,7 +26253,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H780" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
@@ -26326,7 +26286,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H781" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
@@ -26359,7 +26319,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H782" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
@@ -26392,7 +26352,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H783" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
@@ -26425,7 +26385,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H784" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
@@ -26458,7 +26418,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H785" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
@@ -26491,7 +26451,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H786" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
@@ -26524,7 +26484,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H787" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
@@ -26557,7 +26517,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H788" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
@@ -26590,7 +26550,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H789" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
@@ -26623,7 +26583,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H790" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
@@ -26656,7 +26616,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H791" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
@@ -26689,7 +26649,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H792" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
@@ -26722,7 +26682,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H793" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
@@ -26755,7 +26715,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H794" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
@@ -26788,7 +26748,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H795" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
@@ -26821,7 +26781,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H796" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
@@ -26854,7 +26814,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H797" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
@@ -26887,7 +26847,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H798" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
@@ -26920,7 +26880,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H799" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
@@ -26953,7 +26913,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H800" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
@@ -26986,7 +26946,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H801" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
@@ -27019,7 +26979,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H802" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
@@ -27052,7 +27012,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H803" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
@@ -27085,7 +27045,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H804" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
@@ -27118,7 +27078,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H805" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
@@ -27151,7 +27111,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H806" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
@@ -27184,7 +27144,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H807" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
@@ -27217,7 +27177,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H808" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
@@ -27250,7 +27210,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H809" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
@@ -27283,7 +27243,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H810" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
@@ -27316,7 +27276,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H811" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
@@ -27349,7 +27309,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H812" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
@@ -27382,7 +27342,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H813" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
@@ -27415,7 +27375,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H814" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
@@ -27448,7 +27408,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H815" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
@@ -27481,7 +27441,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H816" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
@@ -27514,7 +27474,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H817" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
@@ -27547,7 +27507,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H818" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
@@ -27580,7 +27540,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H819" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
@@ -27613,7 +27573,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H820" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
@@ -27646,7 +27606,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H821" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
@@ -27679,7 +27639,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H822" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
@@ -27712,7 +27672,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H823" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
@@ -27745,7 +27705,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H824" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
@@ -27778,7 +27738,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H825" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
@@ -27811,7 +27771,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H826" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
@@ -27844,7 +27804,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H827" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
@@ -27877,7 +27837,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H828" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
@@ -27910,7 +27870,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H829" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
@@ -27943,7 +27903,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H830" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
@@ -27976,7 +27936,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H831" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
@@ -28009,7 +27969,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H832" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
@@ -28042,7 +28002,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H833" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
@@ -28075,7 +28035,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H834" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
@@ -28108,7 +28068,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H835" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
@@ -28141,7 +28101,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H836" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
@@ -28174,7 +28134,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H837" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
@@ -28207,7 +28167,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H838" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
@@ -28240,7 +28200,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H839" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
@@ -28273,7 +28233,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H840" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
@@ -28306,7 +28266,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H841" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
@@ -28339,7 +28299,7 @@
         <v>91.43570000000008</v>
       </c>
       <c r="H842" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
@@ -28350,6 +28310,6 @@
       <c r="M842" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-19 BackTest BHP.xlsx
+++ b/BackTest/2019-10-19 BackTest BHP.xlsx
@@ -3487,7 +3487,7 @@
         <v>-95.51920000000001</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-95.51920000000001</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-101.1192</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-101.1192</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-61.6431</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-61.6431</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-58.7431</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-58.7431</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-58.7431</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-58.7431</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-58.7431</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-58.7431</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-58.7431</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-58.7431</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-58.7431</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-58.7431</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-58.7431</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-58.7431</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-58.7431</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-58.7431</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-58.7431</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-58.7431</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-58.7431</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-58.7431</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-58.7431</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-58.7431</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-52.4431</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-55.5431</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-50.4431</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-50.4431</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-50.4431</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-56.8431</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-29.6251</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-8.745100000000001</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-8.745100000000001</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-8.745100000000001</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-8.745100000000001</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-14.2451</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-14.2451</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-14.2451</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-14.2451</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-14.2451</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-14.2451</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-14.2451</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-14.2451</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>-14.2451</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>-14.2451</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>-14.2451</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>-14.2451</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>-14.2451</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>-14.2451</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>3.154899999999998</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>3.154899999999998</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>3.154899999999998</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -17380,14 +17380,10 @@
         <v>-197.6642999999999</v>
       </c>
       <c r="H515" t="n">
-        <v>1</v>
-      </c>
-      <c r="I515" t="n">
-        <v>1269</v>
-      </c>
-      <c r="J515" t="n">
-        <v>1269</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I515" t="inlineStr"/>
+      <c r="J515" t="inlineStr"/>
       <c r="K515" t="inlineStr"/>
       <c r="L515" t="n">
         <v>1</v>
@@ -17417,19 +17413,11 @@
         <v>-190.6642999999999</v>
       </c>
       <c r="H516" t="n">
-        <v>1</v>
-      </c>
-      <c r="I516" t="n">
-        <v>1269</v>
-      </c>
-      <c r="J516" t="n">
-        <v>1269</v>
-      </c>
-      <c r="K516" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I516" t="inlineStr"/>
+      <c r="J516" t="inlineStr"/>
+      <c r="K516" t="inlineStr"/>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -17458,19 +17446,11 @@
         <v>-190.6642999999999</v>
       </c>
       <c r="H517" t="n">
-        <v>1</v>
-      </c>
-      <c r="I517" t="n">
-        <v>1272</v>
-      </c>
-      <c r="J517" t="n">
-        <v>1269</v>
-      </c>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I517" t="inlineStr"/>
+      <c r="J517" t="inlineStr"/>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -17499,14 +17479,10 @@
         <v>-190.6642999999999</v>
       </c>
       <c r="H518" t="n">
-        <v>1</v>
-      </c>
-      <c r="I518" t="n">
-        <v>1272</v>
-      </c>
-      <c r="J518" t="n">
-        <v>1272</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I518" t="inlineStr"/>
+      <c r="J518" t="inlineStr"/>
       <c r="K518" t="inlineStr"/>
       <c r="L518" t="n">
         <v>1</v>
@@ -17544,11 +17520,7 @@
       <c r="J519" t="n">
         <v>1272</v>
       </c>
-      <c r="K519" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K519" t="inlineStr"/>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -17577,9 +17549,11 @@
         <v>-186.1642999999999</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
-      </c>
-      <c r="I520" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I520" t="n">
+        <v>1272</v>
+      </c>
       <c r="J520" t="n">
         <v>1272</v>
       </c>
@@ -17619,8 +17593,14 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="J521" t="n">
+        <v>1272</v>
+      </c>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -17682,10 +17662,14 @@
         <v>-182.3642999999999</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
-      </c>
-      <c r="I523" t="inlineStr"/>
-      <c r="J523" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I523" t="n">
+        <v>1274</v>
+      </c>
+      <c r="J523" t="n">
+        <v>1274</v>
+      </c>
       <c r="K523" t="inlineStr"/>
       <c r="L523" t="n">
         <v>1</v>
@@ -17715,11 +17699,19 @@
         <v>-182.3642999999999</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
-      </c>
-      <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I524" t="n">
+        <v>1276</v>
+      </c>
+      <c r="J524" t="n">
+        <v>1274</v>
+      </c>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -17751,8 +17743,14 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="J525" t="n">
+        <v>1274</v>
+      </c>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -18156,11 +18154,9 @@
         <v>-185.8642999999999</v>
       </c>
       <c r="H537" t="n">
-        <v>1</v>
-      </c>
-      <c r="I537" t="n">
-        <v>1274</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I537" t="inlineStr"/>
       <c r="J537" t="n">
         <v>1274</v>
       </c>
@@ -18197,14 +18193,10 @@
         <v>-166.8642999999999</v>
       </c>
       <c r="H538" t="n">
-        <v>1</v>
-      </c>
-      <c r="I538" t="n">
-        <v>1274</v>
-      </c>
-      <c r="J538" t="n">
-        <v>1274</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I538" t="inlineStr"/>
+      <c r="J538" t="inlineStr"/>
       <c r="K538" t="inlineStr"/>
       <c r="L538" t="n">
         <v>1</v>
@@ -18234,19 +18226,11 @@
         <v>-174.3642999999999</v>
       </c>
       <c r="H539" t="n">
-        <v>1</v>
-      </c>
-      <c r="I539" t="n">
-        <v>1276</v>
-      </c>
-      <c r="J539" t="n">
-        <v>1274</v>
-      </c>
-      <c r="K539" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I539" t="inlineStr"/>
+      <c r="J539" t="inlineStr"/>
+      <c r="K539" t="inlineStr"/>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -18275,19 +18259,11 @@
         <v>-103.5642999999999</v>
       </c>
       <c r="H540" t="n">
-        <v>1</v>
-      </c>
-      <c r="I540" t="n">
-        <v>1274</v>
-      </c>
-      <c r="J540" t="n">
-        <v>1274</v>
-      </c>
-      <c r="K540" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I540" t="inlineStr"/>
+      <c r="J540" t="inlineStr"/>
+      <c r="K540" t="inlineStr"/>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -18646,14 +18622,10 @@
         <v>-147.3642999999999</v>
       </c>
       <c r="H551" t="n">
-        <v>1</v>
-      </c>
-      <c r="I551" t="n">
-        <v>1272</v>
-      </c>
-      <c r="J551" t="n">
-        <v>1272</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I551" t="inlineStr"/>
+      <c r="J551" t="inlineStr"/>
       <c r="K551" t="inlineStr"/>
       <c r="L551" t="n">
         <v>1</v>
@@ -18686,14 +18658,8 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="n">
-        <v>1272</v>
-      </c>
-      <c r="K552" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J552" t="inlineStr"/>
+      <c r="K552" t="inlineStr"/>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -18722,19 +18688,11 @@
         <v>-147.3642999999999</v>
       </c>
       <c r="H553" t="n">
-        <v>1</v>
-      </c>
-      <c r="I553" t="n">
-        <v>1272</v>
-      </c>
-      <c r="J553" t="n">
-        <v>1272</v>
-      </c>
-      <c r="K553" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I553" t="inlineStr"/>
+      <c r="J553" t="inlineStr"/>
+      <c r="K553" t="inlineStr"/>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -18763,14 +18721,10 @@
         <v>-147.3642999999999</v>
       </c>
       <c r="H554" t="n">
-        <v>1</v>
-      </c>
-      <c r="I554" t="n">
-        <v>1272</v>
-      </c>
-      <c r="J554" t="n">
-        <v>1272</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I554" t="inlineStr"/>
+      <c r="J554" t="inlineStr"/>
       <c r="K554" t="inlineStr"/>
       <c r="L554" t="n">
         <v>1</v>
@@ -18803,14 +18757,8 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="n">
-        <v>1272</v>
-      </c>
-      <c r="K555" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J555" t="inlineStr"/>
+      <c r="K555" t="inlineStr"/>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -18842,14 +18790,8 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="n">
-        <v>1272</v>
-      </c>
-      <c r="K556" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J556" t="inlineStr"/>
+      <c r="K556" t="inlineStr"/>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -19604,10 +19546,14 @@
         <v>-159.2642999999999</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
-      </c>
-      <c r="I579" t="inlineStr"/>
-      <c r="J579" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I579" t="n">
+        <v>1269</v>
+      </c>
+      <c r="J579" t="n">
+        <v>1269</v>
+      </c>
       <c r="K579" t="inlineStr"/>
       <c r="L579" t="n">
         <v>1</v>
@@ -19637,11 +19583,19 @@
         <v>-159.2642999999999</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
-      </c>
-      <c r="I580" t="inlineStr"/>
-      <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I580" t="n">
+        <v>1269</v>
+      </c>
+      <c r="J580" t="n">
+        <v>1269</v>
+      </c>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -19678,7 +19632,11 @@
       <c r="J581" t="n">
         <v>1269</v>
       </c>
-      <c r="K581" t="inlineStr"/>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -19707,17 +19665,15 @@
         <v>-144.9642999999999</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
-      </c>
-      <c r="I582" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I582" t="n">
+        <v>1271</v>
+      </c>
       <c r="J582" t="n">
-        <v>1269</v>
-      </c>
-      <c r="K582" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>1271</v>
+      </c>
+      <c r="K582" t="inlineStr"/>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -19746,11 +19702,13 @@
         <v>-142.9642999999999</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
-      </c>
-      <c r="I583" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I583" t="n">
+        <v>1271</v>
+      </c>
       <c r="J583" t="n">
-        <v>1269</v>
+        <v>1271</v>
       </c>
       <c r="K583" t="inlineStr">
         <is>
@@ -19785,11 +19743,19 @@
         <v>-142.9642999999999</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
-      </c>
-      <c r="I584" t="inlineStr"/>
-      <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I584" t="n">
+        <v>1273</v>
+      </c>
+      <c r="J584" t="n">
+        <v>1271</v>
+      </c>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -19818,10 +19784,14 @@
         <v>-128.6642999999999</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
-      </c>
-      <c r="I585" t="inlineStr"/>
-      <c r="J585" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I585" t="n">
+        <v>1273</v>
+      </c>
+      <c r="J585" t="n">
+        <v>1273</v>
+      </c>
       <c r="K585" t="inlineStr"/>
       <c r="L585" t="n">
         <v>1</v>
@@ -19854,8 +19824,14 @@
         <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="J586" t="n">
+        <v>1273</v>
+      </c>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -19887,8 +19863,14 @@
         <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="J587" t="n">
+        <v>1273</v>
+      </c>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -20940,7 +20922,7 @@
         <v>-64.56429999999993</v>
       </c>
       <c r="H619" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -20973,7 +20955,7 @@
         <v>-64.56429999999993</v>
       </c>
       <c r="H620" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -21006,7 +20988,7 @@
         <v>-58.66429999999993</v>
       </c>
       <c r="H621" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -21039,7 +21021,7 @@
         <v>-41.86429999999993</v>
       </c>
       <c r="H622" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -21105,7 +21087,7 @@
         <v>-57.56429999999993</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -21138,7 +21120,7 @@
         <v>-57.56429999999993</v>
       </c>
       <c r="H625" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -21204,7 +21186,7 @@
         <v>-47.86429999999993</v>
       </c>
       <c r="H627" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -21237,7 +21219,7 @@
         <v>-58.46429999999993</v>
       </c>
       <c r="H628" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -21270,7 +21252,7 @@
         <v>-66.96429999999992</v>
       </c>
       <c r="H629" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -21303,7 +21285,7 @@
         <v>-66.96429999999992</v>
       </c>
       <c r="H630" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -21336,7 +21318,7 @@
         <v>-66.96429999999992</v>
       </c>
       <c r="H631" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -21369,7 +21351,7 @@
         <v>-66.96429999999992</v>
       </c>
       <c r="H632" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -21402,7 +21384,7 @@
         <v>-66.96429999999992</v>
       </c>
       <c r="H633" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -21435,7 +21417,7 @@
         <v>-66.96429999999992</v>
       </c>
       <c r="H634" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -22095,7 +22077,7 @@
         <v>-35.56429999999991</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -22161,7 +22143,7 @@
         <v>-35.56429999999991</v>
       </c>
       <c r="H656" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -22194,7 +22176,7 @@
         <v>-35.56429999999991</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -22227,7 +22209,7 @@
         <v>-35.56429999999991</v>
       </c>
       <c r="H658" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -22260,7 +22242,7 @@
         <v>-35.56429999999991</v>
       </c>
       <c r="H659" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -22326,7 +22308,7 @@
         <v>-35.56429999999991</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -22359,7 +22341,7 @@
         <v>-35.56429999999991</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -22392,7 +22374,7 @@
         <v>-35.56429999999991</v>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -22491,7 +22473,7 @@
         <v>-35.56429999999991</v>
       </c>
       <c r="H666" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -22656,7 +22638,7 @@
         <v>-35.56429999999991</v>
       </c>
       <c r="H671" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -22689,7 +22671,7 @@
         <v>-35.56429999999991</v>
       </c>
       <c r="H672" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -22722,7 +22704,7 @@
         <v>-35.56429999999991</v>
       </c>
       <c r="H673" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -22755,7 +22737,7 @@
         <v>-35.56429999999991</v>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -22788,7 +22770,7 @@
         <v>-39.56429999999991</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -22986,7 +22968,7 @@
         <v>-14.06429999999991</v>
       </c>
       <c r="H681" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -23019,7 +23001,7 @@
         <v>-14.06429999999991</v>
       </c>
       <c r="H682" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -23052,7 +23034,7 @@
         <v>-14.06429999999991</v>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -23085,7 +23067,7 @@
         <v>-14.06429999999991</v>
       </c>
       <c r="H684" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -23118,7 +23100,7 @@
         <v>-21.76429999999991</v>
       </c>
       <c r="H685" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -23151,7 +23133,7 @@
         <v>-21.76429999999991</v>
       </c>
       <c r="H686" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -23184,7 +23166,7 @@
         <v>-38.36429999999991</v>
       </c>
       <c r="H687" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -23448,7 +23430,7 @@
         <v>-47.86429999999991</v>
       </c>
       <c r="H695" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -23580,7 +23562,7 @@
         <v>-32.86429999999991</v>
       </c>
       <c r="H699" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -23613,7 +23595,7 @@
         <v>-44.76429999999991</v>
       </c>
       <c r="H700" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -23712,7 +23694,7 @@
         <v>-44.76429999999991</v>
       </c>
       <c r="H703" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -23745,7 +23727,7 @@
         <v>-44.76429999999991</v>
       </c>
       <c r="H704" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -23844,7 +23826,7 @@
         <v>-44.76429999999991</v>
       </c>
       <c r="H707" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -23943,7 +23925,7 @@
         <v>-51.26429999999991</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -23976,7 +23958,7 @@
         <v>-51.26429999999991</v>
       </c>
       <c r="H711" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -24570,7 +24552,7 @@
         <v>70.13570000000009</v>
       </c>
       <c r="H729" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
@@ -24603,7 +24585,7 @@
         <v>70.13570000000009</v>
       </c>
       <c r="H730" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -24636,7 +24618,7 @@
         <v>70.13570000000009</v>
       </c>
       <c r="H731" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -24669,7 +24651,7 @@
         <v>81.53570000000009</v>
       </c>
       <c r="H732" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -24702,7 +24684,7 @@
         <v>74.53570000000009</v>
       </c>
       <c r="H733" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -24735,7 +24717,7 @@
         <v>74.53570000000009</v>
       </c>
       <c r="H734" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -24768,7 +24750,7 @@
         <v>74.53570000000009</v>
       </c>
       <c r="H735" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -24801,7 +24783,7 @@
         <v>83.23570000000009</v>
       </c>
       <c r="H736" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -24834,7 +24816,7 @@
         <v>83.23570000000009</v>
       </c>
       <c r="H737" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -24867,7 +24849,7 @@
         <v>83.23570000000009</v>
       </c>
       <c r="H738" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -24900,7 +24882,7 @@
         <v>83.23570000000009</v>
       </c>
       <c r="H739" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -24933,7 +24915,7 @@
         <v>64.33570000000009</v>
       </c>
       <c r="H740" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -24966,7 +24948,7 @@
         <v>64.33570000000009</v>
       </c>
       <c r="H741" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -24999,7 +24981,7 @@
         <v>64.33570000000009</v>
       </c>
       <c r="H742" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -25032,7 +25014,7 @@
         <v>64.33570000000009</v>
       </c>
       <c r="H743" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -25065,7 +25047,7 @@
         <v>64.33570000000009</v>
       </c>
       <c r="H744" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -25098,7 +25080,7 @@
         <v>64.33570000000009</v>
       </c>
       <c r="H745" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -25131,7 +25113,7 @@
         <v>61.73570000000009</v>
       </c>
       <c r="H746" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -25164,7 +25146,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H747" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -25197,7 +25179,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H748" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -25230,7 +25212,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -25263,7 +25245,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H750" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -25296,7 +25278,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H751" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -25329,7 +25311,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H752" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -25362,7 +25344,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H753" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -25395,7 +25377,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H754" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -25428,7 +25410,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H755" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -25461,7 +25443,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H756" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -25494,7 +25476,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H757" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -25527,7 +25509,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H758" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -25560,7 +25542,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H759" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -25593,7 +25575,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H760" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -25626,7 +25608,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H761" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
@@ -25659,7 +25641,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H762" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -25692,7 +25674,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H763" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -25725,7 +25707,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H764" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
@@ -25758,7 +25740,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H765" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -25791,7 +25773,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H766" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
@@ -25824,7 +25806,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H767" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
@@ -25857,7 +25839,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H768" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -25890,7 +25872,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H769" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
@@ -25923,7 +25905,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H770" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -25956,7 +25938,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H771" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
@@ -25989,7 +25971,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H772" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
@@ -26022,7 +26004,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H773" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -26055,7 +26037,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H774" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
@@ -26088,7 +26070,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H775" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
@@ -26121,7 +26103,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H776" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
@@ -26154,7 +26136,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H777" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
@@ -26187,7 +26169,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H778" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
@@ -26220,7 +26202,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H779" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
@@ -26253,7 +26235,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H780" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
@@ -26286,7 +26268,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H781" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
@@ -26319,7 +26301,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H782" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
@@ -26352,7 +26334,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H783" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
@@ -26385,7 +26367,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H784" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
@@ -26418,7 +26400,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H785" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
@@ -26451,7 +26433,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H786" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
@@ -26484,7 +26466,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H787" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
@@ -26517,7 +26499,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H788" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
@@ -26550,7 +26532,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H789" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
@@ -26583,7 +26565,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H790" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
@@ -26616,7 +26598,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H791" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
@@ -26649,7 +26631,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H792" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
@@ -26682,7 +26664,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H793" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
@@ -26715,7 +26697,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H794" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
@@ -26748,7 +26730,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H795" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
@@ -26781,7 +26763,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H796" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
@@ -26814,7 +26796,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H797" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
@@ -26847,7 +26829,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H798" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
@@ -26880,7 +26862,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H799" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
@@ -26913,7 +26895,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H800" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
@@ -26946,7 +26928,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H801" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
@@ -26979,7 +26961,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H802" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
@@ -27012,7 +26994,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H803" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
@@ -27045,7 +27027,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H804" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
@@ -27078,7 +27060,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H805" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
@@ -27111,7 +27093,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H806" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
@@ -27144,7 +27126,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H807" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
@@ -27177,7 +27159,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H808" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
@@ -27210,7 +27192,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H809" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
@@ -27243,7 +27225,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H810" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
@@ -27276,7 +27258,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H811" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
@@ -27309,7 +27291,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H812" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
@@ -27342,7 +27324,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H813" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
@@ -27375,7 +27357,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H814" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
@@ -27408,7 +27390,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H815" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
@@ -27441,7 +27423,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H816" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
@@ -27474,7 +27456,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H817" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
@@ -27507,7 +27489,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H818" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
@@ -27540,7 +27522,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H819" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
@@ -27573,7 +27555,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H820" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
@@ -27606,7 +27588,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H821" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
@@ -27639,7 +27621,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H822" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
@@ -27672,7 +27654,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H823" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
@@ -27705,7 +27687,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H824" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
@@ -27738,7 +27720,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H825" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
@@ -27771,7 +27753,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H826" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
@@ -27804,7 +27786,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H827" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
@@ -27837,7 +27819,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H828" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
@@ -27870,7 +27852,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H829" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
@@ -27903,7 +27885,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H830" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
@@ -27936,7 +27918,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H831" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
@@ -27969,7 +27951,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H832" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
@@ -28002,7 +27984,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H833" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
@@ -28035,7 +28017,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H834" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
@@ -28068,7 +28050,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H835" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
@@ -28101,7 +28083,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H836" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
@@ -28134,7 +28116,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H837" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
@@ -28167,7 +28149,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H838" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
@@ -28200,7 +28182,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H839" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
@@ -28233,7 +28215,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H840" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
@@ -28266,7 +28248,7 @@
         <v>76.83570000000009</v>
       </c>
       <c r="H841" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
@@ -28299,7 +28281,7 @@
         <v>91.43570000000008</v>
       </c>
       <c r="H842" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
